--- a/data/nzd0403/nzd0403.xlsx
+++ b/data/nzd0403/nzd0403.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N262"/>
+  <dimension ref="A1:N263"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10722,12 +10722,8 @@
       <c r="G261" t="n">
         <v>374.72</v>
       </c>
-      <c r="H261" t="n">
-        <v>231.86</v>
-      </c>
-      <c r="I261" t="n">
-        <v>264.5314285714286</v>
-      </c>
+      <c r="H261" t="inlineStr"/>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
       <c r="L261" t="inlineStr"/>
@@ -10764,12 +10760,8 @@
       <c r="G262" t="n">
         <v>372.84</v>
       </c>
-      <c r="H262" t="n">
-        <v>234.13</v>
-      </c>
-      <c r="I262" t="n">
-        <v>260.7514285714286</v>
-      </c>
+      <c r="H262" t="inlineStr"/>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="n">
         <v>352.8114285714286</v>
       </c>
@@ -10779,8 +10771,56 @@
       <c r="L262" t="n">
         <v>357.6881818181818</v>
       </c>
-      <c r="M262" t="inlineStr"/>
+      <c r="M262" t="n">
+        <v>368.3</v>
+      </c>
       <c r="N262" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:07:44+00:00</t>
+        </is>
+      </c>
+      <c r="B263" t="n">
+        <v>318.21</v>
+      </c>
+      <c r="C263" t="n">
+        <v>327.6528571428572</v>
+      </c>
+      <c r="D263" t="n">
+        <v>337.91</v>
+      </c>
+      <c r="E263" t="n">
+        <v>338.4533333333333</v>
+      </c>
+      <c r="F263" t="n">
+        <v>346.4555555555555</v>
+      </c>
+      <c r="G263" t="inlineStr"/>
+      <c r="H263" t="n">
+        <v>341.47</v>
+      </c>
+      <c r="I263" t="n">
+        <v>344.6514285714285</v>
+      </c>
+      <c r="J263" t="n">
+        <v>351.2414285714286</v>
+      </c>
+      <c r="K263" t="n">
+        <v>366.4994736842105</v>
+      </c>
+      <c r="L263" t="n">
+        <v>362.4972727272727</v>
+      </c>
+      <c r="M263" t="n">
+        <v>373.08</v>
+      </c>
+      <c r="N263" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -10797,7 +10837,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B278"/>
+  <dimension ref="A1:B279"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13585,6 +13625,16 @@
       </c>
       <c r="B278" t="n">
         <v>0.65</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B279" t="n">
+        <v>-0.4</v>
       </c>
     </row>
   </sheetData>
@@ -13753,28 +13803,28 @@
         <v>0.2</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.211806020870647</v>
+        <v>-1.175862752590524</v>
       </c>
       <c r="J2" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K2" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1367069566708033</v>
+        <v>0.1310144304854778</v>
       </c>
       <c r="M2" t="n">
-        <v>18.19085431218724</v>
+        <v>18.21043828723082</v>
       </c>
       <c r="N2" t="n">
-        <v>504.3558655218046</v>
+        <v>504.3123447297714</v>
       </c>
       <c r="O2" t="n">
-        <v>22.45786867718762</v>
+        <v>22.45689971322336</v>
       </c>
       <c r="P2" t="n">
-        <v>326.3741932313238</v>
+        <v>326.0468699759291</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -13830,28 +13880,28 @@
         <v>0.2</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.296529151736769</v>
+        <v>-1.258767632830603</v>
       </c>
       <c r="J3" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K3" t="n">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L3" t="n">
-        <v>0.149137165717096</v>
+        <v>0.1423341257353617</v>
       </c>
       <c r="M3" t="n">
-        <v>18.56418351890341</v>
+        <v>18.64109500794556</v>
       </c>
       <c r="N3" t="n">
-        <v>508.9029377263805</v>
+        <v>510.5877572163243</v>
       </c>
       <c r="O3" t="n">
-        <v>22.55887713797787</v>
+        <v>22.59618899762357</v>
       </c>
       <c r="P3" t="n">
-        <v>332.8217668505582</v>
+        <v>332.4534472772564</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -13907,28 +13957,28 @@
         <v>0.2</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.6576612570080571</v>
+        <v>-0.630913744153013</v>
       </c>
       <c r="J4" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K4" t="n">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03824814705986357</v>
+        <v>0.03553682208829168</v>
       </c>
       <c r="M4" t="n">
-        <v>19.32265462255082</v>
+        <v>19.3264257362079</v>
       </c>
       <c r="N4" t="n">
-        <v>595.3805220026198</v>
+        <v>594.3508440673371</v>
       </c>
       <c r="O4" t="n">
-        <v>24.4004205292167</v>
+        <v>24.37931180462929</v>
       </c>
       <c r="P4" t="n">
-        <v>333.1712445054171</v>
+        <v>332.9017865575289</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -13984,28 +14034,28 @@
         <v>0.08550000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.7186292125034268</v>
+        <v>-0.7057889418675873</v>
       </c>
       <c r="J5" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K5" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04953823956468806</v>
+        <v>0.04835674405962387</v>
       </c>
       <c r="M5" t="n">
-        <v>18.08973111309671</v>
+        <v>18.01576723216596</v>
       </c>
       <c r="N5" t="n">
-        <v>478.5710394286934</v>
+        <v>475.7113394175873</v>
       </c>
       <c r="O5" t="n">
-        <v>21.87626657884506</v>
+        <v>21.81080785797691</v>
       </c>
       <c r="P5" t="n">
-        <v>347.1507630753941</v>
+        <v>347.0086334781593</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -14061,28 +14111,28 @@
         <v>0.2</v>
       </c>
       <c r="I6" t="n">
-        <v>1.122035433624685</v>
+        <v>1.130119401252943</v>
       </c>
       <c r="J6" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K6" t="n">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02150801791114854</v>
+        <v>0.02204328195995753</v>
       </c>
       <c r="M6" t="n">
-        <v>33.42566253285071</v>
+        <v>33.26876117201925</v>
       </c>
       <c r="N6" t="n">
-        <v>2891.343782096636</v>
+        <v>2874.436539897378</v>
       </c>
       <c r="O6" t="n">
-        <v>53.77121704124463</v>
+        <v>53.61377192380124</v>
       </c>
       <c r="P6" t="n">
-        <v>310.751025730737</v>
+        <v>310.665862005548</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -14141,7 +14191,7 @@
         <v>-0.4825945214966515</v>
       </c>
       <c r="J7" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K7" t="n">
         <v>159</v>
@@ -14215,28 +14265,28 @@
         <v>0.0977</v>
       </c>
       <c r="I8" t="n">
-        <v>0.375724876652528</v>
+        <v>0.5896099563255638</v>
       </c>
       <c r="J8" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K8" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L8" t="n">
-        <v>0.003373735807501999</v>
+        <v>0.008607235134994506</v>
       </c>
       <c r="M8" t="n">
-        <v>34.31257234725078</v>
+        <v>33.18979255176606</v>
       </c>
       <c r="N8" t="n">
-        <v>2126.066431086966</v>
+        <v>2033.75584210285</v>
       </c>
       <c r="O8" t="n">
-        <v>46.10928790479166</v>
+        <v>45.09718219692723</v>
       </c>
       <c r="P8" t="n">
-        <v>319.331336456702</v>
+        <v>317.1512186369503</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -14292,28 +14342,28 @@
         <v>0.0582</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.7339133168313025</v>
+        <v>-0.5914024273542529</v>
       </c>
       <c r="J9" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K9" t="n">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01667557901045069</v>
+        <v>0.01098408199449175</v>
       </c>
       <c r="M9" t="n">
-        <v>32.1875773615666</v>
+        <v>31.71716753559955</v>
       </c>
       <c r="N9" t="n">
-        <v>1708.853455097352</v>
+        <v>1688.561531552887</v>
       </c>
       <c r="O9" t="n">
-        <v>41.33828074675278</v>
+        <v>41.09211033219013</v>
       </c>
       <c r="P9" t="n">
-        <v>334.5460316124107</v>
+        <v>333.1310182582241</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -14369,28 +14419,28 @@
         <v>0.0544</v>
       </c>
       <c r="I10" t="n">
-        <v>-1.126173849100833</v>
+        <v>-1.083842587387168</v>
       </c>
       <c r="J10" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K10" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L10" t="n">
-        <v>0.04011530960389531</v>
+        <v>0.03747163500410844</v>
       </c>
       <c r="M10" t="n">
-        <v>29.77203225793988</v>
+        <v>29.79380074707957</v>
       </c>
       <c r="N10" t="n">
-        <v>1573.240056961312</v>
+        <v>1572.491885827718</v>
       </c>
       <c r="O10" t="n">
-        <v>39.66409027018408</v>
+        <v>39.65465780747223</v>
       </c>
       <c r="P10" t="n">
-        <v>341.5248167996335</v>
+        <v>341.0911881297136</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -14446,28 +14496,28 @@
         <v>0.2</v>
       </c>
       <c r="I11" t="n">
-        <v>-1.116148287401047</v>
+        <v>-1.066168232179783</v>
       </c>
       <c r="J11" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K11" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L11" t="n">
-        <v>0.04913049392601998</v>
+        <v>0.04506723437238158</v>
       </c>
       <c r="M11" t="n">
-        <v>25.90097442372555</v>
+        <v>26.00186666964968</v>
       </c>
       <c r="N11" t="n">
-        <v>1279.638427481292</v>
+        <v>1285.133751275541</v>
       </c>
       <c r="O11" t="n">
-        <v>35.77203415352965</v>
+        <v>35.84876220004732</v>
       </c>
       <c r="P11" t="n">
-        <v>346.4931282053718</v>
+        <v>345.9958793593423</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -14523,28 +14573,28 @@
         <v>0.08649999999999999</v>
       </c>
       <c r="I12" t="n">
-        <v>-1.18663046663979</v>
+        <v>-1.143175274158924</v>
       </c>
       <c r="J12" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K12" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L12" t="n">
-        <v>0.05433019100639647</v>
+        <v>0.0507690542269531</v>
       </c>
       <c r="M12" t="n">
-        <v>24.5381285347766</v>
+        <v>24.60522389631901</v>
       </c>
       <c r="N12" t="n">
-        <v>1256.876409493766</v>
+        <v>1259.665751994557</v>
       </c>
       <c r="O12" t="n">
-        <v>35.45245279940114</v>
+        <v>35.49177020091499</v>
       </c>
       <c r="P12" t="n">
-        <v>349.9109604091385</v>
+        <v>349.4690998429769</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -14600,28 +14650,28 @@
         <v>0.06419999999999999</v>
       </c>
       <c r="I13" t="n">
-        <v>-1.700652117408028</v>
+        <v>-1.61421161834211</v>
       </c>
       <c r="J13" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K13" t="n">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1566344102656145</v>
+        <v>0.1418348073917081</v>
       </c>
       <c r="M13" t="n">
-        <v>22.27523611333391</v>
+        <v>22.57045950347891</v>
       </c>
       <c r="N13" t="n">
-        <v>768.8647641261264</v>
+        <v>784.466959333095</v>
       </c>
       <c r="O13" t="n">
-        <v>27.72841077534243</v>
+        <v>28.00833731825392</v>
       </c>
       <c r="P13" t="n">
-        <v>362.5139297558903</v>
+        <v>361.6094610666672</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -14658,7 +14708,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N262"/>
+  <dimension ref="A1:N263"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28938,16 +28988,8 @@
           <t>-42.77951008622427,173.37437510973618</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>-42.77967371226775,173.37240675847286</t>
-        </is>
-      </c>
-      <c r="I261" t="inlineStr">
-        <is>
-          <t>-42.78041953398514,173.3724899632757</t>
-        </is>
-      </c>
+      <c r="H261" t="inlineStr"/>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
       <c r="L261" t="inlineStr"/>
@@ -28998,16 +29040,8 @@
           <t>-42.779503543204584,173.37435391265262</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>-42.77968064553933,173.37243286423822</t>
-        </is>
-      </c>
-      <c r="I262" t="inlineStr">
-        <is>
-          <t>-42.78040892078693,173.37244605588742</t>
-        </is>
-      </c>
+      <c r="H262" t="inlineStr"/>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr">
         <is>
           <t>-42.781292756275825,173.37323265099002</t>
@@ -29023,8 +29057,80 @@
           <t>-42.78256826571992,173.37282357590928</t>
         </is>
       </c>
-      <c r="M262" t="inlineStr"/>
+      <c r="M262" t="inlineStr">
+        <is>
+          <t>-42.783231603716004,173.37276696160234</t>
+        </is>
+      </c>
       <c r="N262" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:07:44+00:00</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>-42.77640865772226,173.37595728091856</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>-42.777012997364736,173.37558040359218</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>-42.77762118847308,173.37521199455665</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>-42.77818630367666,173.37473988153127</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>-42.778810168556824,173.37442465773455</t>
+        </is>
+      </c>
+      <c r="G263" t="inlineStr"/>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>-42.78000848777279,173.3736673170387</t>
+        </is>
+      </c>
+      <c r="I263" t="inlineStr">
+        <is>
+          <t>-42.78064448488555,173.37342061755928</t>
+        </is>
+      </c>
+      <c r="J263" t="inlineStr">
+        <is>
+          <t>-42.78128845502341,173.37321436709541</t>
+        </is>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>-42.781950616924476,173.37312595509528</t>
+        </is>
+      </c>
+      <c r="L263" t="inlineStr">
+        <is>
+          <t>-42.78257737838101,173.37288105325837</t>
+        </is>
+      </c>
+      <c r="M263" t="inlineStr">
+        <is>
+          <t>-42.78324028678738,173.3728241989308</t>
+        </is>
+      </c>
+      <c r="N263" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0403/nzd0403.xlsx
+++ b/data/nzd0403/nzd0403.xlsx
@@ -13648,7 +13648,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W13"/>
+  <dimension ref="A1:X13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13739,35 +13739,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -13826,27 +13831,28 @@
       <c r="P2" t="n">
         <v>326.0468699759291</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (173.37264871103636 -42.77490172984185, 173.381940744023 -42.77913346744315)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>173.3726487110364</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-42.77490172984185</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>173.381940744023</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-42.77913346744315</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>173.3772947275297</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-42.7770175986425</v>
       </c>
     </row>
@@ -13903,27 +13909,28 @@
       <c r="P3" t="n">
         <v>332.4534472772564</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (173.3721736268399 -42.77546134367824, 173.38146569471854 -42.779693094159164)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>173.3721736268399</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-42.77546134367824</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>173.3814656947185</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-42.77969309415916</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>173.3768196607792</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-42.7775772189187</v>
       </c>
     </row>
@@ -13980,27 +13987,28 @@
       <c r="P4" t="n">
         <v>332.9017865575289</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (173.3716985426435 -42.776020952457216, 173.380990645414 -42.78025271581797)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>173.3716985426435</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-42.77602095245722</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>173.380990645414</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-42.78025271581797</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>173.3763445940288</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-42.7781368341376</v>
       </c>
     </row>
@@ -14057,27 +14065,28 @@
       <c r="P5" t="n">
         <v>347.0086334781593</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (173.3711220917404 -42.77670748218523, 173.38067518787145 -42.780612040280694)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>173.3711220917404</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-42.77670748218523</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>173.3806751878714</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-42.78061204028069</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>173.3758986398059</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-42.77865976123296</v>
       </c>
     </row>
@@ -14134,27 +14143,28 @@
       <c r="P6" t="n">
         <v>310.665862005548</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (173.37059087761193 -42.77748421523827, 173.38048105350646 -42.78090445874529)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>173.3705908776119</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-42.77748421523827</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>173.3804810535065</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-42.78090445874529</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>173.3755359655592</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-42.77919433699178</v>
       </c>
     </row>
@@ -14211,27 +14221,28 @@
       <c r="P7" t="n">
         <v>339.2784680500629</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (173.37015021285578 -42.7782058590809, 173.38022756398894 -42.78131639181796)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>173.3701502128558</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-42.7782058590809</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>173.3802275639889</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-42.78131639181796</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>173.3751888884224</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-42.77976112544943</v>
       </c>
     </row>
@@ -14288,27 +14299,28 @@
       <c r="P8" t="n">
         <v>317.1512186369503</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (173.36974032079146 -42.778965509680845, 173.38001955251926 -42.78169522937121)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>173.3697403207915</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-42.77896550968084</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>173.3800195525193</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-42.78169522937121</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>173.3748799366554</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-42.78033036952603</v>
       </c>
     </row>
@@ -14365,27 +14377,28 @@
       <c r="P9" t="n">
         <v>333.1310182582241</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (173.3694172785502 -42.77967676182133, 173.37979977549756 -42.782186159914374)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>173.3694172785502</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-42.77967676182133</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>173.3797997754976</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-42.78218615991437</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>173.3746085270239</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-42.78093146086785</v>
       </c>
     </row>
@@ -14442,27 +14455,28 @@
       <c r="P10" t="n">
         <v>341.0911881297136</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (173.36912394538422 -42.78032610231145, 173.37953326797728 -42.78277475498537)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>173.3691239453842</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-42.78032610231145</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>173.3795332679773</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-42.78277475498537</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>173.3743286066808</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-42.78155042864841</v>
       </c>
     </row>
@@ -14519,27 +14533,28 @@
       <c r="P11" t="n">
         <v>345.9958793593423</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (173.36879718272837 -42.78109879773212, 173.37935469831885 -42.78317598512256)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>173.3687971827284</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-42.78109879773212</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>173.3793546983188</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-42.78317598512256</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>173.3740759405236</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-42.78213739142734</v>
       </c>
     </row>
@@ -14596,27 +14611,28 @@
       <c r="P12" t="n">
         <v>349.4690998429769</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (173.3685486008297 -42.78189040763928, 173.3792319643217 -42.78358407970313)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>173.3685486008297</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-42.78189040763928</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>173.3792319643217</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-42.78358407970313</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>173.3738902825757</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-42.78273724367121</v>
       </c>
     </row>
@@ -14673,27 +14689,28 @@
       <c r="P13" t="n">
         <v>361.6094610666672</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>LINESTRING (173.36835686099874 -42.78256248500673, 173.37906035930865 -42.78418614453133)</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>173.3683568609987</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>-42.78256248500673</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>173.3790603593087</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>-42.78418614453133</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>173.3737086101537</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>-42.78337431476903</v>
       </c>
     </row>

--- a/data/nzd0403/nzd0403.xlsx
+++ b/data/nzd0403/nzd0403.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N263"/>
+  <dimension ref="A1:N264"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10801,7 +10801,9 @@
       <c r="F263" t="n">
         <v>346.4555555555555</v>
       </c>
-      <c r="G263" t="inlineStr"/>
+      <c r="G263" t="n">
+        <v>326.51</v>
+      </c>
       <c r="H263" t="n">
         <v>341.47</v>
       </c>
@@ -10823,6 +10825,54 @@
       <c r="N263" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:07:12+00:00</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
+        <v>323.58</v>
+      </c>
+      <c r="C264" t="n">
+        <v>332.6685714285715</v>
+      </c>
+      <c r="D264" t="n">
+        <v>342.07</v>
+      </c>
+      <c r="E264" t="n">
+        <v>346.47</v>
+      </c>
+      <c r="F264" t="n">
+        <v>354.1166666666667</v>
+      </c>
+      <c r="G264" t="n">
+        <v>337.73</v>
+      </c>
+      <c r="H264" t="n">
+        <v>354.28</v>
+      </c>
+      <c r="I264" t="n">
+        <v>347.9142857142857</v>
+      </c>
+      <c r="J264" t="n">
+        <v>338.6442857142857</v>
+      </c>
+      <c r="K264" t="n">
+        <v>339</v>
+      </c>
+      <c r="L264" t="n">
+        <v>340.5663636363636</v>
+      </c>
+      <c r="M264" t="n">
+        <v>340.3</v>
+      </c>
+      <c r="N264" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -10837,7 +10887,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B279"/>
+  <dimension ref="A1:B280"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13635,6 +13685,16 @@
       </c>
       <c r="B279" t="n">
         <v>-0.4</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B280" t="n">
+        <v>-0.57</v>
       </c>
     </row>
   </sheetData>
@@ -13808,28 +13868,28 @@
         <v>0.2</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.175862752590524</v>
+        <v>-1.132354365930896</v>
       </c>
       <c r="J2" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K2" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1310144304854778</v>
+        <v>0.1234769971377484</v>
       </c>
       <c r="M2" t="n">
-        <v>18.21043828723082</v>
+        <v>18.25883064853894</v>
       </c>
       <c r="N2" t="n">
-        <v>504.3123447297714</v>
+        <v>506.1163597087178</v>
       </c>
       <c r="O2" t="n">
-        <v>22.45689971322336</v>
+        <v>22.49703001973189</v>
       </c>
       <c r="P2" t="n">
-        <v>326.0468699759291</v>
+        <v>325.647166865614</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -13886,28 +13946,28 @@
         <v>0.2</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.258767632830603</v>
+        <v>-1.214793230387383</v>
       </c>
       <c r="J3" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K3" t="n">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1423341257353617</v>
+        <v>0.1339916596230193</v>
       </c>
       <c r="M3" t="n">
-        <v>18.64109500794556</v>
+        <v>18.74613044764486</v>
       </c>
       <c r="N3" t="n">
-        <v>510.5877572163243</v>
+        <v>514.1225346836309</v>
       </c>
       <c r="O3" t="n">
-        <v>22.59618899762357</v>
+        <v>22.67427032306951</v>
       </c>
       <c r="P3" t="n">
-        <v>332.4534472772564</v>
+        <v>332.0204899401407</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -13964,28 +14024,28 @@
         <v>0.2</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.630913744153013</v>
+        <v>-0.5993067440741033</v>
       </c>
       <c r="J4" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K4" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03553682208829168</v>
+        <v>0.03232635625290947</v>
       </c>
       <c r="M4" t="n">
-        <v>19.3264257362079</v>
+        <v>19.35693527656708</v>
       </c>
       <c r="N4" t="n">
-        <v>594.3508440673371</v>
+        <v>594.5957650753695</v>
       </c>
       <c r="O4" t="n">
-        <v>24.37931180462929</v>
+        <v>24.38433441936379</v>
       </c>
       <c r="P4" t="n">
-        <v>332.9017865575289</v>
+        <v>332.5797329828702</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -14042,28 +14102,28 @@
         <v>0.08550000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.7057889418675873</v>
+        <v>-0.682186222951958</v>
       </c>
       <c r="J5" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K5" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04835674405962387</v>
+        <v>0.0456516987094413</v>
       </c>
       <c r="M5" t="n">
-        <v>18.01576723216596</v>
+        <v>17.99016423225775</v>
       </c>
       <c r="N5" t="n">
-        <v>475.7113394175873</v>
+        <v>474.439200488921</v>
       </c>
       <c r="O5" t="n">
-        <v>21.81080785797691</v>
+        <v>21.78162529493428</v>
       </c>
       <c r="P5" t="n">
-        <v>347.0086334781593</v>
+        <v>346.7445622149341</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -14120,28 +14180,28 @@
         <v>0.2</v>
       </c>
       <c r="I6" t="n">
-        <v>1.130119401252943</v>
+        <v>1.146478830490193</v>
       </c>
       <c r="J6" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K6" t="n">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02204328195995753</v>
+        <v>0.02290857287491677</v>
       </c>
       <c r="M6" t="n">
-        <v>33.26876117201925</v>
+        <v>33.15519441100253</v>
       </c>
       <c r="N6" t="n">
-        <v>2874.436539897378</v>
+        <v>2858.6536398024</v>
       </c>
       <c r="O6" t="n">
-        <v>53.61377192380124</v>
+        <v>53.46637859255478</v>
       </c>
       <c r="P6" t="n">
-        <v>310.665862005548</v>
+        <v>310.4917681629506</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -14198,28 +14258,28 @@
         <v>0.0315</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.4825945214966515</v>
+        <v>-0.4712860571158015</v>
       </c>
       <c r="J7" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K7" t="n">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L7" t="n">
-        <v>0.006816249515174788</v>
+        <v>0.006642243171392392</v>
       </c>
       <c r="M7" t="n">
-        <v>30.87696475483788</v>
+        <v>30.55614058957556</v>
       </c>
       <c r="N7" t="n">
-        <v>1883.622280662839</v>
+        <v>1860.939139670385</v>
       </c>
       <c r="O7" t="n">
-        <v>43.40071751322596</v>
+        <v>43.13860382152377</v>
       </c>
       <c r="P7" t="n">
-        <v>339.2784680500629</v>
+        <v>339.1647696866585</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -14276,28 +14336,28 @@
         <v>0.0977</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5896099563255638</v>
+        <v>0.6135097310889278</v>
       </c>
       <c r="J8" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K8" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L8" t="n">
-        <v>0.008607235134994506</v>
+        <v>0.009403041351719987</v>
       </c>
       <c r="M8" t="n">
-        <v>33.18979255176606</v>
+        <v>33.09671564468965</v>
       </c>
       <c r="N8" t="n">
-        <v>2033.75584210285</v>
+        <v>2025.204658664024</v>
       </c>
       <c r="O8" t="n">
-        <v>45.09718219692723</v>
+        <v>45.00227392770308</v>
       </c>
       <c r="P8" t="n">
-        <v>317.1512186369503</v>
+        <v>316.9013255526298</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -14354,28 +14414,28 @@
         <v>0.0582</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.5914024273542529</v>
+        <v>-0.5590567534940512</v>
       </c>
       <c r="J9" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K9" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01098408199449175</v>
+        <v>0.009904963321388127</v>
       </c>
       <c r="M9" t="n">
-        <v>31.71716753559955</v>
+        <v>31.664126480868</v>
       </c>
       <c r="N9" t="n">
-        <v>1688.561531552887</v>
+        <v>1683.891342753241</v>
       </c>
       <c r="O9" t="n">
-        <v>41.09211033219013</v>
+        <v>41.03524512846537</v>
       </c>
       <c r="P9" t="n">
-        <v>333.1310182582241</v>
+        <v>332.8018040643779</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -14432,28 +14492,28 @@
         <v>0.0544</v>
       </c>
       <c r="I10" t="n">
-        <v>-1.083842587387168</v>
+        <v>-1.055821659791264</v>
       </c>
       <c r="J10" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K10" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L10" t="n">
-        <v>0.03747163500410844</v>
+        <v>0.03593498217286151</v>
       </c>
       <c r="M10" t="n">
-        <v>29.79380074707957</v>
+        <v>29.74937992068973</v>
       </c>
       <c r="N10" t="n">
-        <v>1572.491885827718</v>
+        <v>1567.040977549364</v>
       </c>
       <c r="O10" t="n">
-        <v>39.65465780747223</v>
+        <v>39.58586840716475</v>
       </c>
       <c r="P10" t="n">
-        <v>341.0911881297136</v>
+        <v>340.8012701163756</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -14510,28 +14570,28 @@
         <v>0.2</v>
       </c>
       <c r="I11" t="n">
-        <v>-1.066168232179783</v>
+        <v>-1.045128874350533</v>
       </c>
       <c r="J11" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K11" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L11" t="n">
-        <v>0.04506723437238158</v>
+        <v>0.04376575349844025</v>
       </c>
       <c r="M11" t="n">
-        <v>26.00186666964968</v>
+        <v>25.96171303861211</v>
       </c>
       <c r="N11" t="n">
-        <v>1285.133751275541</v>
+        <v>1280.430116983332</v>
       </c>
       <c r="O11" t="n">
-        <v>35.84876220004732</v>
+        <v>35.78309820268966</v>
       </c>
       <c r="P11" t="n">
-        <v>345.9958793593423</v>
+        <v>345.7844957076732</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -14588,28 +14648,28 @@
         <v>0.08649999999999999</v>
       </c>
       <c r="I12" t="n">
-        <v>-1.143175274158924</v>
+        <v>-1.122393630975209</v>
       </c>
       <c r="J12" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K12" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0507690542269531</v>
+        <v>0.0494493308677878</v>
       </c>
       <c r="M12" t="n">
-        <v>24.60522389631901</v>
+        <v>24.57195876905034</v>
       </c>
       <c r="N12" t="n">
-        <v>1259.665751994557</v>
+        <v>1255.300002206619</v>
       </c>
       <c r="O12" t="n">
-        <v>35.49177020091499</v>
+        <v>35.43021312674563</v>
       </c>
       <c r="P12" t="n">
-        <v>349.4690998429769</v>
+        <v>349.2557850305536</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -14666,28 +14726,28 @@
         <v>0.06419999999999999</v>
       </c>
       <c r="I13" t="n">
-        <v>-1.61421161834211</v>
+        <v>-1.596910420519519</v>
       </c>
       <c r="J13" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K13" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1418348073917081</v>
+        <v>0.1400074653489499</v>
       </c>
       <c r="M13" t="n">
-        <v>22.57045950347891</v>
+        <v>22.56731428308496</v>
       </c>
       <c r="N13" t="n">
-        <v>784.466959333095</v>
+        <v>782.7765563165763</v>
       </c>
       <c r="O13" t="n">
-        <v>28.00833731825392</v>
+        <v>27.97814426148697</v>
       </c>
       <c r="P13" t="n">
-        <v>361.6094610666672</v>
+        <v>361.4253619595933</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -14725,7 +14785,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N263"/>
+  <dimension ref="A1:N264"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29116,7 +29176,11 @@
           <t>-42.778810168556824,173.37442465773455</t>
         </is>
       </c>
-      <c r="G263" t="inlineStr"/>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>-42.77934229828587,173.3738315412466</t>
+        </is>
+      </c>
       <c r="H263" t="inlineStr">
         <is>
           <t>-42.78000848777279,173.3736673170387</t>
@@ -29150,6 +29214,78 @@
       <c r="N263" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:07:12+00:00</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>-42.77643408727809,173.37601311655283</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>-42.77703674930403,173.37563255589444</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>-42.77764088825247,173.37525524968362</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>-42.77822132991084,173.3748255752331</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>-42.7788394876697,173.3745094352848</t>
+        </is>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>-42.77938134810632,173.373958046658</t>
+        </is>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>-42.78004761170718,173.37381463801105</t>
+        </is>
+      </c>
+      <c r="I264" t="inlineStr">
+        <is>
+          <t>-42.78065364576612,173.37345851824998</t>
+        </is>
+      </c>
+      <c r="J264" t="inlineStr">
+        <is>
+          <t>-42.78125394313944,173.37306766347152</t>
+        </is>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>-42.78188670826225,173.37280115119734</t>
+        </is>
+      </c>
+      <c r="L264" t="inlineStr">
+        <is>
+          <t>-42.78253582165539,173.37261893929744</t>
+        </is>
+      </c>
+      <c r="M264" t="inlineStr">
+        <is>
+          <t>-42.783180739960244,173.37243168049773</t>
+        </is>
+      </c>
+      <c r="N264" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>

--- a/data/nzd0403/nzd0403.xlsx
+++ b/data/nzd0403/nzd0403.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N264"/>
+  <dimension ref="A1:N265"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10876,6 +10876,50 @@
         </is>
       </c>
     </row>
+    <row r="265">
+      <c r="A265" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:07:18+00:00</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr"/>
+      <c r="C265" t="n">
+        <v>314.78</v>
+      </c>
+      <c r="D265" t="n">
+        <v>335.84</v>
+      </c>
+      <c r="E265" t="n">
+        <v>350.33</v>
+      </c>
+      <c r="F265" t="n">
+        <v>351.34</v>
+      </c>
+      <c r="G265" t="inlineStr"/>
+      <c r="H265" t="n">
+        <v>351.16</v>
+      </c>
+      <c r="I265" t="n">
+        <v>348.61</v>
+      </c>
+      <c r="J265" t="n">
+        <v>345.32</v>
+      </c>
+      <c r="K265" t="n">
+        <v>333.91</v>
+      </c>
+      <c r="L265" t="n">
+        <v>324.75</v>
+      </c>
+      <c r="M265" t="n">
+        <v>321.31</v>
+      </c>
+      <c r="N265" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -10887,7 +10931,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B280"/>
+  <dimension ref="A1:B281"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13695,6 +13739,16 @@
       </c>
       <c r="B280" t="n">
         <v>-0.57</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B281" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -13871,7 +13925,7 @@
         <v>-1.132354365930896</v>
       </c>
       <c r="J2" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K2" t="n">
         <v>133</v>
@@ -13946,28 +14000,28 @@
         <v>0.2</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.214793230387383</v>
+        <v>-1.196180362062146</v>
       </c>
       <c r="J3" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K3" t="n">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1339916596230193</v>
+        <v>0.1318174436028173</v>
       </c>
       <c r="M3" t="n">
-        <v>18.74613044764486</v>
+        <v>18.71635324325021</v>
       </c>
       <c r="N3" t="n">
-        <v>514.1225346836309</v>
+        <v>511.9346687206608</v>
       </c>
       <c r="O3" t="n">
-        <v>22.67427032306951</v>
+        <v>22.62597332095706</v>
       </c>
       <c r="P3" t="n">
-        <v>332.0204899401407</v>
+        <v>331.8366657225405</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -14024,28 +14078,28 @@
         <v>0.2</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.5993067440741033</v>
+        <v>-0.5763238137912652</v>
       </c>
       <c r="J4" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K4" t="n">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03232635625290947</v>
+        <v>0.03020355674895625</v>
       </c>
       <c r="M4" t="n">
-        <v>19.35693527656708</v>
+        <v>19.34731415809245</v>
       </c>
       <c r="N4" t="n">
-        <v>594.5957650753695</v>
+        <v>592.8098865649421</v>
       </c>
       <c r="O4" t="n">
-        <v>24.38433441936379</v>
+        <v>24.34768749932819</v>
       </c>
       <c r="P4" t="n">
-        <v>332.5797329828702</v>
+        <v>332.3446770401013</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -14102,28 +14156,28 @@
         <v>0.08550000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.682186222951958</v>
+        <v>-0.6541268827682296</v>
       </c>
       <c r="J5" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K5" t="n">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0456516987094413</v>
+        <v>0.04234807026494081</v>
       </c>
       <c r="M5" t="n">
-        <v>17.99016423225775</v>
+        <v>17.98559202773039</v>
       </c>
       <c r="N5" t="n">
-        <v>474.439200488921</v>
+        <v>474.1645903565687</v>
       </c>
       <c r="O5" t="n">
-        <v>21.78162529493428</v>
+        <v>21.77532067172763</v>
       </c>
       <c r="P5" t="n">
-        <v>346.7445622149341</v>
+        <v>346.429526084814</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -14180,28 +14234,28 @@
         <v>0.2</v>
       </c>
       <c r="I6" t="n">
-        <v>1.146478830490193</v>
+        <v>1.159218252775347</v>
       </c>
       <c r="J6" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K6" t="n">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02290857287491677</v>
+        <v>0.02365449375912532</v>
       </c>
       <c r="M6" t="n">
-        <v>33.15519441100253</v>
+        <v>33.02430341695504</v>
       </c>
       <c r="N6" t="n">
-        <v>2858.6536398024</v>
+        <v>2842.59209058956</v>
       </c>
       <c r="O6" t="n">
-        <v>53.46637859255478</v>
+        <v>53.31596468778897</v>
       </c>
       <c r="P6" t="n">
-        <v>310.4917681629506</v>
+        <v>310.3557482950556</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -14261,7 +14315,7 @@
         <v>-0.4712860571158015</v>
       </c>
       <c r="J7" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K7" t="n">
         <v>161</v>
@@ -14336,28 +14390,28 @@
         <v>0.0977</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6135097310889278</v>
+        <v>0.633389887726592</v>
       </c>
       <c r="J8" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K8" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L8" t="n">
-        <v>0.009403041351719987</v>
+        <v>0.01011621298275445</v>
       </c>
       <c r="M8" t="n">
-        <v>33.09671564468965</v>
+        <v>32.98950700296614</v>
       </c>
       <c r="N8" t="n">
-        <v>2025.204658664024</v>
+        <v>2015.979645185273</v>
       </c>
       <c r="O8" t="n">
-        <v>45.00227392770308</v>
+        <v>44.89966197183753</v>
       </c>
       <c r="P8" t="n">
-        <v>316.9013255526298</v>
+        <v>316.6928091580778</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -14414,28 +14468,28 @@
         <v>0.0582</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.5590567534940512</v>
+        <v>-0.5267888274954355</v>
       </c>
       <c r="J9" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K9" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L9" t="n">
-        <v>0.009904963321388127</v>
+        <v>0.008873079953327423</v>
       </c>
       <c r="M9" t="n">
-        <v>31.664126480868</v>
+        <v>31.61105225504229</v>
       </c>
       <c r="N9" t="n">
-        <v>1683.891342753241</v>
+        <v>1679.354820607524</v>
       </c>
       <c r="O9" t="n">
-        <v>41.03524512846537</v>
+        <v>40.97993192536469</v>
       </c>
       <c r="P9" t="n">
-        <v>332.8018040643779</v>
+        <v>332.472263405554</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -14492,28 +14546,28 @@
         <v>0.0544</v>
       </c>
       <c r="I10" t="n">
-        <v>-1.055821659791264</v>
+        <v>-1.021166295385937</v>
       </c>
       <c r="J10" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K10" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L10" t="n">
-        <v>0.03593498217286151</v>
+        <v>0.03393839524684295</v>
       </c>
       <c r="M10" t="n">
-        <v>29.74937992068973</v>
+        <v>29.73514580447187</v>
       </c>
       <c r="N10" t="n">
-        <v>1567.040977549364</v>
+        <v>1563.685458652571</v>
       </c>
       <c r="O10" t="n">
-        <v>39.58586840716475</v>
+        <v>39.54346290668752</v>
       </c>
       <c r="P10" t="n">
-        <v>340.8012701163756</v>
+        <v>340.4415325672454</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -14570,28 +14624,28 @@
         <v>0.2</v>
       </c>
       <c r="I11" t="n">
-        <v>-1.045128874350533</v>
+        <v>-1.029783776964652</v>
       </c>
       <c r="J11" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K11" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L11" t="n">
-        <v>0.04376575349844025</v>
+        <v>0.04294838661350353</v>
       </c>
       <c r="M11" t="n">
-        <v>25.96171303861211</v>
+        <v>25.89496674631145</v>
       </c>
       <c r="N11" t="n">
-        <v>1280.430116983332</v>
+        <v>1274.789776856496</v>
       </c>
       <c r="O11" t="n">
-        <v>35.78309820268966</v>
+        <v>35.70419830855323</v>
       </c>
       <c r="P11" t="n">
-        <v>345.7844957076732</v>
+        <v>345.6298253113629</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -14648,28 +14702,28 @@
         <v>0.08649999999999999</v>
       </c>
       <c r="I12" t="n">
-        <v>-1.122393630975209</v>
+        <v>-1.118040649785847</v>
       </c>
       <c r="J12" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K12" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0494493308677878</v>
+        <v>0.04957646813613292</v>
       </c>
       <c r="M12" t="n">
-        <v>24.57195876905034</v>
+        <v>24.46615235116154</v>
       </c>
       <c r="N12" t="n">
-        <v>1255.300002206619</v>
+        <v>1248.988547267489</v>
       </c>
       <c r="O12" t="n">
-        <v>35.43021312674563</v>
+        <v>35.34103206285138</v>
       </c>
       <c r="P12" t="n">
-        <v>349.2557850305536</v>
+        <v>349.210965010352</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -14726,28 +14780,28 @@
         <v>0.06419999999999999</v>
       </c>
       <c r="I13" t="n">
-        <v>-1.596910420519519</v>
+        <v>-1.596156980059102</v>
       </c>
       <c r="J13" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K13" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1400074653489499</v>
+        <v>0.14093396731579</v>
       </c>
       <c r="M13" t="n">
-        <v>22.56731428308496</v>
+        <v>22.47371303584153</v>
       </c>
       <c r="N13" t="n">
-        <v>782.7765563165763</v>
+        <v>779.3912034337943</v>
       </c>
       <c r="O13" t="n">
-        <v>27.97814426148697</v>
+        <v>27.91757875306872</v>
       </c>
       <c r="P13" t="n">
-        <v>361.4253619595933</v>
+        <v>361.4173198129741</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -14785,7 +14839,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N264"/>
+  <dimension ref="A1:N265"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29289,6 +29343,70 @@
         </is>
       </c>
     </row>
+    <row r="265">
+      <c r="A265" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:07:18+00:00</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr"/>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>-42.776952037777555,173.3754465546155</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>-42.77761138593249,173.37519047098203</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>-42.77823819491029,173.37486683651764</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>-42.77882886135894,173.37447870879294</t>
+        </is>
+      </c>
+      <c r="G265" t="inlineStr"/>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>-42.78003808271026,173.37377875653945</t>
+        </is>
+      </c>
+      <c r="I265" t="inlineStr">
+        <is>
+          <t>-42.78065559906958,173.37346659952826</t>
+        </is>
+      </c>
+      <c r="J265" t="inlineStr">
+        <is>
+          <t>-42.78127223234801,173.37314540738814</t>
+        </is>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>-42.78187487902208,173.37274103187062</t>
+        </is>
+      </c>
+      <c r="L265" t="inlineStr">
+        <is>
+          <t>-42.782505850965634,173.37242990540992</t>
+        </is>
+      </c>
+      <c r="M265" t="inlineStr">
+        <is>
+          <t>-42.78314624287438,173.37220428837153</t>
+        </is>
+      </c>
+      <c r="N265" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0403/nzd0403.xlsx
+++ b/data/nzd0403/nzd0403.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N265"/>
+  <dimension ref="A1:N266"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10895,7 +10895,9 @@
       <c r="F265" t="n">
         <v>351.34</v>
       </c>
-      <c r="G265" t="inlineStr"/>
+      <c r="G265" t="n">
+        <v>252.11</v>
+      </c>
       <c r="H265" t="n">
         <v>351.16</v>
       </c>
@@ -10917,6 +10919,44 @@
       <c r="N265" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:07:06+00:00</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr"/>
+      <c r="C266" t="inlineStr"/>
+      <c r="D266" t="inlineStr"/>
+      <c r="E266" t="inlineStr"/>
+      <c r="F266" t="inlineStr"/>
+      <c r="G266" t="n">
+        <v>235.05</v>
+      </c>
+      <c r="H266" t="n">
+        <v>338.5</v>
+      </c>
+      <c r="I266" t="n">
+        <v>350.8071428571428</v>
+      </c>
+      <c r="J266" t="n">
+        <v>341.0771428571429</v>
+      </c>
+      <c r="K266" t="n">
+        <v>338.2031578947368</v>
+      </c>
+      <c r="L266" t="n">
+        <v>340.3763636363636</v>
+      </c>
+      <c r="M266" t="n">
+        <v>326.84</v>
+      </c>
+      <c r="N266" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -10931,7 +10971,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B281"/>
+  <dimension ref="A1:B282"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13749,6 +13789,16 @@
       </c>
       <c r="B281" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B282" t="n">
+        <v>0.31</v>
       </c>
     </row>
   </sheetData>
@@ -13925,7 +13975,7 @@
         <v>-1.132354365930896</v>
       </c>
       <c r="J2" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K2" t="n">
         <v>133</v>
@@ -14003,7 +14053,7 @@
         <v>-1.196180362062146</v>
       </c>
       <c r="J3" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K3" t="n">
         <v>148</v>
@@ -14081,7 +14131,7 @@
         <v>-0.5763238137912652</v>
       </c>
       <c r="J4" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K4" t="n">
         <v>142</v>
@@ -14159,7 +14209,7 @@
         <v>-0.6541268827682296</v>
       </c>
       <c r="J5" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K5" t="n">
         <v>138</v>
@@ -14237,7 +14287,7 @@
         <v>1.159218252775347</v>
       </c>
       <c r="J6" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K6" t="n">
         <v>170</v>
@@ -14312,28 +14362,28 @@
         <v>0.0315</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.4712860571158015</v>
+        <v>-0.6500851117582332</v>
       </c>
       <c r="J7" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K7" t="n">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L7" t="n">
-        <v>0.006642243171392392</v>
+        <v>0.01228303914174877</v>
       </c>
       <c r="M7" t="n">
-        <v>30.55614058957556</v>
+        <v>31.31260633823134</v>
       </c>
       <c r="N7" t="n">
-        <v>1860.939139670385</v>
+        <v>1921.628720712554</v>
       </c>
       <c r="O7" t="n">
-        <v>43.13860382152377</v>
+        <v>43.83638580805396</v>
       </c>
       <c r="P7" t="n">
-        <v>339.1647696866585</v>
+        <v>340.9718087436178</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -14390,28 +14440,28 @@
         <v>0.0977</v>
       </c>
       <c r="I8" t="n">
-        <v>0.633389887726592</v>
+        <v>0.6392461207313009</v>
       </c>
       <c r="J8" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K8" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01011621298275445</v>
+        <v>0.01041273154371203</v>
       </c>
       <c r="M8" t="n">
-        <v>32.98950700296614</v>
+        <v>32.83238034525915</v>
       </c>
       <c r="N8" t="n">
-        <v>2015.979645185273</v>
+        <v>2005.185352543091</v>
       </c>
       <c r="O8" t="n">
-        <v>44.89966197183753</v>
+        <v>44.77929602554165</v>
       </c>
       <c r="P8" t="n">
-        <v>316.6928091580778</v>
+        <v>316.6311923539931</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -14468,28 +14518,28 @@
         <v>0.0582</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.5267888274954355</v>
+        <v>-0.493007896866058</v>
       </c>
       <c r="J9" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K9" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L9" t="n">
-        <v>0.008873079953327423</v>
+        <v>0.007837425550873411</v>
       </c>
       <c r="M9" t="n">
-        <v>31.61105225504229</v>
+        <v>31.56532967868547</v>
       </c>
       <c r="N9" t="n">
-        <v>1679.354820607524</v>
+        <v>1675.475231136195</v>
       </c>
       <c r="O9" t="n">
-        <v>40.97993192536469</v>
+        <v>40.93256931999498</v>
       </c>
       <c r="P9" t="n">
-        <v>332.472263405554</v>
+        <v>332.126096464351</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -14546,28 +14596,28 @@
         <v>0.0544</v>
       </c>
       <c r="I10" t="n">
-        <v>-1.021166295385937</v>
+        <v>-0.9919685084413297</v>
       </c>
       <c r="J10" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K10" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L10" t="n">
-        <v>0.03393839524684295</v>
+        <v>0.03234909715959267</v>
       </c>
       <c r="M10" t="n">
-        <v>29.73514580447187</v>
+        <v>29.69572449045728</v>
       </c>
       <c r="N10" t="n">
-        <v>1563.685458652571</v>
+        <v>1558.821185595629</v>
       </c>
       <c r="O10" t="n">
-        <v>39.54346290668752</v>
+        <v>39.48190959915222</v>
       </c>
       <c r="P10" t="n">
-        <v>340.4415325672454</v>
+        <v>340.1374519990179</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -14624,28 +14674,28 @@
         <v>0.2</v>
       </c>
       <c r="I11" t="n">
-        <v>-1.029783776964652</v>
+        <v>-1.010398482367127</v>
       </c>
       <c r="J11" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K11" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L11" t="n">
-        <v>0.04294838661350353</v>
+        <v>0.04177999812069588</v>
       </c>
       <c r="M11" t="n">
-        <v>25.89496674631145</v>
+        <v>25.8471121308587</v>
       </c>
       <c r="N11" t="n">
-        <v>1274.789776856496</v>
+        <v>1269.939579798672</v>
       </c>
       <c r="O11" t="n">
-        <v>35.70419830855323</v>
+        <v>35.63621163646147</v>
       </c>
       <c r="P11" t="n">
-        <v>345.6298253113629</v>
+        <v>345.4338014114725</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -14702,28 +14752,28 @@
         <v>0.08649999999999999</v>
       </c>
       <c r="I12" t="n">
-        <v>-1.118040649785847</v>
+        <v>-1.098069557726671</v>
       </c>
       <c r="J12" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K12" t="n">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L12" t="n">
-        <v>0.04957646813613292</v>
+        <v>0.04831124392234776</v>
       </c>
       <c r="M12" t="n">
-        <v>24.46615235116154</v>
+        <v>24.43069600552809</v>
       </c>
       <c r="N12" t="n">
-        <v>1248.988547267489</v>
+        <v>1244.635463403001</v>
       </c>
       <c r="O12" t="n">
-        <v>35.34103206285138</v>
+        <v>35.27939148288986</v>
       </c>
       <c r="P12" t="n">
-        <v>349.210965010352</v>
+        <v>349.0046974033687</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -14780,28 +14830,28 @@
         <v>0.06419999999999999</v>
       </c>
       <c r="I13" t="n">
-        <v>-1.596156980059102</v>
+        <v>-1.59061005489719</v>
       </c>
       <c r="J13" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K13" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L13" t="n">
-        <v>0.14093396731579</v>
+        <v>0.1411026109916207</v>
       </c>
       <c r="M13" t="n">
-        <v>22.47371303584153</v>
+        <v>22.40665537588317</v>
       </c>
       <c r="N13" t="n">
-        <v>779.3912034337943</v>
+        <v>776.2115936574342</v>
       </c>
       <c r="O13" t="n">
-        <v>27.91757875306872</v>
+        <v>27.86057418032576</v>
       </c>
       <c r="P13" t="n">
-        <v>361.4173198129741</v>
+        <v>361.3579291137115</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -14839,7 +14889,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N265"/>
+  <dimension ref="A1:N266"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28864,7 +28914,7 @@
       </c>
       <c r="K256" t="inlineStr">
         <is>
-          <t>-42.78189007563297,173.3728182650994</t>
+          <t>-42.781890075632965,173.3728182650994</t>
         </is>
       </c>
       <c r="L256" t="inlineStr">
@@ -29370,7 +29420,11 @@
           <t>-42.77882886135894,173.37447870879294</t>
         </is>
       </c>
-      <c r="G265" t="inlineStr"/>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>-42.779083354742184,173.37299268583627</t>
+        </is>
+      </c>
       <c r="H265" t="inlineStr">
         <is>
           <t>-42.78003808271026,173.37377875653945</t>
@@ -29404,6 +29458,58 @@
       <c r="N265" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:07:06+00:00</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr"/>
+      <c r="C266" t="inlineStr"/>
+      <c r="D266" t="inlineStr"/>
+      <c r="E266" t="inlineStr"/>
+      <c r="F266" t="inlineStr"/>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>-42.779023977837724,173.37280033636895</t>
+        </is>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>-42.779999416856825,173.37363316068033</t>
+        </is>
+      </c>
+      <c r="I266" t="inlineStr">
+        <is>
+          <t>-42.78066176781478,173.37349212110453</t>
+        </is>
+      </c>
+      <c r="J266" t="inlineStr">
+        <is>
+          <t>-42.78126060835469,173.37309599599138</t>
+        </is>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>-42.78188485639075,173.37279173948448</t>
+        </is>
+      </c>
+      <c r="L266" t="inlineStr">
+        <is>
+          <t>-42.7825354616231,173.3726166684559</t>
+        </is>
+      </c>
+      <c r="M266" t="inlineStr">
+        <is>
+          <t>-42.78315628867595,173.37227050627405</t>
+        </is>
+      </c>
+      <c r="N266" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>

--- a/data/nzd0403/nzd0403.xlsx
+++ b/data/nzd0403/nzd0403.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N266"/>
+  <dimension ref="A1:N267"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10895,9 +10895,7 @@
       <c r="F265" t="n">
         <v>351.34</v>
       </c>
-      <c r="G265" t="n">
-        <v>252.11</v>
-      </c>
+      <c r="G265" t="inlineStr"/>
       <c r="H265" t="n">
         <v>351.16</v>
       </c>
@@ -10933,9 +10931,7 @@
       <c r="D266" t="inlineStr"/>
       <c r="E266" t="inlineStr"/>
       <c r="F266" t="inlineStr"/>
-      <c r="G266" t="n">
-        <v>235.05</v>
-      </c>
+      <c r="G266" t="inlineStr"/>
       <c r="H266" t="n">
         <v>338.5</v>
       </c>
@@ -10957,6 +10953,46 @@
       <c r="N266" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-26 22:07:45+00:00</t>
+        </is>
+      </c>
+      <c r="B267" t="n">
+        <v>306.23</v>
+      </c>
+      <c r="C267" t="n">
+        <v>317.0585714285714</v>
+      </c>
+      <c r="D267" t="n">
+        <v>332.01</v>
+      </c>
+      <c r="E267" t="n">
+        <v>338.1866666666667</v>
+      </c>
+      <c r="F267" t="n">
+        <v>342.6544444444444</v>
+      </c>
+      <c r="G267" t="n">
+        <v>354.33</v>
+      </c>
+      <c r="H267" t="n">
+        <v>357.84</v>
+      </c>
+      <c r="I267" t="n">
+        <v>361.2642857142857</v>
+      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="inlineStr"/>
+      <c r="M267" t="inlineStr"/>
+      <c r="N267" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -10971,7 +11007,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B282"/>
+  <dimension ref="A1:B283"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13799,6 +13835,16 @@
       </c>
       <c r="B282" t="n">
         <v>0.31</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>2025-08-26 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B283" t="n">
+        <v>0.13</v>
       </c>
     </row>
   </sheetData>
@@ -13972,28 +14018,28 @@
         <v>0.2</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.132354365930896</v>
+        <v>-1.1165412247618</v>
       </c>
       <c r="J2" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K2" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1234769971377484</v>
+        <v>0.1223571716064559</v>
       </c>
       <c r="M2" t="n">
-        <v>18.25883064853894</v>
+        <v>18.18751891591741</v>
       </c>
       <c r="N2" t="n">
-        <v>506.1163597087178</v>
+        <v>503.0656622858691</v>
       </c>
       <c r="O2" t="n">
-        <v>22.49703001973189</v>
+        <v>22.4291253125455</v>
       </c>
       <c r="P2" t="n">
-        <v>325.647166865614</v>
+        <v>325.4995534879712</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -14050,28 +14096,28 @@
         <v>0.2</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.196180362062146</v>
+        <v>-1.174286910485453</v>
       </c>
       <c r="J3" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K3" t="n">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1318174436028173</v>
+        <v>0.1289348638963594</v>
       </c>
       <c r="M3" t="n">
-        <v>18.71635324325021</v>
+        <v>18.70079732725668</v>
       </c>
       <c r="N3" t="n">
-        <v>511.9346687206608</v>
+        <v>510.2426605621146</v>
       </c>
       <c r="O3" t="n">
-        <v>22.62597332095706</v>
+        <v>22.58855153749604</v>
       </c>
       <c r="P3" t="n">
-        <v>331.8366657225405</v>
+        <v>331.6173635544914</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -14128,28 +14174,28 @@
         <v>0.2</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.5763238137912652</v>
+        <v>-0.5580745478830941</v>
       </c>
       <c r="J4" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K4" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03020355674895625</v>
+        <v>0.02865426247769109</v>
       </c>
       <c r="M4" t="n">
-        <v>19.34731415809245</v>
+        <v>19.31070248661683</v>
       </c>
       <c r="N4" t="n">
-        <v>592.8098865649421</v>
+        <v>590.133328626714</v>
       </c>
       <c r="O4" t="n">
-        <v>24.34768749932819</v>
+        <v>24.292659974295</v>
       </c>
       <c r="P4" t="n">
-        <v>332.3446770401013</v>
+        <v>332.1548489251315</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -14206,28 +14252,28 @@
         <v>0.08550000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.6541268827682296</v>
+        <v>-0.6423300729217273</v>
       </c>
       <c r="J5" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K5" t="n">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04234807026494081</v>
+        <v>0.04134871866579082</v>
       </c>
       <c r="M5" t="n">
-        <v>17.98559202773039</v>
+        <v>17.90660065020865</v>
       </c>
       <c r="N5" t="n">
-        <v>474.1645903565687</v>
+        <v>471.2932265805217</v>
       </c>
       <c r="O5" t="n">
-        <v>21.77532067172763</v>
+        <v>21.70928894691214</v>
       </c>
       <c r="P5" t="n">
-        <v>346.429526084814</v>
+        <v>346.2949584097915</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -14284,28 +14330,28 @@
         <v>0.2</v>
       </c>
       <c r="I6" t="n">
-        <v>1.159218252775347</v>
+        <v>1.161691088557617</v>
       </c>
       <c r="J6" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K6" t="n">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02365449375912532</v>
+        <v>0.02401887490931087</v>
       </c>
       <c r="M6" t="n">
-        <v>33.02430341695504</v>
+        <v>32.84325766309703</v>
       </c>
       <c r="N6" t="n">
-        <v>2842.59209058956</v>
+        <v>2825.996211447893</v>
       </c>
       <c r="O6" t="n">
-        <v>53.31596468778897</v>
+        <v>53.16009980660206</v>
       </c>
       <c r="P6" t="n">
-        <v>310.3557482950556</v>
+        <v>310.3289469419367</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -14362,28 +14408,28 @@
         <v>0.0315</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.6500851117582332</v>
+        <v>-0.4406441369867211</v>
       </c>
       <c r="J7" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K7" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01228303914174877</v>
+        <v>0.005864161949314606</v>
       </c>
       <c r="M7" t="n">
-        <v>31.31260633823134</v>
+        <v>30.514448898583</v>
       </c>
       <c r="N7" t="n">
-        <v>1921.628720712554</v>
+        <v>1854.007279722699</v>
       </c>
       <c r="O7" t="n">
-        <v>43.83638580805396</v>
+        <v>43.05818481685798</v>
       </c>
       <c r="P7" t="n">
-        <v>340.9718087436178</v>
+        <v>338.8505625610255</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -14440,28 +14486,28 @@
         <v>0.0977</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6392461207313009</v>
+        <v>0.6655964174018995</v>
       </c>
       <c r="J8" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K8" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01041273154371203</v>
+        <v>0.01138574882866716</v>
       </c>
       <c r="M8" t="n">
-        <v>32.83238034525915</v>
+        <v>32.7517578733018</v>
       </c>
       <c r="N8" t="n">
-        <v>2005.185352543091</v>
+        <v>1997.564778465619</v>
       </c>
       <c r="O8" t="n">
-        <v>44.77929602554165</v>
+        <v>44.69412465263884</v>
       </c>
       <c r="P8" t="n">
-        <v>316.6311923539931</v>
+        <v>316.3508096782083</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -14518,28 +14564,28 @@
         <v>0.0582</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.493007896866058</v>
+        <v>-0.448275377241471</v>
       </c>
       <c r="J9" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K9" t="n">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L9" t="n">
-        <v>0.007837425550873411</v>
+        <v>0.006522120640798157</v>
       </c>
       <c r="M9" t="n">
-        <v>31.56532967868547</v>
+        <v>31.5655340359976</v>
       </c>
       <c r="N9" t="n">
-        <v>1675.475231136195</v>
+        <v>1675.785596060995</v>
       </c>
       <c r="O9" t="n">
-        <v>40.93256931999498</v>
+        <v>40.93636031770527</v>
       </c>
       <c r="P9" t="n">
-        <v>332.126096464351</v>
+        <v>331.6620781286307</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -14599,7 +14645,7 @@
         <v>-0.9919685084413297</v>
       </c>
       <c r="J10" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K10" t="n">
         <v>175</v>
@@ -14677,7 +14723,7 @@
         <v>-1.010398482367127</v>
       </c>
       <c r="J11" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K11" t="n">
         <v>189</v>
@@ -14755,7 +14801,7 @@
         <v>-1.098069557726671</v>
       </c>
       <c r="J12" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K12" t="n">
         <v>197</v>
@@ -14833,7 +14879,7 @@
         <v>-1.59061005489719</v>
       </c>
       <c r="J13" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K13" t="n">
         <v>232</v>
@@ -14889,7 +14935,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N266"/>
+  <dimension ref="A1:N267"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29420,11 +29466,7 @@
           <t>-42.77882886135894,173.37447870879294</t>
         </is>
       </c>
-      <c r="G265" t="inlineStr">
-        <is>
-          <t>-42.779083354742184,173.37299268583627</t>
-        </is>
-      </c>
+      <c r="G265" t="inlineStr"/>
       <c r="H265" t="inlineStr">
         <is>
           <t>-42.78003808271026,173.37377875653945</t>
@@ -29472,11 +29514,7 @@
       <c r="D266" t="inlineStr"/>
       <c r="E266" t="inlineStr"/>
       <c r="F266" t="inlineStr"/>
-      <c r="G266" t="inlineStr">
-        <is>
-          <t>-42.779023977837724,173.37280033636895</t>
-        </is>
-      </c>
+      <c r="G266" t="inlineStr"/>
       <c r="H266" t="inlineStr">
         <is>
           <t>-42.779999416856825,173.37363316068033</t>
@@ -29510,6 +29548,62 @@
       <c r="N266" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-26 22:07:45+00:00</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>-42.776351926509705,173.37583271666958</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>-42.77696282799456,173.37547024665258</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>-42.777593248853826,173.3751506471879</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>-42.77818513856173,173.3747370310148</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>-42.77879562166097,173.37438259482005</t>
+        </is>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>-42.779439122092555,173.37414521181702</t>
+        </is>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>-42.78005848452319,173.37385557970356</t>
+        </is>
+      </c>
+      <c r="I267" t="inlineStr">
+        <is>
+          <t>-42.78069112743392,173.37361358927376</t>
+        </is>
+      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="inlineStr"/>
+      <c r="M267" t="inlineStr"/>
+      <c r="N267" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>

--- a/data/nzd0403/nzd0403.xlsx
+++ b/data/nzd0403/nzd0403.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N267"/>
+  <dimension ref="A1:N268"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10986,11 +10986,49 @@
       <c r="I267" t="n">
         <v>361.2642857142857</v>
       </c>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>243.2842857142857</v>
+      </c>
+      <c r="K267" t="n">
+        <v>245.3384210526316</v>
+      </c>
+      <c r="L267" t="n">
+        <v>240.0536363636364</v>
+      </c>
       <c r="M267" t="inlineStr"/>
       <c r="N267" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-11 22:07:51+00:00</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr"/>
+      <c r="C268" t="inlineStr"/>
+      <c r="D268" t="inlineStr"/>
+      <c r="E268" t="inlineStr"/>
+      <c r="F268" t="inlineStr"/>
+      <c r="G268" t="inlineStr"/>
+      <c r="H268" t="inlineStr"/>
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>239.96</v>
+      </c>
+      <c r="K268" t="n">
+        <v>232.4010526315789</v>
+      </c>
+      <c r="L268" t="n">
+        <v>237.3963636363636</v>
+      </c>
+      <c r="M268" t="n">
+        <v>283.88</v>
+      </c>
+      <c r="N268" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -11007,7 +11045,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B283"/>
+  <dimension ref="A1:B284"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13845,6 +13883,16 @@
       </c>
       <c r="B283" t="n">
         <v>0.13</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>2025-09-11 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B284" t="n">
+        <v>0.42</v>
       </c>
     </row>
   </sheetData>
@@ -14021,7 +14069,7 @@
         <v>-1.1165412247618</v>
       </c>
       <c r="J2" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K2" t="n">
         <v>134</v>
@@ -14099,7 +14147,7 @@
         <v>-1.174286910485453</v>
       </c>
       <c r="J3" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K3" t="n">
         <v>149</v>
@@ -14177,7 +14225,7 @@
         <v>-0.5580745478830941</v>
       </c>
       <c r="J4" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K4" t="n">
         <v>143</v>
@@ -14255,7 +14303,7 @@
         <v>-0.6423300729217273</v>
       </c>
       <c r="J5" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K5" t="n">
         <v>139</v>
@@ -14333,7 +14381,7 @@
         <v>1.161691088557617</v>
       </c>
       <c r="J6" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K6" t="n">
         <v>171</v>
@@ -14411,7 +14459,7 @@
         <v>-0.4406441369867211</v>
       </c>
       <c r="J7" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K7" t="n">
         <v>162</v>
@@ -14489,7 +14537,7 @@
         <v>0.6655964174018995</v>
       </c>
       <c r="J8" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K8" t="n">
         <v>185</v>
@@ -14567,7 +14615,7 @@
         <v>-0.448275377241471</v>
       </c>
       <c r="J9" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K9" t="n">
         <v>176</v>
@@ -14642,28 +14690,28 @@
         <v>0.0544</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.9919685084413297</v>
+        <v>-1.148498018199784</v>
       </c>
       <c r="J10" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K10" t="n">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L10" t="n">
-        <v>0.03234909715959267</v>
+        <v>0.04230539200998562</v>
       </c>
       <c r="M10" t="n">
-        <v>29.69572449045728</v>
+        <v>30.28043167645749</v>
       </c>
       <c r="N10" t="n">
-        <v>1558.821185595629</v>
+        <v>1599.013121965441</v>
       </c>
       <c r="O10" t="n">
-        <v>39.48190959915222</v>
+        <v>39.98766212177753</v>
       </c>
       <c r="P10" t="n">
-        <v>340.1374519990179</v>
+        <v>341.7886769756461</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -14720,28 +14768,28 @@
         <v>0.2</v>
       </c>
       <c r="I11" t="n">
-        <v>-1.010398482367127</v>
+        <v>-1.172420602964711</v>
       </c>
       <c r="J11" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K11" t="n">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L11" t="n">
-        <v>0.04177999812069588</v>
+        <v>0.05393855986783302</v>
       </c>
       <c r="M11" t="n">
-        <v>25.8471121308587</v>
+        <v>26.48731997888146</v>
       </c>
       <c r="N11" t="n">
-        <v>1269.939579798672</v>
+        <v>1322.44111092603</v>
       </c>
       <c r="O11" t="n">
-        <v>35.63621163646147</v>
+        <v>36.3653834150835</v>
       </c>
       <c r="P11" t="n">
-        <v>345.4338014114725</v>
+        <v>347.0930670334526</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -14798,28 +14846,28 @@
         <v>0.08649999999999999</v>
       </c>
       <c r="I12" t="n">
-        <v>-1.098069557726671</v>
+        <v>-1.260767346778443</v>
       </c>
       <c r="J12" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K12" t="n">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L12" t="n">
-        <v>0.04831124392234776</v>
+        <v>0.06097504079891902</v>
       </c>
       <c r="M12" t="n">
-        <v>24.43069600552809</v>
+        <v>25.10767305727074</v>
       </c>
       <c r="N12" t="n">
-        <v>1244.635463403001</v>
+        <v>1297.202084478121</v>
       </c>
       <c r="O12" t="n">
-        <v>35.27939148288986</v>
+        <v>36.01669174810647</v>
       </c>
       <c r="P12" t="n">
-        <v>349.0046974033687</v>
+        <v>350.7055585350652</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -14876,28 +14924,28 @@
         <v>0.06419999999999999</v>
       </c>
       <c r="I13" t="n">
-        <v>-1.59061005489719</v>
+        <v>-1.62186539770492</v>
       </c>
       <c r="J13" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K13" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1411026109916207</v>
+        <v>0.1461117524284861</v>
       </c>
       <c r="M13" t="n">
-        <v>22.40665537588317</v>
+        <v>22.45345172040469</v>
       </c>
       <c r="N13" t="n">
-        <v>776.2115936574342</v>
+        <v>778.3966505471441</v>
       </c>
       <c r="O13" t="n">
-        <v>27.86057418032576</v>
+        <v>27.8997607614679</v>
       </c>
       <c r="P13" t="n">
-        <v>361.3579291137115</v>
+        <v>361.696959920041</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -14935,7 +14983,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N267"/>
+  <dimension ref="A1:N268"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29597,11 +29645,63 @@
           <t>-42.78069112743392,173.37361358927376</t>
         </is>
       </c>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
+      <c r="J267" t="inlineStr">
+        <is>
+          <t>-42.78099268307241,173.3719571266116</t>
+        </is>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>-42.78166903220655,173.37169489332285</t>
+        </is>
+      </c>
+      <c r="L267" t="inlineStr">
+        <is>
+          <t>-42.782345353097654,173.3714176351606</t>
+        </is>
+      </c>
       <c r="M267" t="inlineStr"/>
       <c r="N267" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-11 22:07:51+00:00</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr"/>
+      <c r="C268" t="inlineStr"/>
+      <c r="D268" t="inlineStr"/>
+      <c r="E268" t="inlineStr"/>
+      <c r="F268" t="inlineStr"/>
+      <c r="G268" t="inlineStr"/>
+      <c r="H268" t="inlineStr"/>
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="inlineStr">
+        <is>
+          <t>-42.78098357525241,173.37191841304332</t>
+        </is>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>-42.78163896401513,173.37154208777227</t>
+        </is>
+      </c>
+      <c r="L268" t="inlineStr">
+        <is>
+          <t>-42.782340317475295,173.3713858761697</t>
+        </is>
+      </c>
+      <c r="M268" t="inlineStr">
+        <is>
+          <t>-42.78307824650285,173.37175609071943</t>
+        </is>
+      </c>
+      <c r="N268" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0403/nzd0403.xlsx
+++ b/data/nzd0403/nzd0403.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N268"/>
+  <dimension ref="A1:N269"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10986,15 +10986,9 @@
       <c r="I267" t="n">
         <v>361.2642857142857</v>
       </c>
-      <c r="J267" t="n">
-        <v>243.2842857142857</v>
-      </c>
-      <c r="K267" t="n">
-        <v>245.3384210526316</v>
-      </c>
-      <c r="L267" t="n">
-        <v>240.0536363636364</v>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="inlineStr"/>
       <c r="M267" t="inlineStr"/>
       <c r="N267" t="inlineStr">
         <is>
@@ -11014,23 +11008,67 @@
       <c r="E268" t="inlineStr"/>
       <c r="F268" t="inlineStr"/>
       <c r="G268" t="inlineStr"/>
-      <c r="H268" t="inlineStr"/>
+      <c r="H268" t="n">
+        <v>251.59</v>
+      </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>239.96</v>
-      </c>
-      <c r="K268" t="n">
-        <v>232.4010526315789</v>
-      </c>
-      <c r="L268" t="n">
-        <v>237.3963636363636</v>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
+      <c r="L268" t="inlineStr"/>
       <c r="M268" t="n">
         <v>283.88</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:07:51+00:00</t>
+        </is>
+      </c>
+      <c r="B269" t="n">
+        <v>306.1</v>
+      </c>
+      <c r="C269" t="n">
+        <v>310.5457142857143</v>
+      </c>
+      <c r="D269" t="n">
+        <v>317.0599999999999</v>
+      </c>
+      <c r="E269" t="n">
+        <v>323.4466666666667</v>
+      </c>
+      <c r="F269" t="n">
+        <v>337.4544444444444</v>
+      </c>
+      <c r="G269" t="n">
+        <v>321.3</v>
+      </c>
+      <c r="H269" t="n">
+        <v>241.35</v>
+      </c>
+      <c r="I269" t="n">
+        <v>319.7528571428572</v>
+      </c>
+      <c r="J269" t="n">
+        <v>354.3928571428572</v>
+      </c>
+      <c r="K269" t="n">
+        <v>394.0894736842105</v>
+      </c>
+      <c r="L269" t="n">
+        <v>401.2727272727273</v>
+      </c>
+      <c r="M269" t="n">
+        <v>288.03</v>
+      </c>
+      <c r="N269" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -11045,7 +11083,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B284"/>
+  <dimension ref="A1:B285"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13893,6 +13931,16 @@
       </c>
       <c r="B284" t="n">
         <v>0.42</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B285" t="n">
+        <v>-0.59</v>
       </c>
     </row>
   </sheetData>
@@ -14983,7 +15031,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N268"/>
+  <dimension ref="A1:N269"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29645,21 +29693,9 @@
           <t>-42.78069112743392,173.37361358927376</t>
         </is>
       </c>
-      <c r="J267" t="inlineStr">
-        <is>
-          <t>-42.78099268307241,173.3719571266116</t>
-        </is>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>-42.78166903220655,173.37169489332285</t>
-        </is>
-      </c>
-      <c r="L267" t="inlineStr">
-        <is>
-          <t>-42.782345353097654,173.3714176351606</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="inlineStr"/>
       <c r="M267" t="inlineStr"/>
       <c r="N267" t="inlineStr">
         <is>
@@ -29679,23 +29715,15 @@
       <c r="E268" t="inlineStr"/>
       <c r="F268" t="inlineStr"/>
       <c r="G268" t="inlineStr"/>
-      <c r="H268" t="inlineStr"/>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>-42.7797339734988,173.37263366031868</t>
+        </is>
+      </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr">
-        <is>
-          <t>-42.78098357525241,173.37191841304332</t>
-        </is>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>-42.78163896401513,173.37154208777227</t>
-        </is>
-      </c>
-      <c r="L268" t="inlineStr">
-        <is>
-          <t>-42.782340317475295,173.3713858761697</t>
-        </is>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
+      <c r="L268" t="inlineStr"/>
       <c r="M268" t="inlineStr">
         <is>
           <t>-42.78307824650285,173.37175609071943</t>
@@ -29704,6 +29732,78 @@
       <c r="N268" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:07:51+00:00</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>-42.776351310894796,173.37583136497196</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>-42.77693198622635,173.37540252755403</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>-42.777522452551224,173.37499519944055</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>-42.77812073672257,173.3745794688813</t>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>-42.77877572117605,173.37432505189946</t>
+        </is>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>-42.7793241654783,173.37377279859155</t>
+        </is>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>-42.77970269757923,173.37251589671106</t>
+        </is>
+      </c>
+      <c r="I269" t="inlineStr">
+        <is>
+          <t>-42.780574578609084,173.37313140113937</t>
+        </is>
+      </c>
+      <c r="J269" t="inlineStr">
+        <is>
+          <t>-42.78129708883558,173.37325106798195</t>
+        </is>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>-42.78201473504039,173.37345182888996</t>
+        </is>
+      </c>
+      <c r="L269" t="inlineStr">
+        <is>
+          <t>-42.7826508522454,173.37334449079918</t>
+        </is>
+      </c>
+      <c r="M269" t="inlineStr">
+        <is>
+          <t>-42.78308578559414,173.37180578397266</t>
+        </is>
+      </c>
+      <c r="N269" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>

--- a/data/nzd0403/nzd0403.xlsx
+++ b/data/nzd0403/nzd0403.xlsx
@@ -14114,28 +14114,28 @@
         <v>0.2</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.1165412247618</v>
+        <v>-1.101547336016785</v>
       </c>
       <c r="J2" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K2" t="n">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1223571716064559</v>
+        <v>0.1213254591867652</v>
       </c>
       <c r="M2" t="n">
-        <v>18.18751891591741</v>
+        <v>18.11408298208806</v>
       </c>
       <c r="N2" t="n">
-        <v>503.0656622858691</v>
+        <v>500.0151098763465</v>
       </c>
       <c r="O2" t="n">
-        <v>22.4291253125455</v>
+        <v>22.36101763955179</v>
       </c>
       <c r="P2" t="n">
-        <v>325.4995534879712</v>
+        <v>325.3591999950628</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -14192,28 +14192,28 @@
         <v>0.2</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.174286910485453</v>
+        <v>-1.161705315968336</v>
       </c>
       <c r="J3" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K3" t="n">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1289348638963594</v>
+        <v>0.1280383201832954</v>
       </c>
       <c r="M3" t="n">
-        <v>18.70079732725668</v>
+        <v>18.63857132310685</v>
       </c>
       <c r="N3" t="n">
-        <v>510.2426605621146</v>
+        <v>507.4311725792036</v>
       </c>
       <c r="O3" t="n">
-        <v>22.58855153749604</v>
+        <v>22.52623298688007</v>
       </c>
       <c r="P3" t="n">
-        <v>331.6173635544914</v>
+        <v>331.4909619526059</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -14270,28 +14270,28 @@
         <v>0.2</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.5580745478830941</v>
+        <v>-0.5587653974092684</v>
       </c>
       <c r="J4" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K4" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02865426247769109</v>
+        <v>0.02907180170343182</v>
       </c>
       <c r="M4" t="n">
-        <v>19.31070248661683</v>
+        <v>19.18049931389961</v>
       </c>
       <c r="N4" t="n">
-        <v>590.133328626714</v>
+        <v>586.0373258358965</v>
       </c>
       <c r="O4" t="n">
-        <v>24.292659974295</v>
+        <v>24.20820781957839</v>
       </c>
       <c r="P4" t="n">
-        <v>332.1548489251315</v>
+        <v>332.1620604923394</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -14348,28 +14348,28 @@
         <v>0.08550000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.6423300729217273</v>
+        <v>-0.6504796259211628</v>
       </c>
       <c r="J5" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K5" t="n">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04134871866579082</v>
+        <v>0.04284521589067591</v>
       </c>
       <c r="M5" t="n">
-        <v>17.90660065020865</v>
+        <v>17.83016483088002</v>
       </c>
       <c r="N5" t="n">
-        <v>471.2932265805217</v>
+        <v>468.1892164829843</v>
       </c>
       <c r="O5" t="n">
-        <v>21.70928894691214</v>
+        <v>21.63768047834574</v>
       </c>
       <c r="P5" t="n">
-        <v>346.2949584097915</v>
+        <v>346.3882286137534</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -14426,28 +14426,28 @@
         <v>0.2</v>
       </c>
       <c r="I6" t="n">
-        <v>1.161691088557617</v>
+        <v>1.158190062266742</v>
       </c>
       <c r="J6" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K6" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02401887490931087</v>
+        <v>0.0241419961012842</v>
       </c>
       <c r="M6" t="n">
-        <v>32.84325766309703</v>
+        <v>32.6711468137897</v>
       </c>
       <c r="N6" t="n">
-        <v>2825.996211447893</v>
+        <v>2809.621912654802</v>
       </c>
       <c r="O6" t="n">
-        <v>53.16009980660206</v>
+        <v>53.0058667758089</v>
       </c>
       <c r="P6" t="n">
-        <v>310.3289469419367</v>
+        <v>310.3670106557935</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -14504,28 +14504,28 @@
         <v>0.0315</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.4406441369867211</v>
+        <v>-0.4473608340652037</v>
       </c>
       <c r="J7" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K7" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L7" t="n">
-        <v>0.005864161949314606</v>
+        <v>0.006111437714508283</v>
       </c>
       <c r="M7" t="n">
-        <v>30.514448898583</v>
+        <v>30.36867320768109</v>
       </c>
       <c r="N7" t="n">
-        <v>1854.007279722699</v>
+        <v>1842.855481898589</v>
       </c>
       <c r="O7" t="n">
-        <v>43.05818481685798</v>
+        <v>42.92849265812379</v>
       </c>
       <c r="P7" t="n">
-        <v>338.8505625610255</v>
+        <v>338.9196739845407</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -14582,28 +14582,28 @@
         <v>0.0977</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6655964174018995</v>
+        <v>0.4838058651674582</v>
       </c>
       <c r="J8" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K8" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01138574882866716</v>
+        <v>0.005944371329818732</v>
       </c>
       <c r="M8" t="n">
-        <v>32.7517578733018</v>
+        <v>33.58583480165785</v>
       </c>
       <c r="N8" t="n">
-        <v>1997.564778465619</v>
+        <v>2055.214535906689</v>
       </c>
       <c r="O8" t="n">
-        <v>44.69412465263884</v>
+        <v>45.334474033639</v>
       </c>
       <c r="P8" t="n">
-        <v>316.3508096782083</v>
+        <v>318.2900838383026</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -14660,28 +14660,28 @@
         <v>0.0582</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.448275377241471</v>
+        <v>-0.4485234748369619</v>
       </c>
       <c r="J9" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K9" t="n">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L9" t="n">
-        <v>0.006522120640798157</v>
+        <v>0.006600879236951962</v>
       </c>
       <c r="M9" t="n">
-        <v>31.5655340359976</v>
+        <v>31.38881170181194</v>
       </c>
       <c r="N9" t="n">
-        <v>1675.785596060995</v>
+        <v>1666.318187784133</v>
       </c>
       <c r="O9" t="n">
-        <v>40.93636031770527</v>
+        <v>40.82056084602628</v>
       </c>
       <c r="P9" t="n">
-        <v>331.6620781286307</v>
+        <v>331.664660087377</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -14738,28 +14738,28 @@
         <v>0.0544</v>
       </c>
       <c r="I10" t="n">
-        <v>-1.148498018199784</v>
+        <v>-0.9479170698277667</v>
       </c>
       <c r="J10" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K10" t="n">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L10" t="n">
-        <v>0.04230539200998562</v>
+        <v>0.02978656056861462</v>
       </c>
       <c r="M10" t="n">
-        <v>30.28043167645749</v>
+        <v>29.72038022543921</v>
       </c>
       <c r="N10" t="n">
-        <v>1599.013121965441</v>
+        <v>1558.940266463086</v>
       </c>
       <c r="O10" t="n">
-        <v>39.98766212177753</v>
+        <v>39.4834176137665</v>
       </c>
       <c r="P10" t="n">
-        <v>341.7886769756461</v>
+        <v>339.6718097294817</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -14816,28 +14816,28 @@
         <v>0.2</v>
       </c>
       <c r="I11" t="n">
-        <v>-1.172420602964711</v>
+        <v>-0.9332438381338405</v>
       </c>
       <c r="J11" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K11" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L11" t="n">
-        <v>0.05393855986783302</v>
+        <v>0.03546145575972726</v>
       </c>
       <c r="M11" t="n">
-        <v>26.48731997888146</v>
+        <v>26.05498440608095</v>
       </c>
       <c r="N11" t="n">
-        <v>1322.44111092603</v>
+        <v>1292.355970495209</v>
       </c>
       <c r="O11" t="n">
-        <v>36.3653834150835</v>
+        <v>35.9493528522449</v>
       </c>
       <c r="P11" t="n">
-        <v>347.0930670334526</v>
+        <v>344.6421281552777</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -14894,28 +14894,28 @@
         <v>0.08649999999999999</v>
       </c>
       <c r="I12" t="n">
-        <v>-1.260767346778443</v>
+        <v>-1.015991001536842</v>
       </c>
       <c r="J12" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K12" t="n">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L12" t="n">
-        <v>0.06097504079891902</v>
+        <v>0.04105203683104974</v>
       </c>
       <c r="M12" t="n">
-        <v>25.10767305727074</v>
+        <v>24.68359823954546</v>
       </c>
       <c r="N12" t="n">
-        <v>1297.202084478121</v>
+        <v>1270.853100555498</v>
       </c>
       <c r="O12" t="n">
-        <v>36.01669174810647</v>
+        <v>35.64902664246947</v>
       </c>
       <c r="P12" t="n">
-        <v>350.7055585350652</v>
+        <v>348.1449834591713</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -14972,28 +14972,28 @@
         <v>0.06419999999999999</v>
       </c>
       <c r="I13" t="n">
-        <v>-1.62186539770492</v>
+        <v>-1.648788657224192</v>
       </c>
       <c r="J13" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K13" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1461117524284861</v>
+        <v>0.1507088962486487</v>
       </c>
       <c r="M13" t="n">
-        <v>22.45345172040469</v>
+        <v>22.47984458845885</v>
       </c>
       <c r="N13" t="n">
-        <v>778.3966505471441</v>
+        <v>779.2367191846264</v>
       </c>
       <c r="O13" t="n">
-        <v>27.8997607614679</v>
+        <v>27.91481182427398</v>
       </c>
       <c r="P13" t="n">
-        <v>361.696959920041</v>
+        <v>361.9892854418019</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">

--- a/data/nzd0403/nzd0403.xlsx
+++ b/data/nzd0403/nzd0403.xlsx
@@ -14105,10 +14105,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.125</v>
+        <v>0.15</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0862</v>
+        <v>0.0576</v>
       </c>
       <c r="H2" t="n">
         <v>0.2</v>
@@ -14183,13 +14183,13 @@
         <v>0.09094595665842808</v>
       </c>
       <c r="F3" t="n">
-        <v>0.14</v>
+        <v>0.04</v>
       </c>
       <c r="G3" t="n">
-        <v>0.08119999999999999</v>
+        <v>0.0258</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2</v>
+        <v>0.0872</v>
       </c>
       <c r="I3" t="n">
         <v>-1.161643559262043</v>
@@ -14261,10 +14261,10 @@
         <v>0.181891913317929</v>
       </c>
       <c r="F4" t="n">
-        <v>0.125</v>
+        <v>0.065</v>
       </c>
       <c r="G4" t="n">
-        <v>0.07340000000000001</v>
+        <v>0.0349</v>
       </c>
       <c r="H4" t="n">
         <v>0.2</v>
@@ -14339,13 +14339,13 @@
         <v>0.2728378699763571</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06</v>
+        <v>0.035</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0473</v>
+        <v>0.025</v>
       </c>
       <c r="H5" t="n">
-        <v>0.08550000000000001</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="I5" t="n">
         <v>-0.6504706999958771</v>
@@ -14417,10 +14417,10 @@
         <v>0.3636087045980507</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09</v>
+        <v>0.055</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0585</v>
+        <v>0.0266</v>
       </c>
       <c r="H6" t="n">
         <v>0.2</v>
@@ -14495,13 +14495,13 @@
         <v>0.4545546612571195</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02</v>
+        <v>0.025</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0172</v>
+        <v>0.0193</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0315</v>
+        <v>0.0352</v>
       </c>
       <c r="I7" t="n">
         <v>-0.4473608340652037</v>
@@ -14573,13 +14573,13 @@
         <v>0.54538560316718</v>
       </c>
       <c r="F8" t="n">
-        <v>0.05</v>
+        <v>0.035</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0341</v>
+        <v>0.0244</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0977</v>
+        <v>0.055</v>
       </c>
       <c r="I8" t="n">
         <v>0.483805865167458</v>
@@ -14654,10 +14654,10 @@
         <v>0.035</v>
       </c>
       <c r="G9" t="n">
-        <v>0.027</v>
+        <v>0.0269</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0582</v>
+        <v>0.0552</v>
       </c>
       <c r="I9" t="n">
         <v>-0.4485739647648297</v>
@@ -14729,13 +14729,13 @@
         <v>0.7272775164855754</v>
       </c>
       <c r="F10" t="n">
-        <v>0.035</v>
+        <v>0.04</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0247</v>
+        <v>0.0299</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0544</v>
+        <v>0.0593</v>
       </c>
       <c r="I10" t="n">
         <v>-0.9479673798687107</v>
@@ -14807,13 +14807,13 @@
         <v>0.8181653734069118</v>
       </c>
       <c r="F11" t="n">
-        <v>0.095</v>
+        <v>0.045</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0577</v>
+        <v>0.0326</v>
       </c>
       <c r="H11" t="n">
-        <v>0.2</v>
+        <v>0.07190000000000001</v>
       </c>
       <c r="I11" t="n">
         <v>-0.9332664587259569</v>
@@ -14885,13 +14885,13 @@
         <v>0.9091113300652818</v>
       </c>
       <c r="F12" t="n">
-        <v>0.055</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0396</v>
+        <v>0.0432</v>
       </c>
       <c r="H12" t="n">
-        <v>0.08649999999999999</v>
+        <v>0.1642</v>
       </c>
       <c r="I12" t="n">
         <v>-1.015949336790768</v>
@@ -14966,10 +14966,10 @@
         <v>0.05</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0399</v>
+        <v>0.0395</v>
       </c>
       <c r="H13" t="n">
-        <v>0.06419999999999999</v>
+        <v>0.0675</v>
       </c>
       <c r="I13" t="n">
         <v>-1.648788657224192</v>

--- a/data/nzd0403/nzd0403.xlsx
+++ b/data/nzd0403/nzd0403.xlsx
@@ -541,13 +541,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>340.16</v>
+        <v>340.23</v>
       </c>
       <c r="C3" t="n">
         <v>368.14</v>
       </c>
       <c r="D3" t="n">
-        <v>372.15</v>
+        <v>372.53</v>
       </c>
       <c r="E3" t="n">
         <v>388.9</v>
@@ -571,7 +571,7 @@
         <v>397.82</v>
       </c>
       <c r="L3" t="n">
-        <v>405.44</v>
+        <v>405.77</v>
       </c>
       <c r="M3" t="n">
         <v>390.45</v>
@@ -589,13 +589,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>359.83</v>
+        <v>359.69</v>
       </c>
       <c r="C4" t="n">
         <v>355.17</v>
       </c>
       <c r="D4" t="n">
-        <v>372.14</v>
+        <v>371.39</v>
       </c>
       <c r="E4" t="n">
         <v>372.96</v>
@@ -619,7 +619,7 @@
         <v>369.52</v>
       </c>
       <c r="L4" t="n">
-        <v>382.97</v>
+        <v>382.32</v>
       </c>
       <c r="M4" t="n">
         <v>423.02</v>
@@ -637,13 +637,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>345.63</v>
+        <v>345.71</v>
       </c>
       <c r="C5" t="n">
         <v>356.1</v>
       </c>
       <c r="D5" t="n">
-        <v>351.11</v>
+        <v>351.59</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
@@ -655,7 +655,7 @@
         <v>378.61</v>
       </c>
       <c r="L5" t="n">
-        <v>392.85</v>
+        <v>393.25</v>
       </c>
       <c r="M5" t="n">
         <v>396.98</v>
@@ -673,13 +673,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>347.92</v>
+        <v>348.11</v>
       </c>
       <c r="C6" t="n">
         <v>362.98</v>
       </c>
       <c r="D6" t="n">
-        <v>363.2</v>
+        <v>364.25</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
@@ -691,7 +691,7 @@
         <v>386.79</v>
       </c>
       <c r="L6" t="n">
-        <v>383.94</v>
+        <v>384.85</v>
       </c>
       <c r="M6" t="n">
         <v>389.32</v>
@@ -721,7 +721,7 @@
         <v>373.72</v>
       </c>
       <c r="L7" t="n">
-        <v>367.28</v>
+        <v>367.65</v>
       </c>
       <c r="M7" t="n">
         <v>379.4</v>
@@ -739,13 +739,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>333.29</v>
+        <v>333.25</v>
       </c>
       <c r="C8" t="n">
         <v>334.04</v>
       </c>
       <c r="D8" t="n">
-        <v>344.62</v>
+        <v>344.39</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
@@ -765,7 +765,7 @@
         <v>372.06</v>
       </c>
       <c r="L8" t="n">
-        <v>378.05</v>
+        <v>377.85</v>
       </c>
       <c r="M8" t="n">
         <v>379.78</v>
@@ -803,7 +803,7 @@
         <v>368.41</v>
       </c>
       <c r="L9" t="n">
-        <v>374.31</v>
+        <v>373.6</v>
       </c>
       <c r="M9" t="n">
         <v>396.69</v>
@@ -821,13 +821,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>312.25</v>
+        <v>312.34</v>
       </c>
       <c r="C10" t="n">
         <v>329.36</v>
       </c>
       <c r="D10" t="n">
-        <v>320.69</v>
+        <v>321.17</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
@@ -843,7 +843,7 @@
         <v>391.59</v>
       </c>
       <c r="L10" t="n">
-        <v>389.32</v>
+        <v>389.74</v>
       </c>
       <c r="M10" t="n">
         <v>393.31</v>
@@ -861,7 +861,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>347.24</v>
+        <v>347.22</v>
       </c>
       <c r="C11" t="n">
         <v>312.98</v>
@@ -885,7 +885,7 @@
         <v>403.55</v>
       </c>
       <c r="L11" t="n">
-        <v>399.69</v>
+        <v>399.58</v>
       </c>
       <c r="M11" t="n">
         <v>406.37</v>
@@ -903,13 +903,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>324.01</v>
+        <v>323.86</v>
       </c>
       <c r="C12" t="n">
         <v>329.42</v>
       </c>
       <c r="D12" t="n">
-        <v>352.89</v>
+        <v>352.1</v>
       </c>
       <c r="E12" t="n">
         <v>375.59</v>
@@ -933,7 +933,7 @@
         <v>394.79</v>
       </c>
       <c r="L12" t="n">
-        <v>403.29</v>
+        <v>402.61</v>
       </c>
       <c r="M12" t="n">
         <v>388.93</v>
@@ -951,13 +951,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>342.51</v>
+        <v>342.59</v>
       </c>
       <c r="C13" t="n">
         <v>350.16</v>
       </c>
       <c r="D13" t="n">
-        <v>367.17</v>
+        <v>367.65</v>
       </c>
       <c r="E13" t="n">
         <v>382.22</v>
@@ -981,7 +981,7 @@
         <v>364.78</v>
       </c>
       <c r="L13" t="n">
-        <v>357.9</v>
+        <v>358.3</v>
       </c>
       <c r="M13" t="n">
         <v>362.43</v>
@@ -999,7 +999,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>332.39</v>
+        <v>332.49</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -1023,7 +1023,7 @@
         <v>388.18</v>
       </c>
       <c r="L14" t="n">
-        <v>390.15</v>
+        <v>390.64</v>
       </c>
       <c r="M14" t="n">
         <v>395.39</v>
@@ -1043,7 +1043,7 @@
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="n">
-        <v>366.95</v>
+        <v>367.59</v>
       </c>
       <c r="E15" t="n">
         <v>386.08</v>
@@ -1067,7 +1067,7 @@
         <v>405.65</v>
       </c>
       <c r="L15" t="n">
-        <v>405.73</v>
+        <v>406.28</v>
       </c>
       <c r="M15" t="n">
         <v>419.09</v>
@@ -1088,9 +1088,7 @@
       <c r="C16" t="n">
         <v>334.8</v>
       </c>
-      <c r="D16" t="n">
-        <v>326.98</v>
-      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="n">
         <v>355.11</v>
@@ -1111,7 +1109,7 @@
         <v>333.1</v>
       </c>
       <c r="L16" t="n">
-        <v>350.39</v>
+        <v>350.53</v>
       </c>
       <c r="M16" t="n">
         <v>363.84</v>
@@ -1129,7 +1127,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>318.36</v>
+        <v>318.44</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -1153,7 +1151,7 @@
         <v>327.76</v>
       </c>
       <c r="L17" t="n">
-        <v>338.47</v>
+        <v>338.87</v>
       </c>
       <c r="M17" t="n">
         <v>340.56</v>
@@ -1191,7 +1189,7 @@
         <v>304.7</v>
       </c>
       <c r="L18" t="n">
-        <v>324.54</v>
+        <v>324.99</v>
       </c>
       <c r="M18" t="n">
         <v>340.37</v>
@@ -1235,14 +1233,12 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>307.81</v>
+        <v>307.94</v>
       </c>
       <c r="C20" t="n">
         <v>322.6</v>
       </c>
-      <c r="D20" t="n">
-        <v>317.36</v>
-      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -1255,7 +1251,7 @@
         <v>355.12</v>
       </c>
       <c r="L20" t="n">
-        <v>360.02</v>
+        <v>360.65</v>
       </c>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr">
@@ -1271,7 +1267,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>292.62</v>
+        <v>292.7</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
@@ -1297,13 +1293,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>302.85</v>
+        <v>302.68</v>
       </c>
       <c r="C22" t="n">
         <v>295.06</v>
       </c>
       <c r="D22" t="n">
-        <v>308.59</v>
+        <v>307.63</v>
       </c>
       <c r="E22" t="n">
         <v>305.01</v>
@@ -1327,7 +1323,7 @@
         <v>340.14</v>
       </c>
       <c r="L22" t="n">
-        <v>356.01</v>
+        <v>355.18</v>
       </c>
       <c r="M22" t="n">
         <v>360.33</v>
@@ -1369,7 +1365,7 @@
         <v>342.06</v>
       </c>
       <c r="L23" t="n">
-        <v>340.46</v>
+        <v>339.8</v>
       </c>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr">
@@ -1385,13 +1381,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>316.47</v>
+        <v>316.3</v>
       </c>
       <c r="C24" t="n">
         <v>303.93</v>
       </c>
       <c r="D24" t="n">
-        <v>311.89</v>
+        <v>310.93</v>
       </c>
       <c r="E24" t="n">
         <v>309.94</v>
@@ -1415,7 +1411,7 @@
         <v>351.15</v>
       </c>
       <c r="L24" t="n">
-        <v>346.37</v>
+        <v>345.54</v>
       </c>
       <c r="M24" t="n">
         <v>363.74</v>
@@ -1461,13 +1457,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>318.41</v>
+        <v>318.29</v>
       </c>
       <c r="C26" t="n">
         <v>314.45</v>
       </c>
       <c r="D26" t="n">
-        <v>310.59</v>
+        <v>309.9</v>
       </c>
       <c r="E26" t="n">
         <v>314.18</v>
@@ -1501,7 +1497,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>305.26</v>
+        <v>305.46</v>
       </c>
       <c r="C27" t="n">
         <v>326.51</v>
@@ -1533,7 +1529,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>298.28</v>
+        <v>298.42</v>
       </c>
       <c r="C28" t="n">
         <v>320.87</v>
@@ -1567,13 +1563,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>315.54</v>
+        <v>315.64</v>
       </c>
       <c r="C29" t="n">
         <v>320.99</v>
       </c>
       <c r="D29" t="n">
-        <v>330.21</v>
+        <v>330.73</v>
       </c>
       <c r="E29" t="n">
         <v>341.07</v>
@@ -1593,7 +1589,7 @@
         <v>346.9</v>
       </c>
       <c r="L29" t="n">
-        <v>360.47</v>
+        <v>360.92</v>
       </c>
       <c r="M29" t="n">
         <v>364.96</v>
@@ -1667,7 +1663,7 @@
         <v>363.46</v>
       </c>
       <c r="L31" t="n">
-        <v>360.04</v>
+        <v>361.02</v>
       </c>
       <c r="M31" t="n">
         <v>314.67</v>
@@ -1685,7 +1681,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>306.49</v>
+        <v>306.55</v>
       </c>
       <c r="C32" t="n">
         <v>314.41</v>
@@ -1713,7 +1709,7 @@
         <v>350.21</v>
       </c>
       <c r="L32" t="n">
-        <v>349.47</v>
+        <v>349.76</v>
       </c>
       <c r="M32" t="n">
         <v>337.86</v>
@@ -1751,7 +1747,7 @@
         <v>348.92</v>
       </c>
       <c r="L33" t="n">
-        <v>350.21</v>
+        <v>350.26</v>
       </c>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
@@ -1767,13 +1763,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>307.27</v>
+        <v>307.13</v>
       </c>
       <c r="C34" t="n">
         <v>301.46</v>
       </c>
       <c r="D34" t="n">
-        <v>327.69</v>
+        <v>326.88</v>
       </c>
       <c r="E34" t="n">
         <v>320.09</v>
@@ -1797,7 +1793,7 @@
         <v>332.98</v>
       </c>
       <c r="L34" t="n">
-        <v>345.06</v>
+        <v>344.37</v>
       </c>
       <c r="M34" t="n">
         <v>354.79</v>
@@ -1815,13 +1811,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>313.69</v>
+        <v>313.55</v>
       </c>
       <c r="C35" t="n">
         <v>312.17</v>
       </c>
       <c r="D35" t="n">
-        <v>330.04</v>
+        <v>329.29</v>
       </c>
       <c r="E35" t="n">
         <v>335.9</v>
@@ -1845,7 +1841,7 @@
         <v>324.89</v>
       </c>
       <c r="L35" t="n">
-        <v>338.88</v>
+        <v>338.23</v>
       </c>
       <c r="M35" t="n">
         <v>343.02</v>
@@ -1889,13 +1885,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>296.43</v>
+        <v>296.4</v>
       </c>
       <c r="C37" t="n">
         <v>306.78</v>
       </c>
       <c r="D37" t="n">
-        <v>313.78</v>
+        <v>313.61</v>
       </c>
       <c r="E37" t="n">
         <v>328.01</v>
@@ -1919,7 +1915,7 @@
         <v>342.86</v>
       </c>
       <c r="L37" t="n">
-        <v>346.73</v>
+        <v>346.59</v>
       </c>
       <c r="M37" t="n">
         <v>322.04</v>
@@ -1937,11 +1933,11 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>307.15</v>
+        <v>307.18</v>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="n">
-        <v>317.64</v>
+        <v>317.81</v>
       </c>
       <c r="E38" t="n">
         <v>336.32</v>
@@ -1965,7 +1961,7 @@
         <v>341.81</v>
       </c>
       <c r="L38" t="n">
-        <v>346.43</v>
+        <v>346.57</v>
       </c>
       <c r="M38" t="n">
         <v>319.34</v>
@@ -1983,7 +1979,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>302.25</v>
+        <v>302.41</v>
       </c>
       <c r="C39" t="n">
         <v>315.72</v>
@@ -2039,13 +2035,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>323.12</v>
+        <v>323.16</v>
       </c>
       <c r="C41" t="n">
         <v>334.39</v>
       </c>
       <c r="D41" t="n">
-        <v>330.59</v>
+        <v>330.84</v>
       </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="n">
@@ -2067,7 +2063,7 @@
         <v>344.61</v>
       </c>
       <c r="L41" t="n">
-        <v>352.15</v>
+        <v>352.36</v>
       </c>
       <c r="M41" t="n">
         <v>340.51</v>
@@ -2085,13 +2081,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>298.63</v>
+        <v>298.53</v>
       </c>
       <c r="C42" t="n">
         <v>291.31</v>
       </c>
       <c r="D42" t="n">
-        <v>247.52</v>
+        <v>246.98</v>
       </c>
       <c r="E42" t="n">
         <v>319.78</v>
@@ -2125,13 +2121,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>306.62</v>
+        <v>306.48</v>
       </c>
       <c r="C43" t="n">
         <v>299.6</v>
       </c>
       <c r="D43" t="n">
-        <v>245.54</v>
+        <v>244.77</v>
       </c>
       <c r="E43" t="n">
         <v>323.85</v>
@@ -2197,13 +2193,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>306.23</v>
+        <v>306.15</v>
       </c>
       <c r="C45" t="n">
         <v>307.37</v>
       </c>
       <c r="D45" t="n">
-        <v>263.22</v>
+        <v>262.8</v>
       </c>
       <c r="E45" t="n">
         <v>326.86</v>
@@ -2225,7 +2221,7 @@
         <v>344.79</v>
       </c>
       <c r="L45" t="n">
-        <v>348.61</v>
+        <v>348.24</v>
       </c>
       <c r="M45" t="n">
         <v>347.03</v>
@@ -2267,7 +2263,7 @@
         <v>345.38</v>
       </c>
       <c r="L46" t="n">
-        <v>339.26</v>
+        <v>339.25</v>
       </c>
       <c r="M46" t="n">
         <v>366.81</v>
@@ -2287,7 +2283,7 @@
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="n">
-        <v>237.43</v>
+        <v>237.53</v>
       </c>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="n">
@@ -2299,7 +2295,7 @@
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
-        <v>235.73</v>
+        <v>235.82</v>
       </c>
       <c r="M47" t="n">
         <v>301.71</v>
@@ -2317,13 +2313,13 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>321.13</v>
+        <v>320.93</v>
       </c>
       <c r="C48" t="n">
         <v>312.03</v>
       </c>
       <c r="D48" t="n">
-        <v>326.55</v>
+        <v>325.43</v>
       </c>
       <c r="E48" t="n">
         <v>326.48</v>
@@ -2387,7 +2383,7 @@
         <v>235.9</v>
       </c>
       <c r="L49" t="n">
-        <v>235.86</v>
+        <v>235.88</v>
       </c>
       <c r="M49" t="n">
         <v>279.82</v>
@@ -2405,13 +2401,13 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>308.39</v>
+        <v>308.57</v>
       </c>
       <c r="C50" t="n">
         <v>328.46</v>
       </c>
       <c r="D50" t="n">
-        <v>320.56</v>
+        <v>321.56</v>
       </c>
       <c r="E50" t="n">
         <v>351.76</v>
@@ -2431,7 +2427,7 @@
         <v>242.02</v>
       </c>
       <c r="L50" t="n">
-        <v>239.66</v>
+        <v>240.52</v>
       </c>
       <c r="M50" t="n">
         <v>302.34</v>
@@ -2463,7 +2459,7 @@
         <v>243.92</v>
       </c>
       <c r="L51" t="n">
-        <v>253.68</v>
+        <v>253.65</v>
       </c>
       <c r="M51" t="n">
         <v>371.79</v>
@@ -2481,13 +2477,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>274.38</v>
+        <v>274.28</v>
       </c>
       <c r="C52" t="n">
         <v>290.27</v>
       </c>
       <c r="D52" t="n">
-        <v>323.36</v>
+        <v>322.77</v>
       </c>
       <c r="E52" t="n">
         <v>338.87</v>
@@ -2503,7 +2499,7 @@
         <v>236.72</v>
       </c>
       <c r="L52" t="n">
-        <v>260.28</v>
+        <v>259.77</v>
       </c>
       <c r="M52" t="n">
         <v>419.47</v>
@@ -2521,13 +2517,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>289.7</v>
+        <v>289.55</v>
       </c>
       <c r="C53" t="n">
         <v>285.22</v>
       </c>
       <c r="D53" t="n">
-        <v>325.95</v>
+        <v>325.12</v>
       </c>
       <c r="E53" t="n">
         <v>353.35</v>
@@ -2563,13 +2559,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>307.79</v>
+        <v>307.6</v>
       </c>
       <c r="C54" t="n">
         <v>312.92</v>
       </c>
       <c r="D54" t="n">
-        <v>342.7</v>
+        <v>341.64</v>
       </c>
       <c r="E54" t="n">
         <v>350.16</v>
@@ -2603,13 +2599,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>304.43</v>
+        <v>304.42</v>
       </c>
       <c r="C55" t="n">
         <v>317.78</v>
       </c>
       <c r="D55" t="n">
-        <v>332.55</v>
+        <v>332.47</v>
       </c>
       <c r="E55" t="n">
         <v>337.92</v>
@@ -2629,7 +2625,7 @@
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
-        <v>249.83</v>
+        <v>249.77</v>
       </c>
       <c r="M55" t="n">
         <v>372.05</v>
@@ -2647,7 +2643,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>301.93</v>
+        <v>301.83</v>
       </c>
       <c r="C56" t="n">
         <v>300.84</v>
@@ -2681,13 +2677,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>300.6</v>
+        <v>300.45</v>
       </c>
       <c r="C57" t="n">
         <v>291.14</v>
       </c>
       <c r="D57" t="n">
-        <v>310.97</v>
+        <v>310.11</v>
       </c>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="n">
@@ -2703,7 +2699,7 @@
         <v>232.67</v>
       </c>
       <c r="L57" t="n">
-        <v>230.01</v>
+        <v>229.27</v>
       </c>
       <c r="M57" t="n">
         <v>318.27</v>
@@ -2721,7 +2717,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>300.14</v>
+        <v>300.08</v>
       </c>
       <c r="C58" t="n">
         <v>305.19</v>
@@ -2739,7 +2735,7 @@
         <v>219.01</v>
       </c>
       <c r="L58" t="n">
-        <v>220.6</v>
+        <v>220.31</v>
       </c>
       <c r="M58" t="n">
         <v>278.53</v>
@@ -2771,7 +2767,7 @@
         <v>230.09</v>
       </c>
       <c r="L59" t="n">
-        <v>229.36</v>
+        <v>229.38</v>
       </c>
       <c r="M59" t="n">
         <v>285.32</v>
@@ -2789,7 +2785,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>310.14</v>
+        <v>310.25</v>
       </c>
       <c r="C60" t="n">
         <v>299.6</v>
@@ -2813,7 +2809,7 @@
         <v>349.34</v>
       </c>
       <c r="L60" t="n">
-        <v>351.54</v>
+        <v>352.08</v>
       </c>
       <c r="M60" t="n">
         <v>334.27</v>
@@ -2831,7 +2827,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>315.1</v>
+        <v>315.21</v>
       </c>
       <c r="C61" t="n">
         <v>316.84</v>
@@ -2855,7 +2851,7 @@
         <v>362</v>
       </c>
       <c r="L61" t="n">
-        <v>356.92</v>
+        <v>357.44</v>
       </c>
       <c r="M61" t="n">
         <v>355.53</v>
@@ -2873,13 +2869,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>313.96</v>
+        <v>313.84</v>
       </c>
       <c r="C62" t="n">
         <v>318.23</v>
       </c>
       <c r="D62" t="n">
-        <v>328.39</v>
+        <v>327.74</v>
       </c>
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="n">
@@ -2901,7 +2897,7 @@
         <v>353.68</v>
       </c>
       <c r="L62" t="n">
-        <v>352.32</v>
+        <v>351.76</v>
       </c>
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr">
@@ -2917,13 +2913,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>332.14</v>
+        <v>331.96</v>
       </c>
       <c r="C63" t="n">
         <v>336.3</v>
       </c>
       <c r="D63" t="n">
-        <v>345.84</v>
+        <v>344.82</v>
       </c>
       <c r="E63" t="n">
         <v>343.85</v>
@@ -2945,7 +2941,7 @@
         <v>339.7</v>
       </c>
       <c r="L63" t="n">
-        <v>333.86</v>
+        <v>333</v>
       </c>
       <c r="M63" t="n">
         <v>356.42</v>
@@ -3019,7 +3015,7 @@
         <v>351.35</v>
       </c>
       <c r="L65" t="n">
-        <v>348.49</v>
+        <v>348.09</v>
       </c>
       <c r="M65" t="n">
         <v>359.98</v>
@@ -3037,13 +3033,13 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>328.44</v>
+        <v>328.27</v>
       </c>
       <c r="C66" t="n">
         <v>337.66</v>
       </c>
       <c r="D66" t="n">
-        <v>349.54</v>
+        <v>348.59</v>
       </c>
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="n">
@@ -3065,7 +3061,7 @@
         <v>349.38</v>
       </c>
       <c r="L66" t="n">
-        <v>360.47</v>
+        <v>359.66</v>
       </c>
       <c r="M66" t="n">
         <v>364.53</v>
@@ -3083,13 +3079,13 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>333.12</v>
+        <v>333.07</v>
       </c>
       <c r="C67" t="n">
         <v>332.11</v>
       </c>
       <c r="D67" t="n">
-        <v>341.97</v>
+        <v>341.68</v>
       </c>
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="n">
@@ -3111,7 +3107,7 @@
         <v>381.3</v>
       </c>
       <c r="L67" t="n">
-        <v>378.71</v>
+        <v>378.47</v>
       </c>
       <c r="M67" t="n">
         <v>365.77</v>
@@ -3135,7 +3131,7 @@
         <v>324.94</v>
       </c>
       <c r="D68" t="n">
-        <v>317.1</v>
+        <v>317.12</v>
       </c>
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="n">
@@ -3157,7 +3153,7 @@
         <v>392.13</v>
       </c>
       <c r="L68" t="n">
-        <v>387.72</v>
+        <v>387.73</v>
       </c>
       <c r="M68" t="n">
         <v>371.67</v>
@@ -3175,7 +3171,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>312.51</v>
+        <v>312.59</v>
       </c>
       <c r="C69" t="n">
         <v>331.11</v>
@@ -3201,7 +3197,7 @@
         <v>371.64</v>
       </c>
       <c r="L69" t="n">
-        <v>380.7</v>
+        <v>381.1</v>
       </c>
       <c r="M69" t="n">
         <v>382.88</v>
@@ -3219,7 +3215,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>310.06</v>
+        <v>310.17</v>
       </c>
       <c r="C70" t="n">
         <v>335.4</v>
@@ -3241,7 +3237,7 @@
         <v>346.78</v>
       </c>
       <c r="L70" t="n">
-        <v>369.74</v>
+        <v>370.26</v>
       </c>
       <c r="M70" t="n">
         <v>394.52</v>
@@ -3259,7 +3255,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>320.58</v>
+        <v>320.46</v>
       </c>
       <c r="C71" t="n">
         <v>317.5</v>
@@ -3309,7 +3305,7 @@
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
-        <v>330.63</v>
+        <v>331.15</v>
       </c>
       <c r="M72" t="n">
         <v>410.76</v>
@@ -3327,13 +3323,13 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>309.26</v>
+        <v>309.15</v>
       </c>
       <c r="C73" t="n">
         <v>313.62</v>
       </c>
       <c r="D73" t="n">
-        <v>329.95</v>
+        <v>329.35</v>
       </c>
       <c r="E73" t="n">
         <v>340.91</v>
@@ -3353,7 +3349,7 @@
         <v>352.7</v>
       </c>
       <c r="L73" t="n">
-        <v>358.51</v>
+        <v>357.99</v>
       </c>
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr">
@@ -3373,7 +3369,7 @@
         <v>321.01</v>
       </c>
       <c r="D74" t="n">
-        <v>338.71</v>
+        <v>338.48</v>
       </c>
       <c r="E74" t="n">
         <v>351.09</v>
@@ -3393,7 +3389,7 @@
         <v>349.7</v>
       </c>
       <c r="L74" t="n">
-        <v>356.18</v>
+        <v>355.98</v>
       </c>
       <c r="M74" t="n">
         <v>371.78</v>
@@ -3501,7 +3497,7 @@
         <v>348.42</v>
       </c>
       <c r="L77" t="n">
-        <v>360.39</v>
+        <v>360.24</v>
       </c>
       <c r="M77" t="n">
         <v>365.23</v>
@@ -3519,7 +3515,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>382.12</v>
+        <v>382.05</v>
       </c>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr"/>
@@ -3543,7 +3539,7 @@
         <v>337.92</v>
       </c>
       <c r="L78" t="n">
-        <v>358.59</v>
+        <v>358.26</v>
       </c>
       <c r="M78" t="n">
         <v>368.79</v>
@@ -3561,13 +3557,13 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>356.74</v>
+        <v>356.87</v>
       </c>
       <c r="C79" t="n">
         <v>379.01</v>
       </c>
       <c r="D79" t="n">
-        <v>362.3</v>
+        <v>362.98</v>
       </c>
       <c r="E79" t="n">
         <v>387.72</v>
@@ -3591,7 +3587,7 @@
         <v>355.33</v>
       </c>
       <c r="L79" t="n">
-        <v>359.56</v>
+        <v>360.14</v>
       </c>
       <c r="M79" t="n">
         <v>350.2</v>
@@ -3609,13 +3605,13 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>359.7</v>
+        <v>359.78</v>
       </c>
       <c r="C80" t="n">
         <v>366.16</v>
       </c>
       <c r="D80" t="n">
-        <v>363.18</v>
+        <v>363.59</v>
       </c>
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="n">
@@ -3635,7 +3631,7 @@
         <v>367.15</v>
       </c>
       <c r="L80" t="n">
-        <v>361.42</v>
+        <v>361.77</v>
       </c>
       <c r="M80" t="n">
         <v>358.04</v>
@@ -3657,7 +3653,7 @@
         <v>345.11</v>
       </c>
       <c r="D81" t="n">
-        <v>365.59</v>
+        <v>365.22</v>
       </c>
       <c r="E81" t="n">
         <v>362.84</v>
@@ -3681,7 +3677,7 @@
         <v>345.59</v>
       </c>
       <c r="L81" t="n">
-        <v>351.18</v>
+        <v>350.86</v>
       </c>
       <c r="M81" t="n">
         <v>340.71</v>
@@ -3699,7 +3695,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>359.99</v>
+        <v>359.78</v>
       </c>
       <c r="C82" t="n">
         <v>347.16</v>
@@ -3725,7 +3721,7 @@
         <v>341.54</v>
       </c>
       <c r="L82" t="n">
-        <v>367.21</v>
+        <v>366.21</v>
       </c>
       <c r="M82" t="n">
         <v>369.83</v>
@@ -3760,7 +3756,9 @@
       <c r="K83" t="n">
         <v>340.13</v>
       </c>
-      <c r="L83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>327.53</v>
+      </c>
       <c r="M83" t="n">
         <v>329.94</v>
       </c>
@@ -3777,7 +3775,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>345.31</v>
+        <v>345.45</v>
       </c>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr"/>
@@ -3833,13 +3831,13 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>356.71</v>
+        <v>356.81</v>
       </c>
       <c r="C86" t="n">
         <v>374.65</v>
       </c>
       <c r="D86" t="n">
-        <v>374.88</v>
+        <v>375.46</v>
       </c>
       <c r="E86" t="n">
         <v>371.67</v>
@@ -3861,7 +3859,7 @@
         <v>332.58</v>
       </c>
       <c r="L86" t="n">
-        <v>325.75</v>
+        <v>326.24</v>
       </c>
       <c r="M86" t="n">
         <v>330.81</v>
@@ -3883,7 +3881,7 @@
         <v>340.95</v>
       </c>
       <c r="D87" t="n">
-        <v>358.72</v>
+        <v>357.57</v>
       </c>
       <c r="E87" t="n">
         <v>349.8</v>
@@ -3907,7 +3905,7 @@
         <v>332.37</v>
       </c>
       <c r="L87" t="n">
-        <v>346.17</v>
+        <v>345.18</v>
       </c>
       <c r="M87" t="n">
         <v>348.44</v>
@@ -3925,7 +3923,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>343</v>
+        <v>343.13</v>
       </c>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr"/>
@@ -3947,7 +3945,7 @@
         <v>367.73</v>
       </c>
       <c r="L88" t="n">
-        <v>365.51</v>
+        <v>366.09</v>
       </c>
       <c r="M88" t="n">
         <v>367.62</v>
@@ -3965,7 +3963,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>344.84</v>
+        <v>344.94</v>
       </c>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr"/>
@@ -3989,7 +3987,7 @@
         <v>348.28</v>
       </c>
       <c r="L89" t="n">
-        <v>351.73</v>
+        <v>352.24</v>
       </c>
       <c r="M89" t="inlineStr"/>
       <c r="N89" t="inlineStr">
@@ -4021,7 +4019,7 @@
         <v>332.96</v>
       </c>
       <c r="L90" t="n">
-        <v>333.53</v>
+        <v>333.16</v>
       </c>
       <c r="M90" t="n">
         <v>343.59</v>
@@ -4039,13 +4037,13 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>318.63</v>
+        <v>318.78</v>
       </c>
       <c r="C91" t="n">
         <v>339.47</v>
       </c>
       <c r="D91" t="n">
-        <v>337.4</v>
+        <v>338.23</v>
       </c>
       <c r="E91" t="n">
         <v>357.95</v>
@@ -4067,7 +4065,7 @@
         <v>358.5</v>
       </c>
       <c r="L91" t="n">
-        <v>358.45</v>
+        <v>359.16</v>
       </c>
       <c r="M91" t="n">
         <v>363.99</v>
@@ -4089,7 +4087,7 @@
         <v>332.34</v>
       </c>
       <c r="D92" t="n">
-        <v>335.2</v>
+        <v>335.66</v>
       </c>
       <c r="E92" t="n">
         <v>340.19</v>
@@ -4113,7 +4111,7 @@
         <v>345.71</v>
       </c>
       <c r="L92" t="n">
-        <v>346.71</v>
+        <v>347.11</v>
       </c>
       <c r="M92" t="n">
         <v>346.03</v>
@@ -4131,7 +4129,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>324.74</v>
+        <v>324.69</v>
       </c>
       <c r="C93" t="n">
         <v>323.75</v>
@@ -4157,7 +4155,7 @@
         <v>340.66</v>
       </c>
       <c r="L93" t="n">
-        <v>355.94</v>
+        <v>355.66</v>
       </c>
       <c r="M93" t="n">
         <v>350.97</v>
@@ -4175,13 +4173,13 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>317.79</v>
+        <v>317.58</v>
       </c>
       <c r="C94" t="n">
         <v>307.98</v>
       </c>
       <c r="D94" t="n">
-        <v>322.05</v>
+        <v>320.88</v>
       </c>
       <c r="E94" t="inlineStr"/>
       <c r="F94" t="n">
@@ -4203,7 +4201,7 @@
         <v>322.83</v>
       </c>
       <c r="L94" t="n">
-        <v>346.5</v>
+        <v>345.5</v>
       </c>
       <c r="M94" t="n">
         <v>337.63</v>
@@ -4223,7 +4221,7 @@
       <c r="B95" t="inlineStr"/>
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="n">
-        <v>335.93</v>
+        <v>336.68</v>
       </c>
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="inlineStr"/>
@@ -4241,7 +4239,7 @@
         <v>341.46</v>
       </c>
       <c r="L95" t="n">
-        <v>333.84</v>
+        <v>334.47</v>
       </c>
       <c r="M95" t="n">
         <v>351.15</v>
@@ -4275,7 +4273,7 @@
       </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
-        <v>340.97</v>
+        <v>341.69</v>
       </c>
       <c r="M96" t="n">
         <v>340.07</v>
@@ -4307,7 +4305,7 @@
         <v>310.44</v>
       </c>
       <c r="L97" t="n">
-        <v>318.02</v>
+        <v>316.99</v>
       </c>
       <c r="M97" t="n">
         <v>325.22</v>
@@ -4389,13 +4387,13 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>331.8</v>
+        <v>331.7</v>
       </c>
       <c r="C100" t="n">
         <v>321.7</v>
       </c>
       <c r="D100" t="n">
-        <v>344.9</v>
+        <v>344.31</v>
       </c>
       <c r="E100" t="n">
         <v>340.91</v>
@@ -4413,7 +4411,7 @@
         <v>318.6</v>
       </c>
       <c r="L100" t="n">
-        <v>323.19</v>
+        <v>322.68</v>
       </c>
       <c r="M100" t="n">
         <v>333.61</v>
@@ -4443,7 +4441,7 @@
         <v>338.41</v>
       </c>
       <c r="L101" t="n">
-        <v>353.84</v>
+        <v>354.55</v>
       </c>
       <c r="M101" t="n">
         <v>363.29</v>
@@ -4477,7 +4475,7 @@
       </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
-        <v>329.96</v>
+        <v>330.67</v>
       </c>
       <c r="M102" t="n">
         <v>343.72</v>
@@ -4499,7 +4497,7 @@
         <v>335.55</v>
       </c>
       <c r="D103" t="n">
-        <v>339.27</v>
+        <v>340.15</v>
       </c>
       <c r="E103" t="n">
         <v>347.83</v>
@@ -4531,13 +4529,13 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>326.93</v>
+        <v>326.99</v>
       </c>
       <c r="C104" t="n">
         <v>345.72</v>
       </c>
       <c r="D104" t="n">
-        <v>353.78</v>
+        <v>354.13</v>
       </c>
       <c r="E104" t="n">
         <v>367.57</v>
@@ -4555,7 +4553,7 @@
         <v>345.2</v>
       </c>
       <c r="L104" t="n">
-        <v>343.37</v>
+        <v>343.66</v>
       </c>
       <c r="M104" t="n">
         <v>353.01</v>
@@ -4577,7 +4575,7 @@
         <v>319.5</v>
       </c>
       <c r="D105" t="n">
-        <v>330.42</v>
+        <v>329.92</v>
       </c>
       <c r="E105" t="n">
         <v>335.02</v>
@@ -4595,7 +4593,7 @@
         <v>337.63</v>
       </c>
       <c r="L105" t="n">
-        <v>352.63</v>
+        <v>352.2</v>
       </c>
       <c r="M105" t="n">
         <v>346.78</v>
@@ -4631,7 +4629,7 @@
         <v>316.77</v>
       </c>
       <c r="L106" t="n">
-        <v>337.77</v>
+        <v>338.37</v>
       </c>
       <c r="M106" t="n">
         <v>347.8</v>
@@ -4671,7 +4669,7 @@
       </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
-        <v>321.43</v>
+        <v>321.22</v>
       </c>
       <c r="M107" t="n">
         <v>329.89</v>
@@ -4691,7 +4689,7 @@
       <c r="B108" t="inlineStr"/>
       <c r="C108" t="inlineStr"/>
       <c r="D108" t="n">
-        <v>298.54</v>
+        <v>299.36</v>
       </c>
       <c r="E108" t="n">
         <v>345.29</v>
@@ -4707,7 +4705,7 @@
         <v>343.02</v>
       </c>
       <c r="L108" t="n">
-        <v>338.92</v>
+        <v>339.63</v>
       </c>
       <c r="M108" t="n">
         <v>348.14</v>
@@ -4725,13 +4723,13 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>317.01</v>
+        <v>316.89</v>
       </c>
       <c r="C109" t="n">
         <v>315.31</v>
       </c>
       <c r="D109" t="n">
-        <v>343.6</v>
+        <v>342.89</v>
       </c>
       <c r="E109" t="n">
         <v>345.35</v>
@@ -4751,7 +4749,7 @@
         <v>338.08</v>
       </c>
       <c r="L109" t="n">
-        <v>344.93</v>
+        <v>344.33</v>
       </c>
       <c r="M109" t="n">
         <v>349.94</v>
@@ -4769,13 +4767,13 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>308.5</v>
+        <v>308.62</v>
       </c>
       <c r="C110" t="n">
         <v>331.16</v>
       </c>
       <c r="D110" t="n">
-        <v>335.23</v>
+        <v>335.92</v>
       </c>
       <c r="E110" t="n">
         <v>347.66</v>
@@ -4797,7 +4795,7 @@
         <v>351.64</v>
       </c>
       <c r="L110" t="n">
-        <v>354.63</v>
+        <v>355.23</v>
       </c>
       <c r="M110" t="n">
         <v>363.21</v>
@@ -4831,7 +4829,7 @@
         <v>343.1</v>
       </c>
       <c r="L111" t="n">
-        <v>338.89</v>
+        <v>338.98</v>
       </c>
       <c r="M111" t="n">
         <v>347.54</v>
@@ -4865,7 +4863,7 @@
         <v>323.71</v>
       </c>
       <c r="L112" t="n">
-        <v>340.47</v>
+        <v>340.1</v>
       </c>
       <c r="M112" t="n">
         <v>337.09</v>
@@ -4883,13 +4881,13 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>321.23</v>
+        <v>321.2</v>
       </c>
       <c r="C113" t="n">
         <v>328.89</v>
       </c>
       <c r="D113" t="n">
-        <v>336.36</v>
+        <v>336.19</v>
       </c>
       <c r="E113" t="n">
         <v>337.97</v>
@@ -4911,7 +4909,7 @@
         <v>321.92</v>
       </c>
       <c r="L113" t="n">
-        <v>318.81</v>
+        <v>318.67</v>
       </c>
       <c r="M113" t="n">
         <v>328.81</v>
@@ -4929,13 +4927,13 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>313.71</v>
+        <v>313.86</v>
       </c>
       <c r="C114" t="n">
         <v>329.75</v>
       </c>
       <c r="D114" t="n">
-        <v>319.07</v>
+        <v>319.93</v>
       </c>
       <c r="E114" t="n">
         <v>330.38</v>
@@ -4971,13 +4969,13 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>321.88</v>
+        <v>321.8</v>
       </c>
       <c r="C115" t="n">
         <v>320.33</v>
       </c>
       <c r="D115" t="n">
-        <v>331.8</v>
+        <v>331.38</v>
       </c>
       <c r="E115" t="n">
         <v>332.34</v>
@@ -5001,7 +4999,7 @@
         <v>296.61</v>
       </c>
       <c r="L115" t="n">
-        <v>309.62</v>
+        <v>309.25</v>
       </c>
       <c r="M115" t="n">
         <v>312.55</v>
@@ -5019,13 +5017,13 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>310.91</v>
+        <v>310.86</v>
       </c>
       <c r="C116" t="n">
         <v>316.57</v>
       </c>
       <c r="D116" t="n">
-        <v>316.26</v>
+        <v>315.99</v>
       </c>
       <c r="E116" t="n">
         <v>316.57</v>
@@ -5047,7 +5045,7 @@
       </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
-        <v>318.26</v>
+        <v>318.03</v>
       </c>
       <c r="M116" t="n">
         <v>315.47</v>
@@ -5081,7 +5079,7 @@
         <v>317.95</v>
       </c>
       <c r="L117" t="n">
-        <v>307.63</v>
+        <v>308.49</v>
       </c>
       <c r="M117" t="n">
         <v>325.51</v>
@@ -5099,13 +5097,13 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>315.2</v>
+        <v>315.12</v>
       </c>
       <c r="C118" t="n">
         <v>308.82</v>
       </c>
       <c r="D118" t="n">
-        <v>329.06</v>
+        <v>328.65</v>
       </c>
       <c r="E118" t="n">
         <v>324.2</v>
@@ -5123,7 +5121,7 @@
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
-        <v>321.61</v>
+        <v>321.26</v>
       </c>
       <c r="M118" t="n">
         <v>325.68</v>
@@ -5143,7 +5141,7 @@
       <c r="B119" t="inlineStr"/>
       <c r="C119" t="inlineStr"/>
       <c r="D119" t="n">
-        <v>329.86</v>
+        <v>329.96</v>
       </c>
       <c r="E119" t="n">
         <v>340.72</v>
@@ -5165,7 +5163,7 @@
         <v>329.15</v>
       </c>
       <c r="L119" t="n">
-        <v>330.74</v>
+        <v>330.83</v>
       </c>
       <c r="M119" t="n">
         <v>331.55</v>
@@ -5183,13 +5181,13 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>323.66</v>
+        <v>323.52</v>
       </c>
       <c r="C120" t="n">
         <v>319.74</v>
       </c>
       <c r="D120" t="n">
-        <v>330.09</v>
+        <v>329.32</v>
       </c>
       <c r="E120" t="n">
         <v>332.73</v>
@@ -5211,7 +5209,7 @@
         <v>329.9</v>
       </c>
       <c r="L120" t="n">
-        <v>338.52</v>
+        <v>337.86</v>
       </c>
       <c r="M120" t="n">
         <v>335.32</v>
@@ -5273,7 +5271,7 @@
         <v>300.5</v>
       </c>
       <c r="L122" t="n">
-        <v>307.97</v>
+        <v>307.72</v>
       </c>
       <c r="M122" t="n">
         <v>312.28</v>
@@ -5291,13 +5289,13 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>321.82</v>
+        <v>321.89</v>
       </c>
       <c r="C123" t="n">
         <v>332.93</v>
       </c>
       <c r="D123" t="n">
-        <v>335.01</v>
+        <v>335.45</v>
       </c>
       <c r="E123" t="n">
         <v>340.38</v>
@@ -5317,7 +5315,7 @@
         <v>308.15</v>
       </c>
       <c r="L123" t="n">
-        <v>323.93</v>
+        <v>324.3</v>
       </c>
       <c r="M123" t="n">
         <v>326.99</v>
@@ -5351,7 +5349,7 @@
         <v>311.72</v>
       </c>
       <c r="L124" t="n">
-        <v>313.91</v>
+        <v>314.51</v>
       </c>
       <c r="M124" t="n">
         <v>327.15</v>
@@ -5379,7 +5377,7 @@
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
-        <v>302.67</v>
+        <v>303.16</v>
       </c>
       <c r="M125" t="n">
         <v>319.56</v>
@@ -5415,7 +5413,7 @@
         <v>300.15</v>
       </c>
       <c r="L126" t="n">
-        <v>307.37</v>
+        <v>307.23</v>
       </c>
       <c r="M126" t="n">
         <v>319.96</v>
@@ -5433,13 +5431,13 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>308.65</v>
+        <v>308.82</v>
       </c>
       <c r="C127" t="n">
         <v>325.1</v>
       </c>
       <c r="D127" t="n">
-        <v>318.7</v>
+        <v>319.65</v>
       </c>
       <c r="E127" t="n">
         <v>321.16</v>
@@ -5463,7 +5461,7 @@
         <v>316.92</v>
       </c>
       <c r="L127" t="n">
-        <v>318.47</v>
+        <v>319.28</v>
       </c>
       <c r="M127" t="n">
         <v>324.2</v>
@@ -5481,13 +5479,13 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>303.45</v>
+        <v>303.6</v>
       </c>
       <c r="C128" t="n">
         <v>314.7</v>
       </c>
       <c r="D128" t="n">
-        <v>324.36</v>
+        <v>325.19</v>
       </c>
       <c r="E128" t="n">
         <v>335.65</v>
@@ -5511,7 +5509,7 @@
         <v>319.41</v>
       </c>
       <c r="L128" t="n">
-        <v>315.88</v>
+        <v>316.59</v>
       </c>
       <c r="M128" t="n">
         <v>331.09</v>
@@ -5529,13 +5527,13 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>310.39</v>
+        <v>310.29</v>
       </c>
       <c r="C129" t="n">
         <v>309.46</v>
       </c>
       <c r="D129" t="n">
-        <v>317.64</v>
+        <v>317.12</v>
       </c>
       <c r="E129" t="n">
         <v>318.31</v>
@@ -5557,7 +5555,7 @@
         <v>317.27</v>
       </c>
       <c r="L129" t="n">
-        <v>320.24</v>
+        <v>319.79</v>
       </c>
       <c r="M129" t="n">
         <v>333.19</v>
@@ -5575,13 +5573,13 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>308.03</v>
+        <v>307.97</v>
       </c>
       <c r="C130" t="n">
         <v>308.84</v>
       </c>
       <c r="D130" t="n">
-        <v>322.7</v>
+        <v>322.39</v>
       </c>
       <c r="E130" t="n">
         <v>322.96</v>
@@ -5605,7 +5603,7 @@
         <v>307.38</v>
       </c>
       <c r="L130" t="n">
-        <v>315.77</v>
+        <v>315.51</v>
       </c>
       <c r="M130" t="n">
         <v>321.88</v>
@@ -5623,13 +5621,13 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>297.67</v>
+        <v>297.7</v>
       </c>
       <c r="C131" t="n">
         <v>302.75</v>
       </c>
       <c r="D131" t="n">
-        <v>317.47</v>
+        <v>317.64</v>
       </c>
       <c r="E131" t="n">
         <v>327.84</v>
@@ -5651,7 +5649,7 @@
         <v>305.84</v>
       </c>
       <c r="L131" t="n">
-        <v>322.13</v>
+        <v>322.27</v>
       </c>
       <c r="M131" t="n">
         <v>333.74</v>
@@ -5683,7 +5681,7 @@
         <v>307.54</v>
       </c>
       <c r="L132" t="n">
-        <v>320.57</v>
+        <v>319.86</v>
       </c>
       <c r="M132" t="n">
         <v>328.8</v>
@@ -5721,7 +5719,7 @@
         <v>310.26</v>
       </c>
       <c r="L133" t="n">
-        <v>323.81</v>
+        <v>324.29</v>
       </c>
       <c r="M133" t="n">
         <v>322.77</v>
@@ -5751,7 +5749,7 @@
         <v>309.09</v>
       </c>
       <c r="L134" t="n">
-        <v>322.26</v>
+        <v>322.86</v>
       </c>
       <c r="M134" t="n">
         <v>327.56</v>
@@ -5785,7 +5783,7 @@
         <v>312.87</v>
       </c>
       <c r="L135" t="n">
-        <v>311.75</v>
+        <v>312.35</v>
       </c>
       <c r="M135" t="n">
         <v>322.55</v>
@@ -5823,7 +5821,7 @@
         <v>300.57</v>
       </c>
       <c r="L136" t="n">
-        <v>295.41</v>
+        <v>294.96</v>
       </c>
       <c r="M136" t="n">
         <v>322.69</v>
@@ -5843,7 +5841,7 @@
       <c r="B137" t="inlineStr"/>
       <c r="C137" t="inlineStr"/>
       <c r="D137" t="n">
-        <v>308.87</v>
+        <v>309.58</v>
       </c>
       <c r="E137" t="n">
         <v>338.84</v>
@@ -5867,7 +5865,7 @@
         <v>326</v>
       </c>
       <c r="L137" t="n">
-        <v>322.12</v>
+        <v>322.72</v>
       </c>
       <c r="M137" t="n">
         <v>329.31</v>
@@ -5885,11 +5883,11 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>300.6</v>
+        <v>300.5</v>
       </c>
       <c r="C138" t="inlineStr"/>
       <c r="D138" t="n">
-        <v>308.47</v>
+        <v>307.91</v>
       </c>
       <c r="E138" t="n">
         <v>312.98</v>
@@ -5933,7 +5931,7 @@
         <v>308.38</v>
       </c>
       <c r="D139" t="n">
-        <v>328.06</v>
+        <v>328.54</v>
       </c>
       <c r="E139" t="n">
         <v>335.63</v>
@@ -5957,7 +5955,7 @@
         <v>315.13</v>
       </c>
       <c r="L139" t="n">
-        <v>309.85</v>
+        <v>310.25</v>
       </c>
       <c r="M139" t="n">
         <v>323.93</v>
@@ -5975,13 +5973,13 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>310.29</v>
+        <v>310.26</v>
       </c>
       <c r="C140" t="n">
         <v>311.62</v>
       </c>
       <c r="D140" t="n">
-        <v>321.64</v>
+        <v>321.47</v>
       </c>
       <c r="E140" t="n">
         <v>330.19</v>
@@ -6005,7 +6003,7 @@
         <v>318.5</v>
       </c>
       <c r="L140" t="n">
-        <v>325.58</v>
+        <v>325.44</v>
       </c>
       <c r="M140" t="n">
         <v>333.76</v>
@@ -6081,7 +6079,7 @@
         <v>324.45</v>
       </c>
       <c r="L142" t="n">
-        <v>324.25</v>
+        <v>324.96</v>
       </c>
       <c r="M142" t="n">
         <v>333.72</v>
@@ -6099,7 +6097,7 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>270.06</v>
+        <v>270</v>
       </c>
       <c r="C143" t="n">
         <v>269.62</v>
@@ -6121,7 +6119,7 @@
         <v>307.01</v>
       </c>
       <c r="L143" t="n">
-        <v>306.81</v>
+        <v>306.52</v>
       </c>
       <c r="M143" t="n">
         <v>310</v>
@@ -6165,13 +6163,13 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>287.19</v>
+        <v>287.13</v>
       </c>
       <c r="C145" t="n">
         <v>296.45</v>
       </c>
       <c r="D145" t="n">
-        <v>305.33</v>
+        <v>305</v>
       </c>
       <c r="E145" t="n">
         <v>319.19</v>
@@ -6195,7 +6193,7 @@
         <v>308.1</v>
       </c>
       <c r="L145" t="n">
-        <v>317.47</v>
+        <v>317.18</v>
       </c>
       <c r="M145" t="n">
         <v>318.16</v>
@@ -6213,13 +6211,13 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>287.46</v>
+        <v>287.25</v>
       </c>
       <c r="C146" t="n">
         <v>281.64</v>
       </c>
       <c r="D146" t="n">
-        <v>296.39</v>
+        <v>295.21</v>
       </c>
       <c r="E146" t="n">
         <v>300.43</v>
@@ -6273,7 +6271,7 @@
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
-        <v>307.77</v>
+        <v>308.4</v>
       </c>
       <c r="M147" t="n">
         <v>322.83</v>
@@ -6317,13 +6315,13 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>290.65</v>
+        <v>290.54</v>
       </c>
       <c r="C149" t="n">
         <v>291.89</v>
       </c>
       <c r="D149" t="n">
-        <v>306.97</v>
+        <v>306.37</v>
       </c>
       <c r="E149" t="n">
         <v>307.62</v>
@@ -6345,7 +6343,7 @@
         <v>298.29</v>
       </c>
       <c r="L149" t="n">
-        <v>300.66</v>
+        <v>300.14</v>
       </c>
       <c r="M149" t="n">
         <v>311.43</v>
@@ -6363,13 +6361,13 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>293.07</v>
+        <v>293.19</v>
       </c>
       <c r="C150" t="n">
         <v>310.02</v>
       </c>
       <c r="D150" t="n">
-        <v>307.52</v>
+        <v>308.16</v>
       </c>
       <c r="E150" t="n">
         <v>331.54</v>
@@ -6393,7 +6391,7 @@
         <v>315.76</v>
       </c>
       <c r="L150" t="n">
-        <v>310.22</v>
+        <v>310.77</v>
       </c>
       <c r="M150" t="n">
         <v>320.88</v>
@@ -6411,13 +6409,13 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>283.39</v>
+        <v>283.53</v>
       </c>
       <c r="C151" t="n">
         <v>301.48</v>
       </c>
       <c r="D151" t="n">
-        <v>306.77</v>
+        <v>307.59</v>
       </c>
       <c r="E151" t="n">
         <v>324.39</v>
@@ -6441,7 +6439,7 @@
         <v>299.17</v>
       </c>
       <c r="L151" t="n">
-        <v>303.68</v>
+        <v>304.39</v>
       </c>
       <c r="M151" t="n">
         <v>318.24</v>
@@ -6459,13 +6457,13 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>293.88</v>
+        <v>293.73</v>
       </c>
       <c r="C152" t="n">
         <v>286.15</v>
       </c>
       <c r="D152" t="n">
-        <v>300.38</v>
+        <v>299.53</v>
       </c>
       <c r="E152" t="inlineStr"/>
       <c r="F152" t="n">
@@ -6487,7 +6485,7 @@
         <v>289.2</v>
       </c>
       <c r="L152" t="n">
-        <v>312.15</v>
+        <v>311.43</v>
       </c>
       <c r="M152" t="n">
         <v>314.93</v>
@@ -6505,7 +6503,7 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>289.15</v>
+        <v>289.32</v>
       </c>
       <c r="C153" t="n">
         <v>301.76</v>
@@ -6531,7 +6529,7 @@
         <v>314.28</v>
       </c>
       <c r="L153" t="n">
-        <v>322.57</v>
+        <v>323.4</v>
       </c>
       <c r="M153" t="n">
         <v>330.16</v>
@@ -6549,7 +6547,7 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>282.52</v>
+        <v>282.4</v>
       </c>
       <c r="C154" t="n">
         <v>283.05</v>
@@ -6571,7 +6569,7 @@
         <v>290.52</v>
       </c>
       <c r="L154" t="n">
-        <v>298.45</v>
+        <v>297.88</v>
       </c>
       <c r="M154" t="n">
         <v>321.79</v>
@@ -6589,7 +6587,7 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>279.34</v>
+        <v>279.47</v>
       </c>
       <c r="C155" t="inlineStr"/>
       <c r="D155" t="inlineStr"/>
@@ -6609,7 +6607,7 @@
         <v>314.1</v>
       </c>
       <c r="L155" t="n">
-        <v>320.59</v>
+        <v>321.17</v>
       </c>
       <c r="M155" t="n">
         <v>336.34</v>
@@ -6627,13 +6625,13 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>286.5</v>
+        <v>286.43</v>
       </c>
       <c r="C156" t="n">
         <v>289.72</v>
       </c>
       <c r="D156" t="n">
-        <v>299.68</v>
+        <v>299.28</v>
       </c>
       <c r="E156" t="n">
         <v>305.82</v>
@@ -6655,7 +6653,7 @@
         <v>311.04</v>
       </c>
       <c r="L156" t="n">
-        <v>316.76</v>
+        <v>316.42</v>
       </c>
       <c r="M156" t="n">
         <v>314.36</v>
@@ -6673,7 +6671,7 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>287.96</v>
+        <v>287.91</v>
       </c>
       <c r="C157" t="n">
         <v>293.79</v>
@@ -6701,7 +6699,7 @@
         <v>298.09</v>
       </c>
       <c r="L157" t="n">
-        <v>311.37</v>
+        <v>311.09</v>
       </c>
       <c r="M157" t="n">
         <v>299.97</v>
@@ -6719,13 +6717,13 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>295.71</v>
+        <v>295.59</v>
       </c>
       <c r="C158" t="n">
         <v>286.45</v>
       </c>
       <c r="D158" t="n">
-        <v>300.89</v>
+        <v>300.24</v>
       </c>
       <c r="E158" t="n">
         <v>309.25</v>
@@ -6749,7 +6747,7 @@
         <v>298.98</v>
       </c>
       <c r="L158" t="n">
-        <v>307.29</v>
+        <v>306.73</v>
       </c>
       <c r="M158" t="n">
         <v>304.02</v>
@@ -6767,13 +6765,13 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>287.92</v>
+        <v>288.03</v>
       </c>
       <c r="C159" t="n">
         <v>308.01</v>
       </c>
       <c r="D159" t="n">
-        <v>292.8</v>
+        <v>293.4</v>
       </c>
       <c r="E159" t="n">
         <v>318.67</v>
@@ -6797,7 +6795,7 @@
         <v>312.68</v>
       </c>
       <c r="L159" t="n">
-        <v>317.06</v>
+        <v>317.58</v>
       </c>
       <c r="M159" t="n">
         <v>321.62</v>
@@ -6815,7 +6813,7 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>284.86</v>
+        <v>284.92</v>
       </c>
       <c r="C160" t="n">
         <v>296.5</v>
@@ -6839,7 +6837,7 @@
       </c>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
-        <v>291.02</v>
+        <v>291.27</v>
       </c>
       <c r="M160" t="n">
         <v>298.4</v>
@@ -6885,7 +6883,7 @@
       <c r="B162" t="inlineStr"/>
       <c r="C162" t="inlineStr"/>
       <c r="D162" t="n">
-        <v>287.53</v>
+        <v>286.93</v>
       </c>
       <c r="E162" t="n">
         <v>285.89</v>
@@ -6925,7 +6923,7 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>267.86</v>
+        <v>267.87</v>
       </c>
       <c r="C163" t="inlineStr"/>
       <c r="D163" t="inlineStr"/>
@@ -6973,7 +6971,7 @@
         <v>304.7</v>
       </c>
       <c r="L164" t="n">
-        <v>318.81</v>
+        <v>318.62</v>
       </c>
       <c r="M164" t="n">
         <v>304.5</v>
@@ -6993,7 +6991,7 @@
       <c r="B165" t="inlineStr"/>
       <c r="C165" t="inlineStr"/>
       <c r="D165" t="n">
-        <v>277.66</v>
+        <v>276.91</v>
       </c>
       <c r="E165" t="inlineStr"/>
       <c r="F165" t="inlineStr"/>
@@ -7013,7 +7011,7 @@
         <v>288.36</v>
       </c>
       <c r="L165" t="n">
-        <v>299.36</v>
+        <v>298.73</v>
       </c>
       <c r="M165" t="n">
         <v>318.78</v>
@@ -7057,13 +7055,13 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>278.61</v>
+        <v>278.78</v>
       </c>
       <c r="C167" t="n">
         <v>293.01</v>
       </c>
       <c r="D167" t="n">
-        <v>296.14</v>
+        <v>297.05</v>
       </c>
       <c r="E167" t="n">
         <v>312.35</v>
@@ -7101,13 +7099,13 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>278.34</v>
+        <v>278.33</v>
       </c>
       <c r="C168" t="n">
         <v>284.12</v>
       </c>
       <c r="D168" t="n">
-        <v>293.53</v>
+        <v>293.48</v>
       </c>
       <c r="E168" t="inlineStr"/>
       <c r="F168" t="n">
@@ -7127,7 +7125,7 @@
         <v>315.85</v>
       </c>
       <c r="L168" t="n">
-        <v>325.75</v>
+        <v>325.7</v>
       </c>
       <c r="M168" t="n">
         <v>324.55</v>
@@ -7145,13 +7143,13 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>277.54</v>
+        <v>277.53</v>
       </c>
       <c r="C169" t="n">
         <v>284.34</v>
       </c>
       <c r="D169" t="n">
-        <v>299.88</v>
+        <v>299.82</v>
       </c>
       <c r="E169" t="n">
         <v>301.19</v>
@@ -7173,7 +7171,7 @@
         <v>311.21</v>
       </c>
       <c r="L169" t="n">
-        <v>320.42</v>
+        <v>320.36</v>
       </c>
       <c r="M169" t="n">
         <v>324.95</v>
@@ -7249,7 +7247,7 @@
         <v>286.36</v>
       </c>
       <c r="D172" t="n">
-        <v>288.37</v>
+        <v>288.77</v>
       </c>
       <c r="E172" t="n">
         <v>304.18</v>
@@ -7267,7 +7265,7 @@
         <v>309.84</v>
       </c>
       <c r="L172" t="n">
-        <v>324.82</v>
+        <v>325.16</v>
       </c>
       <c r="M172" t="n">
         <v>323.35</v>
@@ -7289,7 +7287,7 @@
         <v>258.06</v>
       </c>
       <c r="D173" t="n">
-        <v>271.58</v>
+        <v>271.25</v>
       </c>
       <c r="E173" t="n">
         <v>282.45</v>
@@ -7307,7 +7305,7 @@
         <v>313.04</v>
       </c>
       <c r="L173" t="n">
-        <v>312.37</v>
+        <v>312.08</v>
       </c>
       <c r="M173" t="n">
         <v>317.99</v>
@@ -7325,13 +7323,13 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>270.81</v>
+        <v>270.75</v>
       </c>
       <c r="C174" t="n">
         <v>271.45</v>
       </c>
       <c r="D174" t="n">
-        <v>296.41</v>
+        <v>296.06</v>
       </c>
       <c r="E174" t="n">
         <v>295.47</v>
@@ -7351,7 +7349,7 @@
         <v>324.81</v>
       </c>
       <c r="L174" t="n">
-        <v>329.77</v>
+        <v>329.48</v>
       </c>
       <c r="M174" t="n">
         <v>332.38</v>
@@ -7391,7 +7389,7 @@
         <v>334.94</v>
       </c>
       <c r="L175" t="n">
-        <v>329.54</v>
+        <v>330.29</v>
       </c>
       <c r="M175" t="inlineStr"/>
       <c r="N175" t="inlineStr">
@@ -7439,7 +7437,7 @@
         <v>289.49</v>
       </c>
       <c r="D177" t="n">
-        <v>277.32</v>
+        <v>277.96</v>
       </c>
       <c r="E177" t="n">
         <v>301.67</v>
@@ -7473,7 +7471,7 @@
         <v>269.73</v>
       </c>
       <c r="D178" t="n">
-        <v>295.26</v>
+        <v>294.89</v>
       </c>
       <c r="E178" t="n">
         <v>308.33</v>
@@ -7493,7 +7491,7 @@
         <v>316.76</v>
       </c>
       <c r="L178" t="n">
-        <v>325</v>
+        <v>324.68</v>
       </c>
       <c r="M178" t="n">
         <v>320.29</v>
@@ -7515,7 +7513,7 @@
         <v>254.18</v>
       </c>
       <c r="D179" t="n">
-        <v>296.66</v>
+        <v>296.52</v>
       </c>
       <c r="E179" t="n">
         <v>302.26</v>
@@ -7537,7 +7535,7 @@
         <v>326.66</v>
       </c>
       <c r="L179" t="n">
-        <v>323.14</v>
+        <v>323.02</v>
       </c>
       <c r="M179" t="n">
         <v>322.15</v>
@@ -7613,7 +7611,7 @@
         <v>254.07</v>
       </c>
       <c r="D182" t="n">
-        <v>295.68</v>
+        <v>294.82</v>
       </c>
       <c r="E182" t="n">
         <v>294.66</v>
@@ -7705,13 +7703,13 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>270.2</v>
+        <v>270.13</v>
       </c>
       <c r="C185" t="n">
         <v>278.89</v>
       </c>
       <c r="D185" t="n">
-        <v>293.48</v>
+        <v>293.1</v>
       </c>
       <c r="E185" t="n">
         <v>301.64</v>
@@ -7731,7 +7729,7 @@
         <v>324.26</v>
       </c>
       <c r="L185" t="n">
-        <v>321.48</v>
+        <v>321.15</v>
       </c>
       <c r="M185" t="n">
         <v>316.49</v>
@@ -7767,7 +7765,7 @@
         <v>343.51</v>
       </c>
       <c r="L186" t="n">
-        <v>329.32</v>
+        <v>329.83</v>
       </c>
       <c r="M186" t="n">
         <v>288.61</v>
@@ -7789,7 +7787,7 @@
         <v>273.96</v>
       </c>
       <c r="D187" t="n">
-        <v>292.9</v>
+        <v>292.09</v>
       </c>
       <c r="E187" t="n">
         <v>294.06</v>
@@ -7809,7 +7807,7 @@
         <v>313.82</v>
       </c>
       <c r="L187" t="n">
-        <v>313.12</v>
+        <v>312.43</v>
       </c>
       <c r="M187" t="n">
         <v>266.86</v>
@@ -7827,7 +7825,7 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>269.25</v>
+        <v>269.05</v>
       </c>
       <c r="C188" t="n">
         <v>267.72</v>
@@ -7853,7 +7851,7 @@
         <v>315.42</v>
       </c>
       <c r="L188" t="n">
-        <v>314.79</v>
+        <v>313.82</v>
       </c>
       <c r="M188" t="n">
         <v>299.37</v>
@@ -7875,7 +7873,7 @@
         <v>306.46</v>
       </c>
       <c r="D189" t="n">
-        <v>306.74</v>
+        <v>307.84</v>
       </c>
       <c r="E189" t="inlineStr"/>
       <c r="F189" t="n">
@@ -7927,7 +7925,7 @@
         <v>328.2</v>
       </c>
       <c r="L190" t="n">
-        <v>313.74</v>
+        <v>314.55</v>
       </c>
       <c r="M190" t="n">
         <v>292.01</v>
@@ -7947,7 +7945,7 @@
       <c r="B191" t="inlineStr"/>
       <c r="C191" t="inlineStr"/>
       <c r="D191" t="n">
-        <v>303.89</v>
+        <v>303.14</v>
       </c>
       <c r="E191" t="n">
         <v>302.23</v>
@@ -7983,13 +7981,13 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>263.83</v>
+        <v>263.84</v>
       </c>
       <c r="C192" t="n">
         <v>279.55</v>
       </c>
       <c r="D192" t="n">
-        <v>299.1</v>
+        <v>299.19</v>
       </c>
       <c r="E192" t="n">
         <v>313.47</v>
@@ -8009,7 +8007,7 @@
         <v>331.85</v>
       </c>
       <c r="L192" t="n">
-        <v>330.01</v>
+        <v>330.09</v>
       </c>
       <c r="M192" t="n">
         <v>325.84</v>
@@ -8027,13 +8025,13 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>246.84</v>
+        <v>246.74</v>
       </c>
       <c r="C193" t="n">
         <v>276.52</v>
       </c>
       <c r="D193" t="n">
-        <v>297.42</v>
+        <v>296.86</v>
       </c>
       <c r="E193" t="n">
         <v>297.42</v>
@@ -8053,7 +8051,7 @@
         <v>335.25</v>
       </c>
       <c r="L193" t="n">
-        <v>348.47</v>
+        <v>347.99</v>
       </c>
       <c r="M193" t="n">
         <v>321.64</v>
@@ -8071,13 +8069,13 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>268.75</v>
+        <v>268.79</v>
       </c>
       <c r="C194" t="n">
         <v>293.57</v>
       </c>
       <c r="D194" t="n">
-        <v>306.05</v>
+        <v>306.3</v>
       </c>
       <c r="E194" t="n">
         <v>315.98</v>
@@ -8101,7 +8099,7 @@
         <v>350.07</v>
       </c>
       <c r="L194" t="n">
-        <v>347.72</v>
+        <v>347.93</v>
       </c>
       <c r="M194" t="n">
         <v>324.24</v>
@@ -8177,7 +8175,7 @@
         <v>294.72</v>
       </c>
       <c r="D197" t="n">
-        <v>301.65</v>
+        <v>302.17</v>
       </c>
       <c r="E197" t="n">
         <v>322.18</v>
@@ -8201,7 +8199,7 @@
         <v>337.67</v>
       </c>
       <c r="L197" t="n">
-        <v>323.31</v>
+        <v>323.76</v>
       </c>
       <c r="M197" t="n">
         <v>287.08</v>
@@ -8253,7 +8251,7 @@
         <v>301.8</v>
       </c>
       <c r="D199" t="n">
-        <v>309.81</v>
+        <v>310.52</v>
       </c>
       <c r="E199" t="n">
         <v>331.81</v>
@@ -8277,7 +8275,7 @@
         <v>338.55</v>
       </c>
       <c r="L199" t="n">
-        <v>334.01</v>
+        <v>334.63</v>
       </c>
       <c r="M199" t="n">
         <v>334.3</v>
@@ -8299,7 +8297,7 @@
         <v>292.41</v>
       </c>
       <c r="D200" t="n">
-        <v>302.85</v>
+        <v>303.39</v>
       </c>
       <c r="E200" t="n">
         <v>319.76</v>
@@ -8323,7 +8321,7 @@
         <v>325.57</v>
       </c>
       <c r="L200" t="n">
-        <v>240.32</v>
+        <v>240.78</v>
       </c>
       <c r="M200" t="n">
         <v>299.63</v>
@@ -8357,7 +8355,7 @@
         <v>224.97</v>
       </c>
       <c r="L201" t="n">
-        <v>226.43</v>
+        <v>225.94</v>
       </c>
       <c r="M201" t="n">
         <v>307.53</v>
@@ -8375,13 +8373,13 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>282.64</v>
+        <v>282.45</v>
       </c>
       <c r="C202" t="n">
         <v>274.84</v>
       </c>
       <c r="D202" t="n">
-        <v>292.67</v>
+        <v>291.63</v>
       </c>
       <c r="E202" t="n">
         <v>295.19</v>
@@ -8401,7 +8399,7 @@
         <v>219.44</v>
       </c>
       <c r="L202" t="n">
-        <v>223.23</v>
+        <v>222.34</v>
       </c>
       <c r="M202" t="n">
         <v>263.03</v>
@@ -8435,7 +8433,7 @@
         <v>229.56</v>
       </c>
       <c r="L203" t="n">
-        <v>226.25</v>
+        <v>225.62</v>
       </c>
       <c r="M203" t="n">
         <v>290.17</v>
@@ -8469,7 +8467,7 @@
         <v>220.15</v>
       </c>
       <c r="L204" t="n">
-        <v>223.88</v>
+        <v>223.36</v>
       </c>
       <c r="M204" t="n">
         <v>253.69</v>
@@ -8517,7 +8515,7 @@
       <c r="B206" t="inlineStr"/>
       <c r="C206" t="inlineStr"/>
       <c r="D206" t="n">
-        <v>293.69</v>
+        <v>293.05</v>
       </c>
       <c r="E206" t="inlineStr"/>
       <c r="F206" t="inlineStr"/>
@@ -8543,13 +8541,13 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>275.65</v>
+        <v>275.57</v>
       </c>
       <c r="C207" t="n">
         <v>276.21</v>
       </c>
       <c r="D207" t="n">
-        <v>296.18</v>
+        <v>295.76</v>
       </c>
       <c r="E207" t="inlineStr"/>
       <c r="F207" t="inlineStr"/>
@@ -8573,13 +8571,13 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>293.15</v>
+        <v>292.98</v>
       </c>
       <c r="C208" t="n">
         <v>287.82</v>
       </c>
       <c r="D208" t="n">
-        <v>325.4</v>
+        <v>324.49</v>
       </c>
       <c r="E208" t="n">
         <v>330.36</v>
@@ -8717,7 +8715,7 @@
       </c>
       <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
-        <v>217.11</v>
+        <v>216.76</v>
       </c>
       <c r="M212" t="inlineStr"/>
       <c r="N212" t="inlineStr">
@@ -8777,7 +8775,7 @@
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
-        <v>347.08</v>
+        <v>347.03</v>
       </c>
       <c r="M214" t="n">
         <v>349.55</v>
@@ -8795,13 +8793,13 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>323.69</v>
+        <v>323.77</v>
       </c>
       <c r="C215" t="n">
         <v>304.92</v>
       </c>
       <c r="D215" t="n">
-        <v>272.39</v>
+        <v>272.85</v>
       </c>
       <c r="E215" t="inlineStr"/>
       <c r="F215" t="n">
@@ -8817,7 +8815,7 @@
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
-        <v>335.32</v>
+        <v>335.72</v>
       </c>
       <c r="M215" t="n">
         <v>348.58</v>
@@ -8835,13 +8833,13 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>336.81</v>
+        <v>336.68</v>
       </c>
       <c r="C216" t="n">
         <v>358.52</v>
       </c>
       <c r="D216" t="n">
-        <v>239.71</v>
+        <v>238.98</v>
       </c>
       <c r="E216" t="inlineStr"/>
       <c r="F216" t="n">
@@ -8857,7 +8855,7 @@
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
-        <v>327.07</v>
+        <v>326.44</v>
       </c>
       <c r="M216" t="n">
         <v>339.07</v>
@@ -8875,13 +8873,13 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>341.29</v>
+        <v>341.46</v>
       </c>
       <c r="C217" t="n">
         <v>360.62</v>
       </c>
       <c r="D217" t="n">
-        <v>275.49</v>
+        <v>276.4</v>
       </c>
       <c r="E217" t="inlineStr"/>
       <c r="F217" t="n">
@@ -8897,7 +8895,7 @@
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
-        <v>340.65</v>
+        <v>341.43</v>
       </c>
       <c r="M217" t="n">
         <v>354.12</v>
@@ -8951,7 +8949,7 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>325.08</v>
+        <v>325.09</v>
       </c>
       <c r="C219" t="n">
         <v>347.56</v>
@@ -8977,7 +8975,7 @@
         <v>324.37</v>
       </c>
       <c r="L219" t="n">
-        <v>323.52</v>
+        <v>323.57</v>
       </c>
       <c r="M219" t="n">
         <v>330.68</v>
@@ -8995,7 +8993,7 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>345.05</v>
+        <v>345.04</v>
       </c>
       <c r="C220" t="n">
         <v>353.49</v>
@@ -9021,7 +9019,7 @@
         <v>318.25</v>
       </c>
       <c r="L220" t="n">
-        <v>327.73</v>
+        <v>327.71</v>
       </c>
       <c r="M220" t="n">
         <v>332.01</v>
@@ -9039,7 +9037,7 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>308.95</v>
+        <v>309.08</v>
       </c>
       <c r="C221" t="inlineStr"/>
       <c r="D221" t="inlineStr"/>
@@ -9065,7 +9063,7 @@
         <v>330.73</v>
       </c>
       <c r="L221" t="n">
-        <v>324.65</v>
+        <v>325.28</v>
       </c>
       <c r="M221" t="n">
         <v>330.88</v>
@@ -9083,11 +9081,11 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>333.46</v>
+        <v>333.31</v>
       </c>
       <c r="C222" t="inlineStr"/>
       <c r="D222" t="n">
-        <v>240.69</v>
+        <v>239.83</v>
       </c>
       <c r="E222" t="n">
         <v>365.33</v>
@@ -9123,7 +9121,7 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>352.46</v>
+        <v>352.31</v>
       </c>
       <c r="C223" t="n">
         <v>330.74</v>
@@ -9145,7 +9143,7 @@
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
-        <v>309.05</v>
+        <v>308.37</v>
       </c>
       <c r="M223" t="n">
         <v>363.2</v>
@@ -9173,7 +9171,7 @@
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
-        <v>333.36</v>
+        <v>332.59</v>
       </c>
       <c r="M224" t="n">
         <v>350.99</v>
@@ -9237,13 +9235,13 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>318.82</v>
+        <v>318.76</v>
       </c>
       <c r="C226" t="n">
         <v>287.79</v>
       </c>
       <c r="D226" t="n">
-        <v>231.26</v>
+        <v>230.95</v>
       </c>
       <c r="E226" t="inlineStr"/>
       <c r="F226" t="n">
@@ -9265,7 +9263,7 @@
         <v>335.3</v>
       </c>
       <c r="L226" t="n">
-        <v>340.34</v>
+        <v>340.08</v>
       </c>
       <c r="M226" t="n">
         <v>345.98</v>
@@ -9283,7 +9281,7 @@
         </is>
       </c>
       <c r="B227" t="n">
-        <v>283.94</v>
+        <v>284.05</v>
       </c>
       <c r="C227" t="n">
         <v>298.82</v>
@@ -9337,13 +9335,13 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>280.17</v>
+        <v>280.11</v>
       </c>
       <c r="C229" t="n">
         <v>269.24</v>
       </c>
       <c r="D229" t="n">
-        <v>228.45</v>
+        <v>228.1</v>
       </c>
       <c r="E229" t="inlineStr"/>
       <c r="F229" t="inlineStr"/>
@@ -9359,7 +9357,7 @@
         <v>369.92</v>
       </c>
       <c r="L229" t="n">
-        <v>358.01</v>
+        <v>357.72</v>
       </c>
       <c r="M229" t="n">
         <v>367.69</v>
@@ -9377,7 +9375,7 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>277.49</v>
+        <v>277.36</v>
       </c>
       <c r="C230" t="n">
         <v>256.36</v>
@@ -9405,7 +9403,7 @@
         <v>355.47</v>
       </c>
       <c r="L230" t="n">
-        <v>350.37</v>
+        <v>349.74</v>
       </c>
       <c r="M230" t="n">
         <v>354.41</v>
@@ -9443,7 +9441,7 @@
         <v>371.25</v>
       </c>
       <c r="L231" t="n">
-        <v>365.68</v>
+        <v>366.11</v>
       </c>
       <c r="M231" t="n">
         <v>362.07</v>
@@ -9461,13 +9459,13 @@
         </is>
       </c>
       <c r="B232" t="n">
-        <v>282.77</v>
+        <v>282.9</v>
       </c>
       <c r="C232" t="n">
         <v>222.71</v>
       </c>
       <c r="D232" t="n">
-        <v>228.49</v>
+        <v>229.2</v>
       </c>
       <c r="E232" t="inlineStr"/>
       <c r="F232" t="n">
@@ -9489,7 +9487,7 @@
         <v>375.05</v>
       </c>
       <c r="L232" t="n">
-        <v>366.05</v>
+        <v>366.67</v>
       </c>
       <c r="M232" t="n">
         <v>370.66</v>
@@ -9509,7 +9507,7 @@
       <c r="B233" t="inlineStr"/>
       <c r="C233" t="inlineStr"/>
       <c r="D233" t="n">
-        <v>312.49</v>
+        <v>311.45</v>
       </c>
       <c r="E233" t="n">
         <v>332.3</v>
@@ -9547,11 +9545,11 @@
         </is>
       </c>
       <c r="B234" t="n">
-        <v>259.81</v>
+        <v>259.69</v>
       </c>
       <c r="C234" t="inlineStr"/>
       <c r="D234" t="n">
-        <v>314.11</v>
+        <v>313.44</v>
       </c>
       <c r="E234" t="n">
         <v>316.04</v>
@@ -9575,7 +9573,7 @@
         <v>350.28</v>
       </c>
       <c r="L234" t="n">
-        <v>358.15</v>
+        <v>357.58</v>
       </c>
       <c r="M234" t="n">
         <v>356.7</v>
@@ -9597,7 +9595,7 @@
         <v>206.84</v>
       </c>
       <c r="D235" t="n">
-        <v>303.2</v>
+        <v>303.3</v>
       </c>
       <c r="E235" t="n">
         <v>330.69</v>
@@ -9621,7 +9619,7 @@
         <v>349.08</v>
       </c>
       <c r="L235" t="n">
-        <v>345.03</v>
+        <v>345.12</v>
       </c>
       <c r="M235" t="n">
         <v>350.32</v>
@@ -9643,7 +9641,7 @@
         <v>304.11</v>
       </c>
       <c r="D236" t="n">
-        <v>312.72</v>
+        <v>312.35</v>
       </c>
       <c r="E236" t="inlineStr"/>
       <c r="F236" t="inlineStr"/>
@@ -9663,7 +9661,7 @@
         <v>351.84</v>
       </c>
       <c r="L236" t="n">
-        <v>349.84</v>
+        <v>349.52</v>
       </c>
       <c r="M236" t="n">
         <v>360.39</v>
@@ -9685,7 +9683,7 @@
         <v>324.71</v>
       </c>
       <c r="D237" t="n">
-        <v>339.95</v>
+        <v>339.82</v>
       </c>
       <c r="E237" t="n">
         <v>342.55</v>
@@ -9709,7 +9707,7 @@
         <v>348.41</v>
       </c>
       <c r="L237" t="n">
-        <v>348.6</v>
+        <v>348.49</v>
       </c>
       <c r="M237" t="n">
         <v>355.36</v>
@@ -9731,7 +9729,7 @@
         <v>325.87</v>
       </c>
       <c r="D238" t="n">
-        <v>331.66</v>
+        <v>331.97</v>
       </c>
       <c r="E238" t="n">
         <v>348.68</v>
@@ -9755,7 +9753,7 @@
         <v>354.82</v>
       </c>
       <c r="L238" t="n">
-        <v>345.62</v>
+        <v>345.88</v>
       </c>
       <c r="M238" t="n">
         <v>354.77</v>
@@ -9777,7 +9775,7 @@
         <v>323.45</v>
       </c>
       <c r="D239" t="n">
-        <v>330.8</v>
+        <v>330.35</v>
       </c>
       <c r="E239" t="n">
         <v>340.86</v>
@@ -9801,7 +9799,7 @@
         <v>345.7</v>
       </c>
       <c r="L239" t="n">
-        <v>348.77</v>
+        <v>348.39</v>
       </c>
       <c r="M239" t="n">
         <v>348.58</v>
@@ -9823,7 +9821,7 @@
         <v>330.49</v>
       </c>
       <c r="D240" t="n">
-        <v>351.66</v>
+        <v>351.64</v>
       </c>
       <c r="E240" t="n">
         <v>362.42</v>
@@ -9847,7 +9845,7 @@
         <v>364.94</v>
       </c>
       <c r="L240" t="n">
-        <v>357.01</v>
+        <v>357</v>
       </c>
       <c r="M240" t="n">
         <v>356.02</v>
@@ -9869,7 +9867,7 @@
         <v>345.31</v>
       </c>
       <c r="D241" t="n">
-        <v>343.02</v>
+        <v>343.64</v>
       </c>
       <c r="E241" t="n">
         <v>363.77</v>
@@ -9893,7 +9891,7 @@
         <v>367.09</v>
       </c>
       <c r="L241" t="n">
-        <v>359.97</v>
+        <v>360.49</v>
       </c>
       <c r="M241" t="n">
         <v>363.7</v>
@@ -9915,7 +9913,7 @@
         <v>324.73</v>
       </c>
       <c r="D242" t="n">
-        <v>346.87</v>
+        <v>346.23</v>
       </c>
       <c r="E242" t="n">
         <v>350.18</v>
@@ -9939,7 +9937,7 @@
         <v>350.66</v>
       </c>
       <c r="L242" t="n">
-        <v>353.25</v>
+        <v>352.7</v>
       </c>
       <c r="M242" t="n">
         <v>355.67</v>
@@ -9959,7 +9957,7 @@
       <c r="B243" t="inlineStr"/>
       <c r="C243" t="inlineStr"/>
       <c r="D243" t="n">
-        <v>344.52</v>
+        <v>345.02</v>
       </c>
       <c r="E243" t="n">
         <v>358.01</v>
@@ -9983,7 +9981,7 @@
         <v>364.16</v>
       </c>
       <c r="L243" t="n">
-        <v>359.14</v>
+        <v>359.57</v>
       </c>
       <c r="M243" t="n">
         <v>359.74</v>
@@ -10005,7 +10003,7 @@
         <v>324.18</v>
       </c>
       <c r="D244" t="n">
-        <v>343.75</v>
+        <v>342.73</v>
       </c>
       <c r="E244" t="n">
         <v>341.5</v>
@@ -10029,7 +10027,7 @@
         <v>337.34</v>
       </c>
       <c r="L244" t="n">
-        <v>343.29</v>
+        <v>342.43</v>
       </c>
       <c r="M244" t="n">
         <v>347.53</v>
@@ -10049,7 +10047,7 @@
       <c r="B245" t="inlineStr"/>
       <c r="C245" t="inlineStr"/>
       <c r="D245" t="n">
-        <v>331.33</v>
+        <v>331.04</v>
       </c>
       <c r="E245" t="n">
         <v>346.93</v>
@@ -10069,7 +10067,7 @@
         <v>349.83</v>
       </c>
       <c r="L245" t="n">
-        <v>342.17</v>
+        <v>341.92</v>
       </c>
       <c r="M245" t="n">
         <v>343.54</v>
@@ -10091,7 +10089,7 @@
         <v>328.46</v>
       </c>
       <c r="D246" t="n">
-        <v>347.85</v>
+        <v>348.14</v>
       </c>
       <c r="E246" t="n">
         <v>363.19</v>
@@ -10115,7 +10113,7 @@
         <v>359.28</v>
       </c>
       <c r="L246" t="n">
-        <v>355.05</v>
+        <v>355.29</v>
       </c>
       <c r="M246" t="n">
         <v>357.19</v>
@@ -10173,7 +10171,7 @@
         <v>312.7</v>
       </c>
       <c r="D248" t="n">
-        <v>336.4</v>
+        <v>335.48</v>
       </c>
       <c r="E248" t="n">
         <v>332.69</v>
@@ -10197,7 +10195,7 @@
         <v>345.34</v>
       </c>
       <c r="L248" t="n">
-        <v>348.42</v>
+        <v>347.63</v>
       </c>
       <c r="M248" t="n">
         <v>350.31</v>
@@ -10217,7 +10215,7 @@
       <c r="B249" t="inlineStr"/>
       <c r="C249" t="inlineStr"/>
       <c r="D249" t="n">
-        <v>325.14</v>
+        <v>324.99</v>
       </c>
       <c r="E249" t="n">
         <v>349.93</v>
@@ -10241,7 +10239,7 @@
         <v>344.02</v>
       </c>
       <c r="L249" t="n">
-        <v>345.88</v>
+        <v>345.74</v>
       </c>
       <c r="M249" t="n">
         <v>339.95</v>
@@ -10263,7 +10261,7 @@
         <v>310.94</v>
       </c>
       <c r="D250" t="n">
-        <v>334.68</v>
+        <v>334.1</v>
       </c>
       <c r="E250" t="n">
         <v>343.02</v>
@@ -10283,7 +10281,7 @@
         <v>355.92</v>
       </c>
       <c r="L250" t="n">
-        <v>356.34</v>
+        <v>355.85</v>
       </c>
       <c r="M250" t="n">
         <v>360.92</v>
@@ -10303,7 +10301,7 @@
       <c r="B251" t="inlineStr"/>
       <c r="C251" t="inlineStr"/>
       <c r="D251" t="n">
-        <v>303.3</v>
+        <v>303.63</v>
       </c>
       <c r="E251" t="n">
         <v>338</v>
@@ -10325,7 +10323,7 @@
         <v>341.07</v>
       </c>
       <c r="L251" t="n">
-        <v>344.75</v>
+        <v>345.04</v>
       </c>
       <c r="M251" t="inlineStr"/>
       <c r="N251" t="inlineStr">
@@ -10341,13 +10339,13 @@
         </is>
       </c>
       <c r="B252" t="n">
-        <v>312.7</v>
+        <v>312.57</v>
       </c>
       <c r="C252" t="n">
         <v>308.08</v>
       </c>
       <c r="D252" t="n">
-        <v>329.31</v>
+        <v>328.58</v>
       </c>
       <c r="E252" t="n">
         <v>333.54</v>
@@ -10371,7 +10369,7 @@
         <v>350.51</v>
       </c>
       <c r="L252" t="n">
-        <v>361.26</v>
+        <v>360.63</v>
       </c>
       <c r="M252" t="n">
         <v>362.36</v>
@@ -10389,11 +10387,11 @@
         </is>
       </c>
       <c r="B253" t="n">
-        <v>311.86</v>
+        <v>311.87</v>
       </c>
       <c r="C253" t="inlineStr"/>
       <c r="D253" t="n">
-        <v>331.05</v>
+        <v>331.07</v>
       </c>
       <c r="E253" t="n">
         <v>351.63</v>
@@ -10417,7 +10415,7 @@
         <v>359.29</v>
       </c>
       <c r="L253" t="n">
-        <v>355.73</v>
+        <v>355.75</v>
       </c>
       <c r="M253" t="n">
         <v>350.44</v>
@@ -10435,13 +10433,13 @@
         </is>
       </c>
       <c r="B254" t="n">
-        <v>319.68</v>
+        <v>319.62</v>
       </c>
       <c r="C254" t="n">
         <v>308.52</v>
       </c>
       <c r="D254" t="n">
-        <v>336.71</v>
+        <v>336.42</v>
       </c>
       <c r="E254" t="n">
         <v>351.01</v>
@@ -10465,7 +10463,7 @@
         <v>360.31</v>
       </c>
       <c r="L254" t="n">
-        <v>355.53</v>
+        <v>355.28</v>
       </c>
       <c r="M254" t="n">
         <v>354.2</v>
@@ -10485,7 +10483,7 @@
       <c r="B255" t="inlineStr"/>
       <c r="C255" t="inlineStr"/>
       <c r="D255" t="n">
-        <v>321.17</v>
+        <v>321.15</v>
       </c>
       <c r="E255" t="n">
         <v>332.39</v>
@@ -10509,7 +10507,7 @@
         <v>347.44</v>
       </c>
       <c r="L255" t="n">
-        <v>350.94</v>
+        <v>350.92</v>
       </c>
       <c r="M255" t="n">
         <v>352.76</v>
@@ -10529,7 +10527,7 @@
       <c r="B256" t="inlineStr"/>
       <c r="C256" t="inlineStr"/>
       <c r="D256" t="n">
-        <v>330.56</v>
+        <v>330.91</v>
       </c>
       <c r="E256" t="n">
         <v>341.66</v>
@@ -10553,7 +10551,7 @@
         <v>351.18</v>
       </c>
       <c r="L256" t="n">
-        <v>351.81</v>
+        <v>352.1</v>
       </c>
       <c r="M256" t="n">
         <v>344.56</v>
@@ -10597,13 +10595,13 @@
         </is>
       </c>
       <c r="B258" t="n">
-        <v>307.34</v>
+        <v>307.2</v>
       </c>
       <c r="C258" t="n">
         <v>306.14</v>
       </c>
       <c r="D258" t="n">
-        <v>334.05</v>
+        <v>333.26</v>
       </c>
       <c r="E258" t="n">
         <v>335.22</v>
@@ -10627,7 +10625,7 @@
         <v>333.31</v>
       </c>
       <c r="L258" t="n">
-        <v>324.93</v>
+        <v>324.26</v>
       </c>
       <c r="M258" t="n">
         <v>314.89</v>
@@ -10645,11 +10643,11 @@
         </is>
       </c>
       <c r="B259" t="n">
-        <v>306.2</v>
+        <v>306.35</v>
       </c>
       <c r="C259" t="inlineStr"/>
       <c r="D259" t="n">
-        <v>340.38</v>
+        <v>341.24</v>
       </c>
       <c r="E259" t="n">
         <v>356.73</v>
@@ -10681,11 +10679,11 @@
         </is>
       </c>
       <c r="B260" t="n">
-        <v>299.55</v>
+        <v>299.42</v>
       </c>
       <c r="C260" t="inlineStr"/>
       <c r="D260" t="n">
-        <v>324.34</v>
+        <v>323.63</v>
       </c>
       <c r="E260" t="n">
         <v>325.28</v>
@@ -10709,7 +10707,7 @@
         <v>329.34</v>
       </c>
       <c r="L260" t="n">
-        <v>324.33</v>
+        <v>323.71</v>
       </c>
       <c r="M260" t="n">
         <v>305.74</v>
@@ -10755,7 +10753,7 @@
       <c r="B262" t="inlineStr"/>
       <c r="C262" t="inlineStr"/>
       <c r="D262" t="n">
-        <v>337.99</v>
+        <v>338.58</v>
       </c>
       <c r="E262" t="n">
         <v>358.28</v>
@@ -10779,7 +10777,7 @@
         <v>331.2</v>
       </c>
       <c r="L262" t="n">
-        <v>330.28</v>
+        <v>330.79</v>
       </c>
       <c r="M262" t="n">
         <v>288.5</v>
@@ -10797,11 +10795,11 @@
         </is>
       </c>
       <c r="B263" t="n">
-        <v>321.03</v>
+        <v>321.21</v>
       </c>
       <c r="C263" t="inlineStr"/>
       <c r="D263" t="n">
-        <v>344.64</v>
+        <v>345.66</v>
       </c>
       <c r="E263" t="n">
         <v>360.89</v>
@@ -10833,13 +10831,13 @@
         </is>
       </c>
       <c r="B264" t="n">
-        <v>319.41</v>
+        <v>319.56</v>
       </c>
       <c r="C264" t="n">
         <v>322.12</v>
       </c>
       <c r="D264" t="n">
-        <v>345.45</v>
+        <v>346.28</v>
       </c>
       <c r="E264" t="n">
         <v>363.29</v>
@@ -10859,7 +10857,7 @@
         <v>351.65</v>
       </c>
       <c r="L264" t="n">
-        <v>355.16</v>
+        <v>355.87</v>
       </c>
       <c r="M264" t="n">
         <v>368.3</v>
@@ -10877,13 +10875,13 @@
         </is>
       </c>
       <c r="B265" t="n">
-        <v>318.74</v>
+        <v>318.65</v>
       </c>
       <c r="C265" t="n">
         <v>320.51</v>
       </c>
       <c r="D265" t="n">
-        <v>334.96</v>
+        <v>334.44</v>
       </c>
       <c r="E265" t="n">
         <v>333.69</v>
@@ -10907,7 +10905,7 @@
         <v>361.82</v>
       </c>
       <c r="L265" t="n">
-        <v>364.06</v>
+        <v>363.62</v>
       </c>
       <c r="M265" t="n">
         <v>373.08</v>
@@ -10925,13 +10923,13 @@
         </is>
       </c>
       <c r="B266" t="n">
-        <v>324.34</v>
+        <v>324.21</v>
       </c>
       <c r="C266" t="n">
         <v>322.49</v>
       </c>
       <c r="D266" t="n">
-        <v>337.86</v>
+        <v>337.13</v>
       </c>
       <c r="E266" t="n">
         <v>339.68</v>
@@ -10955,7 +10953,7 @@
         <v>332.33</v>
       </c>
       <c r="L266" t="n">
-        <v>342.79</v>
+        <v>342.16</v>
       </c>
       <c r="M266" t="n">
         <v>340.3</v>
@@ -11035,7 +11033,7 @@
         <v>341.83</v>
       </c>
       <c r="L268" t="n">
-        <v>339.17</v>
+        <v>339.51</v>
       </c>
       <c r="M268" t="n">
         <v>326.84</v>
@@ -11053,13 +11051,13 @@
         </is>
       </c>
       <c r="B269" t="n">
-        <v>306.06</v>
+        <v>306.09</v>
       </c>
       <c r="C269" t="n">
         <v>319.38</v>
       </c>
       <c r="D269" t="n">
-        <v>332.97</v>
+        <v>333.14</v>
       </c>
       <c r="E269" t="n">
         <v>339.73</v>
@@ -11093,13 +11091,13 @@
         </is>
       </c>
       <c r="B270" t="n">
-        <v>306.89</v>
+        <v>306.75</v>
       </c>
       <c r="C270" t="n">
         <v>300.01</v>
       </c>
       <c r="D270" t="n">
-        <v>312.7</v>
+        <v>311.95</v>
       </c>
       <c r="E270" t="n">
         <v>316.42</v>
@@ -11119,7 +11117,7 @@
         <v>387.19</v>
       </c>
       <c r="L270" t="n">
-        <v>403.57</v>
+        <v>402.92</v>
       </c>
       <c r="M270" t="n">
         <v>288.03</v>
@@ -11137,13 +11135,13 @@
         </is>
       </c>
       <c r="B271" t="n">
-        <v>304.31</v>
+        <v>304.17</v>
       </c>
       <c r="C271" t="n">
         <v>299.81</v>
       </c>
       <c r="D271" t="n">
-        <v>323.44</v>
+        <v>322.67</v>
       </c>
       <c r="E271" t="n">
         <v>319.22</v>
@@ -11163,7 +11161,7 @@
         <v>377.67</v>
       </c>
       <c r="L271" t="n">
-        <v>379.13</v>
+        <v>378.47</v>
       </c>
       <c r="M271" t="inlineStr"/>
       <c r="N271" t="inlineStr">
@@ -14224,7 +14222,7 @@
         <v>0.2</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.083675643419414</v>
+        <v>-1.08493447171468</v>
       </c>
       <c r="J2" t="n">
         <v>270</v>
@@ -14233,19 +14231,19 @@
         <v>136</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1202703467549545</v>
+        <v>0.1204398912727914</v>
       </c>
       <c r="M2" t="n">
-        <v>18.00675401948879</v>
+        <v>18.00840452724015</v>
       </c>
       <c r="N2" t="n">
-        <v>494.2218960600492</v>
+        <v>494.5780933687307</v>
       </c>
       <c r="O2" t="n">
-        <v>22.23110199832768</v>
+        <v>22.23911179361106</v>
       </c>
       <c r="P2" t="n">
-        <v>325.3945093931674</v>
+        <v>325.3958237514896</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -14388,28 +14386,28 @@
         <v>0.2</v>
       </c>
       <c r="I4" t="n">
-        <v>-1.027526426620931</v>
+        <v>-1.055562607060925</v>
       </c>
       <c r="J4" t="n">
         <v>270</v>
       </c>
       <c r="K4" t="n">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L4" t="n">
-        <v>0.06879866703617843</v>
+        <v>0.06940068329854221</v>
       </c>
       <c r="M4" t="n">
-        <v>21.56939218663232</v>
+        <v>21.75914009340543</v>
       </c>
       <c r="N4" t="n">
-        <v>803.8827851965876</v>
+        <v>817.986771801505</v>
       </c>
       <c r="O4" t="n">
-        <v>28.35282675848367</v>
+        <v>28.60046803465819</v>
       </c>
       <c r="P4" t="n">
-        <v>335.395605585291</v>
+        <v>335.860206723561</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -15044,28 +15042,28 @@
         <v>0.1599</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.9382924468808829</v>
+        <v>-0.9421759638589761</v>
       </c>
       <c r="J12" t="n">
         <v>270</v>
       </c>
       <c r="K12" t="n">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L12" t="n">
-        <v>0.035514149517473</v>
+        <v>0.03574563502249239</v>
       </c>
       <c r="M12" t="n">
-        <v>24.86753221255613</v>
+        <v>24.7901153911227</v>
       </c>
       <c r="N12" t="n">
-        <v>1272.422935293422</v>
+        <v>1269.479342663466</v>
       </c>
       <c r="O12" t="n">
-        <v>35.67103776586016</v>
+        <v>35.62975361496998</v>
       </c>
       <c r="P12" t="n">
-        <v>347.4562902102404</v>
+        <v>347.4509201635732</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -15305,7 +15303,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-42.77651260145008,173.37618551066103</t>
+          <t>-42.77651293293276,173.376186238502</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -15315,7 +15313,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-42.77778333231973,173.37556801833864</t>
+          <t>-42.77778513180707,173.37557196954754</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -15355,7 +15353,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>-42.78265874851109,173.37339429738807</t>
+          <t>-42.78265937380346,173.37339824149677</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -15377,7 +15375,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>-42.776605747899,173.3763900342708</t>
+          <t>-42.77660508493625,173.3763885785846</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -15387,7 +15385,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-42.7777832849648,173.37556791435946</t>
+          <t>-42.77777973334463,173.3755601159215</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -15427,7 +15425,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>-42.782616171465236,173.37312573962652</t>
+          <t>-42.78261493981009,173.37311797093832</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -15449,7 +15447,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>-42.776538504439635,173.37624238625523</t>
+          <t>-42.776538883276544,173.37624321807417</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -15459,7 +15457,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>-42.777683697331504,173.3753492464961</t>
+          <t>-42.777685970377775,173.3753542374809</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -15475,7 +15473,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>-42.7826348925583,173.3732438237243</t>
+          <t>-42.78263565049471,173.3732486044585</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -15497,7 +15495,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-42.77654934864433,173.37626619707564</t>
+          <t>-42.77655024838161,173.37626817264626</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -15507,7 +15505,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-42.77774094961732,173.37547495703683</t>
+          <t>-42.77774592189363,173.37548587483664</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -15523,7 +15521,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>-42.782618009472685,173.3731373329002</t>
+          <t>-42.7826197337879,173.3731482090648</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -15559,7 +15557,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>-42.782586441057425,173.37293821553075</t>
+          <t>-42.78258714216046,173.37294263770303</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -15581,7 +15579,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>-42.77648006877012,173.37611407830897</t>
+          <t>-42.77647987935116,173.37611366240031</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -15591,7 +15589,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-42.777652963830214,173.37528176425812</t>
+          <t>-42.77765187466073,173.37527937274706</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -15623,7 +15621,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>-42.78260684877011,173.37306693664047</t>
+          <t>-42.78260646979812,173.37306454627557</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -15675,7 +15673,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>-42.78259976198568,173.3730222368213</t>
+          <t>-42.78259841663158,173.3730137510279</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -15697,7 +15695,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>-42.77638043419791,173.37589531069622</t>
+          <t>-42.776380860392315,173.37589624648777</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -15707,7 +15705,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>-42.77753964257607,173.37503294357683</t>
+          <t>-42.77754191563626,173.37503793453857</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -15731,7 +15729,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>-42.78262820376073,173.3732016337501</t>
+          <t>-42.782628999595815,173.37320665351993</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -15753,7 +15751,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>-42.77654612853166,173.37625912661284</t>
+          <t>-42.77654603382247,173.37625891865804</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -15791,7 +15789,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>-42.7826478532435,173.37332557429474</t>
+          <t>-42.782647644811895,173.37332425959232</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -15813,7 +15811,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>-42.77643612353557,173.37601758756463</t>
+          <t>-42.77643541321321,173.37601602790934</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -15823,7 +15821,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>-42.77769212654363,173.37536775473328</t>
+          <t>-42.77768838548918,173.37535954040268</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -15863,7 +15861,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>-42.782654674633264,173.3733686009243</t>
+          <t>-42.78265338614978,173.37336047367134</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -15885,7 +15883,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>-42.77652372979462,173.3762099453255</t>
+          <t>-42.776524108631776,173.37621077714405</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -15895,7 +15893,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>-42.777759749551734,173.37551623672715</t>
+          <t>-42.77776202259065,173.37552122772414</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -15935,7 +15933,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>-42.782568667091034,173.37282610751996</t>
+          <t>-42.78256942504495,173.37283088824407</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -15957,7 +15955,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>-42.77647580684363,173.37610472036445</t>
+          <t>-42.77647628039106,173.376105760136</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -15995,7 +15993,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>-42.78262977648224,173.37321155377157</t>
+          <t>-42.78263070495597,173.37321741017</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -16019,7 +16017,7 @@
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>-42.77775870774216,173.37551394918697</t>
+          <t>-42.777761738460796,173.3755206038495</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -16059,7 +16057,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>-42.78265929801046,173.373397763423</t>
+          <t>-42.78266034016412,173.37340433693763</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -16085,11 +16083,7 @@
           <t>-42.77704684268708,173.37565471803552</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>-42.777569429118294,173.37509834600004</t>
-        </is>
-      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
@@ -16123,7 +16117,7 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>-42.78255443646932,173.37273634944614</t>
+          <t>-42.782554701754535,173.37273802269883</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -16145,7 +16139,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>-42.77640936804542,173.3759588405725</t>
+          <t>-42.77640974688444,173.37595967238798</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -16183,7 +16177,7 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>-42.782531849239156,173.37259388398505</t>
+          <t>-42.782532607202775,173.37259866470356</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -16235,7 +16229,7 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>-42.78250545303106,173.37242739553483</t>
+          <t>-42.78250630574796,173.37243277383863</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -16285,7 +16279,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>-42.77635940859733,173.37584914499664</t>
+          <t>-42.776360024212025,173.3758504966946</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -16293,11 +16287,7 @@
           <t>-42.776989069511,173.37552786512674</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>-42.77752387321492,173.37499831878986</t>
-        </is>
-      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -16315,7 +16305,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>-42.78257268424446,173.37285144535906</t>
+          <t>-42.78257387802009,173.37285897500055</t>
         </is>
       </c>
       <c r="M20" t="inlineStr"/>
@@ -16333,7 +16323,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>-42.776287476276536,173.37569120447168</t>
+          <t>-42.776287855117516,173.37569203628385</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -16361,7 +16351,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>-42.776335920516786,173.37579757254022</t>
+          <t>-42.776335115481345,173.37579580493656</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -16371,7 +16361,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>-42.77748234244435,173.37490712987022</t>
+          <t>-42.777477796312226,173.37489714796624</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -16411,7 +16401,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>-42.78256508575614,173.3728035186001</t>
+          <t>-42.782563512999175,173.37279359859906</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -16471,7 +16461,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>-42.7825356201062,173.37261766806077</t>
+          <t>-42.78253436946745,173.37260977987455</t>
         </is>
       </c>
       <c r="M23" t="inlineStr"/>
@@ -16489,7 +16479,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>-42.776400417972,173.3759391889351</t>
+          <t>-42.776399612938775,173.37593742132776</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -16499,7 +16489,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>-42.77749796976687,173.37494144267637</t>
+          <t>-42.777493423637765,173.37493146076736</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -16539,7 +16529,7 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>-42.78254681898371,173.37268830319698</t>
+          <t>-42.78254524621675,173.37267838320173</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -16593,7 +16583,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>-42.776409604819804,173.3759593604572</t>
+          <t>-42.77640903656128,173.375958112734</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -16603,7 +16593,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>-42.77749181355014,173.37492792550825</t>
+          <t>-42.777488546019086,173.3749207510124</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -16649,7 +16639,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>-42.77634733307497,173.37582263092648</t>
+          <t>-42.77634828017499,173.37582471046102</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -16689,7 +16679,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>-42.77631427926052,173.37575005521055</t>
+          <t>-42.77631494223146,173.3757515108832</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -16733,7 +16723,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>-42.776396013966384,173.37592951908383</t>
+          <t>-42.776396487515406,173.3759305588527</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -16743,7 +16733,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>-42.777584724895576,173.37513193105247</t>
+          <t>-42.77758718737272,173.37513733793548</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -16775,7 +16765,7 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>-42.78257353694139,173.37285682367437</t>
+          <t>-42.78257438963807,173.37286220198985</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
@@ -16875,7 +16865,7 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>-42.7825727221421,173.3728516843953</t>
+          <t>-42.7825745791262,173.37286339717107</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
@@ -16897,7 +16887,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>-42.77635315773948,173.3758354200649</t>
+          <t>-42.77635344186942,173.37583604392537</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -16943,7 +16933,7 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>-42.78255269316594,173.3727253537861</t>
+          <t>-42.78255324268561,173.3727288198093</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
@@ -16995,7 +16985,7 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>-42.78255409538831,173.37273419812132</t>
+          <t>-42.78255419013304,173.37273479571155</t>
         </is>
       </c>
       <c r="M33" t="inlineStr"/>
@@ -17013,7 +17003,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>-42.7763568514284,173.3758435302515</t>
+          <t>-42.776356188458635,173.3758420745769</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -17023,7 +17013,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>-42.77757279134883,173.37510572847142</t>
+          <t>-42.77756895556465,173.3750973062154</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -17063,7 +17053,7 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>-42.78254433666438,173.3726726463372</t>
+          <t>-42.78254302918235,173.37266439959478</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
@@ -17085,7 +17075,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>-42.77638725330756,173.37591028336226</t>
+          <t>-42.77638659033865,173.37590882768623</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -17095,7 +17085,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>-42.77758391985491,173.3751301634177</t>
+          <t>-42.7775803682046,173.37512236502968</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -17135,7 +17125,7 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>-42.78253262615188,173.37259878422154</t>
+          <t>-42.7825313944609,173.372591015554</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
@@ -17185,7 +17175,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>-42.77630551857124,173.37573081953946</t>
+          <t>-42.77630537650598,173.3757305076097</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -17195,7 +17185,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>-42.77750691995598,173.374961094564</t>
+          <t>-42.77750611491265,173.37495932693363</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -17235,7 +17225,7 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>-42.782547501147434,173.3726926058457</t>
+          <t>-42.78254723586156,173.37269093259343</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
@@ -17257,13 +17247,13 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>-42.7763562831686,173.37584228253044</t>
+          <t>-42.77635642523356,173.3758425944607</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
-          <t>-42.77752519916762,173.3750012301827</t>
+          <t>-42.77752600421029,173.3750029978141</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -17303,7 +17293,7 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>-42.78254693267767,173.3726890203051</t>
+          <t>-42.782547197963574,173.3726906935574</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
@@ -17325,7 +17315,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>-42.77633307921513,173.37579133393928</t>
+          <t>-42.77633383689561,173.37579299756612</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -17389,7 +17379,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>-42.776431908955956,173.37600833361034</t>
+          <t>-42.77643209837529,173.37600874951838</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -17399,7 +17389,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>-42.77758652439812,173.37513588223618</t>
+          <t>-42.77758770828131,173.37513848169928</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
@@ -17435,7 +17425,7 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>-42.78255777148154,173.37275738462358</t>
+          <t>-42.78255816940888,173.37275989450285</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
@@ -17457,7 +17447,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>-42.77631593668785,173.3757536943922</t>
+          <t>-42.776315463137195,173.37575265462598</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -17467,7 +17457,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>-42.77719314039174,173.37427213810707</t>
+          <t>-42.777190583161065,173.374266523338</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -17513,7 +17503,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>-42.77635377335434,173.3758367717626</t>
+          <t>-42.776353110384484,173.37583531608814</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -17523,7 +17513,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>-42.77718376387789,173.37425155062277</t>
+          <t>-42.777180117454826,173.37424354438053</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -17609,7 +17599,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>-42.776351926509705,173.37583271666958</t>
+          <t>-42.776351547669755,173.37583188485567</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -17619,7 +17609,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>-42.77726748938433,173.37443538252012</t>
+          <t>-42.77726550043346,173.37443101546705</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -17655,7 +17645,7 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>-42.7825510635553,173.3727150752349</t>
+          <t>-42.782550362443466,173.37271065306768</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
@@ -17715,7 +17705,7 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>-42.78253334621713,173.37260332590424</t>
+          <t>-42.782533327268034,173.37260320638626</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
@@ -17739,7 +17729,7 @@
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr">
         <is>
-          <t>-42.77714535801696,173.37416722518358</t>
+          <t>-42.77714583157913,173.37416826495408</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
@@ -17755,7 +17745,7 @@
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr">
         <is>
-          <t>-42.78233715965492,173.37136596025363</t>
+          <t>-42.782337330208314,173.37136703590863</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
@@ -17777,7 +17767,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>-42.77642248534262,173.3759876421889</t>
+          <t>-42.77642153824559,173.37598556264942</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -17787,7 +17777,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>-42.777567392837604,173.3750938749262</t>
+          <t>-42.77756208903588,173.37508222933988</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -17883,7 +17873,7 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>-42.78233740600982,173.3713675139775</t>
+          <t>-42.78233744391058,173.37136775301195</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
@@ -17905,7 +17895,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>-42.77636215518585,173.37585517564932</t>
+          <t>-42.77636300757533,173.37585704723128</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -17915,7 +17905,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>-42.77753902695557,173.3750315918581</t>
+          <t>-42.777543762497515,173.37504198969526</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -17947,7 +17937,7 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>-42.782344607143884,173.37141293052704</t>
+          <t>-42.782346236871724,173.37142320901071</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
@@ -17987,7 +17977,7 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>-42.78237117538226,173.37158049378132</t>
+          <t>-42.78237111853179,173.37158013522927</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
@@ -18009,7 +17999,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>-42.776201100374664,173.37550155155157</t>
+          <t>-42.7762006268217,173.37550051178917</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -18019,7 +18009,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>-42.777552286470616,173.37506070580605</t>
+          <t>-42.777549492502,173.37505457108028</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -18043,7 +18033,7 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>-42.78238368245645,173.3716593752482</t>
+          <t>-42.78238271600265,173.37165327986102</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
@@ -18065,7 +18055,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>-42.776273648576755,173.37566084333287</t>
+          <t>-42.776272938249484,173.3756592836857</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -18075,7 +18065,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>-42.7775645515154,173.37508763621898</t>
+          <t>-42.77756062101912,173.3750790060083</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -18125,7 +18115,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>-42.776359313887376,173.3758489370431</t>
+          <t>-42.776358414142784,173.37584696148457</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -18135,7 +18125,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>-42.77764387163107,173.37526180034223</t>
+          <t>-42.77763885197797,173.3752507785995</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -18181,7 +18171,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>-42.776343402609506,173.37581400085878</t>
+          <t>-42.7763433552545,173.37581389688208</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -18191,7 +18181,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>-42.777595806040694,173.37515626202952</t>
+          <t>-42.777595427198214,173.37515543020112</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -18223,7 +18213,7 @@
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
         <is>
-          <t>-42.782363879563825,173.3715344796068</t>
+          <t>-42.782363765862605,173.37153376250285</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
@@ -18245,7 +18235,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>-42.77633156385411,173.37578800668564</t>
+          <t>-42.776331090303756,173.37578696691892</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -18289,7 +18279,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>-42.7763252656338,173.37577417778954</t>
+          <t>-42.7763245553081,173.3757726181398</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -18299,7 +18289,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>-42.77749361305981,173.3749318766802</t>
+          <t>-42.77748954048511,173.37492293455455</t>
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
@@ -18323,7 +18313,7 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>-42.782326320018136,173.37129759641505</t>
+          <t>-42.782324917684505,173.37128875214395</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
@@ -18345,7 +18335,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>-42.77632308730158,173.3757693948637</t>
+          <t>-42.77632280317127,173.37576877100383</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -18371,7 +18361,7 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>-42.78230848758957,173.37118513078084</t>
+          <t>-42.782307938023074,173.37118166478461</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
@@ -18411,7 +18401,7 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>-42.78232508823864,173.37128982779853</t>
+          <t>-42.78232512613956,173.37129006683287</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
@@ -18433,7 +18423,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>-42.77637044230448,173.37587337158735</t>
+          <t>-42.776370963208976,173.37587451533219</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -18471,7 +18461,7 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>-42.78255661559707,173.37275009402208</t>
+          <t>-42.78255763883909,173.37275654799717</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
@@ -18493,7 +18483,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>-42.77639393035052,173.37592494410092</t>
+          <t>-42.776394451254504,173.3759260878466</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -18531,7 +18521,7 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>-42.78256681010312,173.37281439474637</t>
+          <t>-42.7825677954438,173.37282060968738</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
@@ -18553,7 +18543,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>-42.776388531890404,173.3759130907375</t>
+          <t>-42.77638796363138,173.37591184301516</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -18563,7 +18553,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>-42.777576106223535,173.37511300696517</t>
+          <t>-42.77757302812561,173.37510624836383</t>
         </is>
       </c>
       <c r="E62" t="inlineStr"/>
@@ -18599,7 +18589,7 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>-42.7825580936132,173.3727594164306</t>
+          <t>-42.78255703247349,173.3727527234193</t>
         </is>
       </c>
       <c r="M62" t="inlineStr"/>
@@ -18617,7 +18607,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>-42.77647462297503,173.37610212093563</t>
+          <t>-42.7764737705896,173.37610024934696</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -18627,7 +18617,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>-42.777658741163265,173.37529444966603</t>
+          <t>-42.777653910934106,173.37528384383302</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -18663,7 +18653,7 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>-42.78252311369393,173.37253878621252</t>
+          <t>-42.78252148406649,173.37252850767098</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
@@ -18763,7 +18753,7 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>-42.78255083616771,173.37271364101846</t>
+          <t>-42.78255007820889,173.3727088602972</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
@@ -18785,7 +18775,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>-42.77645710171275,173.37606364940083</t>
+          <t>-42.77645629668145,173.3760618817903</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -18795,7 +18785,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>-42.777676262574474,173.3753329218192</t>
+          <t>-42.777671763835016,173.37532304383186</t>
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
@@ -18831,7 +18821,7 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>-42.78257353694139,173.37285682367437</t>
+          <t>-42.78257200208672,173.3728471427069</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
@@ -18853,7 +18843,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>-42.77647926373962,173.37611231069715</t>
+          <t>-42.77647902696592,173.3761117908113</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -18863,7 +18853,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>-42.77764041470027,173.37525420989658</t>
+          <t>-42.77763904139886,173.37525119451428</t>
         </is>
       </c>
       <c r="E67" t="inlineStr"/>
@@ -18899,7 +18889,7 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>-42.78260809937731,173.3730748248449</t>
+          <t>-42.782607644611126,173.3730719564069</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
@@ -18931,7 +18921,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>-42.77752264197305,173.3749956153538</t>
+          <t>-42.777522736683984,173.3749958233104</t>
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
@@ -18967,7 +18957,7 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>-42.78262517200599,173.37318251081857</t>
+          <t>-42.782625190954455,173.37318263033688</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
@@ -18989,7 +18979,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>-42.77638166542618,173.37589801409402</t>
+          <t>-42.776382044265645,173.37589884590875</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -19031,7 +19021,7 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>-42.782611870144216,173.37309860897835</t>
+          <t>-42.7826126280867,173.37310338970903</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
@@ -19053,7 +19043,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>-42.77637006346483,173.37587253977296</t>
+          <t>-42.77637058436934,173.37587368351777</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -19087,7 +19077,7 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>-42.78259110244192,173.37296761700247</t>
+          <t>-42.78259208777424,173.3729738319483</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
@@ -19109,7 +19099,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>-42.776419880825706,173.37598192345544</t>
+          <t>-42.77641931256744,173.37598067573185</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -19175,7 +19165,7 @@
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr">
         <is>
-          <t>-42.78251699311169,173.37250018192552</t>
+          <t>-42.782517978469464,173.37250639685666</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
@@ -19197,7 +19187,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>-42.77636627506806,173.37586422162934</t>
+          <t>-42.77636575416345,173.37586307788467</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -19207,7 +19197,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>-42.77758349365691,173.3751292276111</t>
+          <t>-42.77758065233665,173.37512298890067</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -19239,7 +19229,7 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>-42.782569822970665,173.37283339812427</t>
+          <t>-42.78256883763069,173.37282718318286</t>
         </is>
       </c>
       <c r="M73" t="inlineStr"/>
@@ -19263,7 +19253,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>-42.77762497689348,173.37522031284817</t>
+          <t>-42.777623887722676,173.37521792133924</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -19295,7 +19285,7 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>-42.78256540788697,173.37280555040758</t>
+          <t>-42.78256502890951,173.37280316004583</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
@@ -19439,7 +19429,7 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>-42.782573385350844,173.3728558675294</t>
+          <t>-42.782573101118544,173.37285407475764</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
@@ -19461,7 +19451,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>-42.7767113008004,173.37662180070697</t>
+          <t>-42.77671096932051,173.37662107286138</t>
         </is>
       </c>
       <c r="C78" t="inlineStr"/>
@@ -19499,7 +19489,7 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>-42.78256997456141,173.37283435426912</t>
+          <t>-42.78256934924956,173.37283041017164</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
@@ -19521,7 +19511,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>-42.77659111535979,173.37635790520366</t>
+          <t>-42.77659173096841,173.3763592569117</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -19531,7 +19521,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>-42.77773668766537,173.3754655989241</t>
+          <t>-42.777739907806925,173.37547266949804</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -19571,7 +19561,7 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>-42.78257181259844,173.37284594752578</t>
+          <t>-42.78257291163034,173.37285287957644</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
@@ -19593,7 +19583,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>-42.77660513229075,173.37638868256218</t>
+          <t>-42.7766055111266,173.37638951438288</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -19603,7 +19593,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>-42.77774085490729,173.37547474907876</t>
+          <t>-42.77774279646293,173.37547901221942</t>
         </is>
       </c>
       <c r="E80" t="inlineStr"/>
@@ -19635,7 +19625,7 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>-42.78257533707853,173.3728681778961</t>
+          <t>-42.78257600028667,173.37287236103057</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
@@ -19663,7 +19653,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>-42.777752267463775,173.3754998080313</t>
+          <t>-42.77775051532891,173.37549596080564</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -19703,7 +19693,7 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>-42.782555933435525,173.37274579137213</t>
+          <t>-42.782555327069566,173.37274196679445</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
@@ -19725,7 +19715,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>-42.7766065055707,173.37639169791223</t>
+          <t>-42.7766055111266,173.37638951438288</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -19767,7 +19757,7 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>-42.78258630841629,173.37293737890354</t>
+          <t>-42.78258441354232,173.37292542708707</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
@@ -19813,7 +19803,11 @@
           <t>-42.78188933439575,173.3728144979272</t>
         </is>
       </c>
-      <c r="L83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>-42.78251111885641,173.37246313137845</t>
+        </is>
+      </c>
       <c r="M83" t="inlineStr">
         <is>
           <t>-42.783161920121174,173.3723076266265</t>
@@ -19833,7 +19827,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>-42.77653698909186,173.37623905897968</t>
+          <t>-42.77653765205651,173.37624051466273</t>
         </is>
       </c>
       <c r="C84" t="inlineStr"/>
@@ -19897,7 +19891,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>-42.77659097329625,173.37635759327105</t>
+          <t>-42.776591446841365,173.37635863304646</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -19907,7 +19901,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>-42.77779626021264,173.37559640466037</t>
+          <t>-42.77779900679702,173.3756024354555</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -19943,7 +19937,7 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>-42.78250774589148,173.37244185719652</t>
+          <t>-42.78250867440469,173.3724477135722</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
@@ -19971,7 +19965,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>-42.77771973455994,173.37542837444394</t>
+          <t>-42.77771428872738,173.37541641686383</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -20011,7 +20005,7 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>-42.7825464400038,173.37268591283663</t>
+          <t>-42.78254456405251,173.37267408055334</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
@@ -20033,7 +20027,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>-42.776526050172166,173.3762150402141</t>
+          <t>-42.7765266657825,173.3762163919193</t>
         </is>
       </c>
       <c r="C88" t="inlineStr"/>
@@ -20067,7 +20061,7 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>-42.78258308712977,173.37291706081595</t>
+          <t>-42.78258418615734,173.37292399286915</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
@@ -20089,7 +20083,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>-42.77653476342462,173.376234172044</t>
+          <t>-42.776535236970844,173.37623521181754</t>
         </is>
       </c>
       <c r="C89" t="inlineStr"/>
@@ -20127,7 +20121,7 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>-42.78255697562671,173.37275236486514</t>
+          <t>-42.78255794202184,173.37275846028612</t>
         </is>
       </c>
       <c r="M89" t="inlineStr"/>
@@ -20167,7 +20161,7 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>-42.78252248837189,173.37253484212093</t>
+          <t>-42.78252178725306,173.3725304199577</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
@@ -20189,7 +20183,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>-42.77641064662706,173.37596164794977</t>
+          <t>-42.77641135695015,173.37596320760383</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -20199,7 +20193,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>-42.777618773354774,173.37520669164633</t>
+          <t>-42.77762270384131,173.37521532187313</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -20235,7 +20229,7 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>-42.78256970927761,173.37283268101564</t>
+          <t>-42.78257105464515,173.3728411668013</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
@@ -20263,7 +20257,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>-42.77760835519446,173.37518381635164</t>
+          <t>-42.77761053353745,173.37518859936716</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -20303,7 +20297,7 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>-42.78254746324944,173.37269236680964</t>
+          <t>-42.782548221208955,173.37269714753054</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
@@ -20325,7 +20319,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>-42.776439580437376,173.37602517788767</t>
+          <t>-42.776439343663306,173.3760246580025</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -20367,7 +20361,7 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>-42.78256495311402,173.37280268197347</t>
+          <t>-42.78256442254547,173.37279933546705</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
@@ -20389,7 +20383,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>-42.77640666881729,173.37595291388763</t>
+          <t>-42.77640567436474,173.37595073037227</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -20399,7 +20393,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>-42.77754608291272,173.375047084636</t>
+          <t>-42.7775405423291,173.3750349191658</t>
         </is>
       </c>
       <c r="E94" t="inlineStr"/>
@@ -20435,7 +20429,7 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>-42.782547065320635,173.37268985693123</t>
+          <t>-42.78254517042073,173.37267790512968</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
@@ -20459,7 +20453,7 @@
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr">
         <is>
-          <t>-42.77761181212999,173.37519140678947</t>
+          <t>-42.77761536377554,173.3751992051854</t>
         </is>
       </c>
       <c r="E95" t="inlineStr"/>
@@ -20487,7 +20481,7 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>-42.78252307579562,173.37253854717667</t>
+          <t>-42.78252426959191,173.37254607680626</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
@@ -20531,7 +20525,7 @@
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr">
         <is>
-          <t>-42.78253658650854,173.37262376347763</t>
+          <t>-42.78253795084067,173.37263236877234</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
@@ -20571,7 +20565,7 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>-42.782493098082135,173.3723494699048</t>
+          <t>-42.78249114629853,173.37233715957035</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
@@ -20673,7 +20667,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>-42.776473012913634,173.3760985857126</t>
+          <t>-42.77647253936614,173.37609754594118</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -20683,7 +20677,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>-42.77765428977565,173.375284675663</t>
+          <t>-42.77765149581914,173.37527854091715</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -20711,7 +20705,7 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>-42.7825028948788,173.37241126062423</t>
+          <t>-42.78250192846515,173.37240516521393</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
@@ -20747,7 +20741,7 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>-42.782560973847595,173.37277758317674</t>
+          <t>-42.78256231921923,173.37278606896004</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
@@ -20791,7 +20785,7 @@
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr">
         <is>
-          <t>-42.7825157235156,173.37249217422604</t>
+          <t>-42.78251706890845,173.37250065999712</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
@@ -20819,7 +20813,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>-42.777627628787386,173.37522613565284</t>
+          <t>-42.777631796048645,173.37523528577546</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -20861,7 +20855,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>-42.77644995113978,173.37604794886178</t>
+          <t>-42.776450235268534,173.37604857272416</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -20871,7 +20865,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>-42.777696341148555,173.37537700885372</t>
+          <t>-42.77769799857725,173.3753806481149</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -20899,7 +20893,7 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>-42.78254113427979,173.37265244779476</t>
+          <t>-42.78254168380165,173.3726559138167</t>
         </is>
       </c>
       <c r="M104" t="inlineStr">
@@ -20927,7 +20921,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>-42.77758571935752,173.37513411460134</t>
+          <t>-42.7775833515909,173.37512891567556</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -20955,7 +20949,7 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>-42.782558681029656,173.37276312149055</t>
+          <t>-42.782557866226156,173.3727579822139</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
@@ -21003,7 +20997,7 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>-42.78253052280233,173.37258551772794</t>
+          <t>-42.782531659748216,173.37259268880544</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
@@ -21059,7 +21053,7 @@
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr">
         <is>
-          <t>-42.78249955980285,173.37239022548354</t>
+          <t>-42.7824991618674,173.37238771560897</t>
         </is>
       </c>
       <c r="M107" t="inlineStr">
@@ -21083,7 +21077,7 @@
       <c r="C108" t="inlineStr"/>
       <c r="D108" t="inlineStr">
         <is>
-          <t>-42.777434750080005,173.37480263188488</t>
+          <t>-42.77743863324171,173.37481115808268</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -21107,7 +21101,7 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>-42.78253270194823,173.37259926229336</t>
+          <t>-42.78253404733312,173.37260774806904</t>
         </is>
       </c>
       <c r="M108" t="inlineStr">
@@ -21129,7 +21123,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>-42.77640297513618,173.37594480368807</t>
+          <t>-42.776402406877494,173.37594355596514</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -21139,7 +21133,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>-42.777648133599875,173.37527115842707</t>
+          <t>-42.7776447713801,173.3752637759378</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -21171,7 +21165,7 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>-42.78254409032723,173.3726710926031</t>
+          <t>-42.78254295338626,173.37266392152276</t>
         </is>
       </c>
       <c r="M109" t="inlineStr">
@@ -21193,7 +21187,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>-42.77636267609054,173.37585631939385</t>
+          <t>-42.776363244350186,173.37585756711516</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -21203,7 +21197,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>-42.77760849726033,173.3751841282874</t>
+          <t>-42.77761176477471,173.37519130281086</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -21239,7 +21233,7 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>-42.78256247081037,173.37278702510466</t>
+          <t>-42.78256360774359,173.37279419618946</t>
         </is>
       </c>
       <c r="M110" t="inlineStr">
@@ -21283,7 +21277,7 @@
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>-42.78253264510095,173.3725989037395</t>
+          <t>-42.782532815642746,173.37259997940117</t>
         </is>
       </c>
       <c r="M111" t="inlineStr">
@@ -21327,7 +21321,7 @@
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>-42.78253563905529,173.37261778757878</t>
+          <t>-42.78253493793969,173.3726133654137</t>
         </is>
       </c>
       <c r="M112" t="inlineStr">
@@ -21349,7 +21343,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>-42.776422958891125,173.3759886819587</t>
+          <t>-42.776422816826575,173.37598837002773</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -21359,7 +21353,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>-42.77761384840683,173.3751958778697</t>
+          <t>-42.77761304336718,173.3751941102333</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -21395,7 +21389,7 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>-42.78249459508031,173.3723589118123</t>
+          <t>-42.78249432978955,173.37235723856287</t>
         </is>
       </c>
       <c r="M113" t="inlineStr">
@@ -21417,7 +21411,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>-42.776387348017415,173.37591049131598</t>
+          <t>-42.77638805834122,173.37591205096888</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -21427,7 +21421,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>-42.7775319709963,173.37501609908372</t>
+          <t>-42.77753604356366,173.3750250412215</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -21477,7 +21471,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>-42.776426036956124,173.37599544046256</t>
+          <t>-42.77642565811739,173.3759946086467</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -21487,7 +21481,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>-42.77759225439219,173.37514846363848</t>
+          <t>-42.77759026546878,173.3751440965399</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -21527,7 +21521,7 @@
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>-42.782477180584905,173.37224907496648</t>
+          <t>-42.78247647945502,173.37224465280966</t>
         </is>
       </c>
       <c r="M115" t="inlineStr">
@@ -21549,7 +21543,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>-42.776374088635734,173.37588137780162</t>
+          <t>-42.77637385186101,173.37588085791754</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -21559,7 +21553,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>-42.77751866411431,173.37498688117643</t>
+          <t>-42.77751738551671,173.3749840737625</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -21595,7 +21589,7 @@
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr">
         <is>
-          <t>-42.78249355286646,173.37235233833235</t>
+          <t>-42.782493117031485,173.3723495894226</t>
         </is>
       </c>
       <c r="M116" t="inlineStr">
@@ -21639,7 +21633,7 @@
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>-42.78247340964109,173.37222529093498</t>
+          <t>-42.78247503929581,173.3722355694608</t>
         </is>
       </c>
       <c r="M117" t="inlineStr">
@@ -21661,7 +21655,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>-42.776394403899594,173.37592598386973</t>
+          <t>-42.77639402506034,173.37592515205466</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -21671,7 +21665,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>-42.77757927903173,173.37511997352416</t>
+          <t>-42.77757733746259,173.3751157104059</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -21699,7 +21693,7 @@
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr">
         <is>
-          <t>-42.782499900890336,173.37239237680467</t>
+          <t>-42.78249923766462,173.37238819368028</t>
         </is>
       </c>
       <c r="M118" t="inlineStr">
@@ -21723,7 +21717,7 @@
       <c r="C119" t="inlineStr"/>
       <c r="D119" t="inlineStr">
         <is>
-          <t>-42.77758306745888,173.3751282918045</t>
+          <t>-42.77758354101225,173.3751293315896</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -21759,7 +21753,7 @@
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>-42.78251720155279,173.37250149662248</t>
+          <t>-42.78251737209549,173.37250257228362</t>
         </is>
       </c>
       <c r="M119" t="inlineStr">
@@ -21781,7 +21775,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>-42.776434466116704,173.37601394836898</t>
+          <t>-42.77643380314914,173.37601249269076</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -21791,7 +21785,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>-42.777584156631576,173.3751306833103</t>
+          <t>-42.77758051027062,173.37512267696516</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -21827,7 +21821,7 @@
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>-42.78253194398462,173.37259448157488</t>
+          <t>-42.782530693344235,173.37258659338954</t>
         </is>
       </c>
       <c r="M120" t="inlineStr">
@@ -21903,7 +21897,7 @@
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>-42.782474053923295,173.37222935453815</t>
+          <t>-42.78247358018639,173.37222636659462</t>
         </is>
       </c>
       <c r="M122" t="inlineStr">
@@ -21925,7 +21919,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>-42.776425752827066,173.37599481660064</t>
+          <t>-42.77642608431097,173.37599554443955</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -21935,7 +21929,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>-42.777607455444034,173.37518184075833</t>
+          <t>-42.77760953907655,173.37518641581653</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -21967,7 +21961,7 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>-42.78250429712551,173.37242010494543</t>
+          <t>-42.7825049982486,173.37242452710618</t>
         </is>
       </c>
       <c r="M123" t="inlineStr">
@@ -22011,7 +22005,7 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>-42.78248530988917,173.37230034808934</t>
+          <t>-42.78248644685295,173.37230751915655</t>
         </is>
       </c>
       <c r="M124" t="inlineStr">
@@ -22043,7 +22037,7 @@
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr">
         <is>
-          <t>-42.78246401068417,173.37216601014526</t>
+          <t>-42.78246493921152,173.3721718665128</t>
         </is>
       </c>
       <c r="M125" t="inlineStr">
@@ -22091,7 +22085,7 @@
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>-42.78247291695459,173.37222218347378</t>
+          <t>-42.78247265166183,173.37222051022547</t>
         </is>
       </c>
       <c r="M126" t="inlineStr">
@@ -22113,7 +22107,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>-42.77636338641509,173.3758578790455</t>
+          <t>-42.77636419144955,173.37585964665078</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -22123,7 +22117,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>-42.777530218845,173.37501225188524</t>
+          <t>-42.777534717611566,173.3750221298277</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -22163,7 +22157,7 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>-42.78249395080271,173.3723548482065</t>
+          <t>-42.78249548569911,173.37236452914993</t>
         </is>
       </c>
       <c r="M127" t="inlineStr">
@@ -22185,7 +22179,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>-42.7763387618181,173.37580381114174</t>
+          <t>-42.77633947214337,173.37580537079222</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -22195,7 +22189,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>-42.77755702200991,173.37507110364763</t>
+          <t>-42.77756095250678,173.37507973385732</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -22235,7 +22229,7 @@
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>-42.78248904291859,173.37232389309426</t>
+          <t>-42.78249038832396,173.37233237885812</t>
         </is>
       </c>
       <c r="M128" t="inlineStr">
@@ -22257,7 +22251,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>-42.776371626178346,173.37587597100747</t>
+          <t>-42.7763711526288,173.37587493123942</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -22267,7 +22261,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>-42.77752519916762,173.3750012301827</t>
+          <t>-42.777522736683984,173.3749958233104</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -22303,7 +22297,7 @@
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>-42.78249730483452,173.37237600286127</t>
+          <t>-42.78249645211493,173.37237062455898</t>
         </is>
       </c>
       <c r="M129" t="inlineStr">
@@ -22325,7 +22319,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>-42.77636045040681,173.3758514324855</t>
+          <t>-42.776360166276945,173.3758508086249</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -22335,7 +22329,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>-42.77754916101418,173.3750538432315</t>
+          <t>-42.77754769299661,173.3750506199013</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -22375,7 +22369,7 @@
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>-42.78248883447546,173.37232257839847</t>
+          <t>-42.7824883417916,173.37231947093576</t>
         </is>
       </c>
       <c r="M130" t="inlineStr">
@@ -22397,7 +22391,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>-42.776311390601165,173.3757437126373</t>
+          <t>-42.77631153266639,173.37574402456713</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -22407,7 +22401,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>-42.777524394124924,173.37499946255133</t>
+          <t>-42.77752519916762,173.3750012301827</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -22443,7 +22437,7 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>-42.78250088625398,173.37239859173243</t>
+          <t>-42.782501151544125,173.37240026498225</t>
         </is>
       </c>
       <c r="M131" t="inlineStr">
@@ -22483,7 +22477,7 @@
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>-42.78249793016204,173.3723799469497</t>
+          <t>-42.78249658476022,173.37237146118377</t>
         </is>
       </c>
       <c r="M132" t="inlineStr">
@@ -22535,7 +22529,7 @@
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>-42.78250406973419,173.37241867073118</t>
+          <t>-42.78250497929932,173.3724244075883</t>
         </is>
       </c>
       <c r="M133" t="inlineStr">
@@ -22571,7 +22565,7 @@
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>-42.78250113259483,173.3724001454644</t>
+          <t>-42.78250226955236,173.3724073165352</t>
         </is>
       </c>
       <c r="M134" t="inlineStr">
@@ -22615,7 +22609,7 @@
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>-42.78248121681577,173.3722745322496</t>
+          <t>-42.782482353781184,173.37228170331588</t>
         </is>
       </c>
       <c r="M135" t="inlineStr">
@@ -22667,7 +22661,7 @@
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>-42.782450253284495,173.3720792403116</t>
+          <t>-42.78244940055094,173.37207386201737</t>
         </is>
       </c>
       <c r="M136" t="inlineStr">
@@ -22691,7 +22685,7 @@
       <c r="C137" t="inlineStr"/>
       <c r="D137" t="inlineStr">
         <is>
-          <t>-42.7774836683994,173.37491004125917</t>
+          <t>-42.777487030642206,173.37491742371026</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -22731,7 +22725,7 @@
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>-42.78250086730469,173.37239847221457</t>
+          <t>-42.78250200426231,173.37240564328533</t>
         </is>
       </c>
       <c r="M137" t="inlineStr">
@@ -22753,13 +22747,13 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>-42.7763252656338,173.37577417778954</t>
+          <t>-42.776324792083344,173.37577313802302</t>
         </is>
       </c>
       <c r="C138" t="inlineStr"/>
       <c r="D138" t="inlineStr">
         <is>
-          <t>-42.777481774177886,173.37490588213214</t>
+          <t>-42.777479122267515,173.37490005935473</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -22823,7 +22817,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>-42.77757454349695,173.3751095756752</t>
+          <t>-42.77757681655376,173.37511456664248</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -22863,7 +22857,7 @@
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>-42.78247761642232,173.37225182387482</t>
+          <t>-42.782478374400256,173.3722566045851</t>
         </is>
       </c>
       <c r="M139" t="inlineStr">
@@ -22885,7 +22879,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>-42.7763711526288,173.37587493123942</t>
+          <t>-42.77637101056394,173.375874619309</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -22895,7 +22889,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>-42.77754414134084,173.37504282152227</t>
+          <t>-42.77754333629879,173.37504105388984</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -22935,7 +22929,7 @@
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>-42.78250742375418,173.37243982539275</t>
+          <t>-42.782507158464604,173.3724381521426</t>
         </is>
       </c>
       <c r="M140" t="inlineStr">
@@ -23039,7 +23033,7 @@
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>-42.78250490350224,173.37242392951688</t>
+          <t>-42.78250624890018,173.37243241528506</t>
         </is>
       </c>
       <c r="M142" t="inlineStr">
@@ -23061,7 +23055,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>-42.77618064287774,173.3754566338317</t>
+          <t>-42.7761803587457,173.3754560099747</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -23095,7 +23089,7 @@
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>-42.782471855783385,173.3722154904806</t>
+          <t>-42.78247130624816,173.37221202446636</t>
         </is>
       </c>
       <c r="M143" t="inlineStr">
@@ -23145,7 +23139,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>-42.77626176243105,173.37563474524146</t>
+          <t>-42.7762614783,173.37563412138283</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -23155,7 +23149,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>-42.77746690453373,173.37487323299382</t>
+          <t>-42.777465341799896,173.37486980171585</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -23195,7 +23189,7 @@
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>-42.782492055867756,173.37234289642515</t>
+          <t>-42.78249150633639,173.3723394304087</t>
         </is>
       </c>
       <c r="M145" t="inlineStr">
@@ -23217,7 +23211,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>-42.77626304102071,173.3756375526054</t>
+          <t>-42.77626204656209,173.3756353691001</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -23227,7 +23221,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>-42.77742456861641,173.3747802766152</t>
+          <t>-42.77741898064847,173.3747680072145</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -23303,7 +23297,7 @@
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr">
         <is>
-          <t>-42.782473674933776,173.3722269641833</t>
+          <t>-42.78247486875058,173.3722344938011</t>
         </is>
       </c>
       <c r="M147" t="inlineStr">
@@ -23353,7 +23347,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>-42.776278147315594,173.37567072109917</t>
+          <t>-42.77627762640903,173.3756695773577</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -23363,7 +23357,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>-42.77747467084587,173.37489028540807</t>
+          <t>-42.77747182951247,173.37488404671942</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -23399,7 +23393,7 @@
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>-42.78246020182392,173.37214198708833</t>
+          <t>-42.782459216446306,173.3721357721686</t>
         </is>
       </c>
       <c r="M149" t="inlineStr">
@@ -23421,7 +23415,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>-42.776289607256956,173.3756958834155</t>
+          <t>-42.77629017551836,173.37569713113388</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -23431,7 +23425,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>-42.777477275401196,173.3748960042065</t>
+          <t>-42.777480306156114,173.37490265880888</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -23471,7 +23465,7 @@
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>-42.78247831755191,173.37225624603184</t>
+          <t>-42.78247935977129,173.37226281950862</t>
         </is>
       </c>
       <c r="M150" t="inlineStr">
@@ -23493,7 +23487,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>-42.77624376745798,173.37559523420572</t>
+          <t>-42.776244430430914,173.37559668987504</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -23503,7 +23497,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>-42.77747372373477,173.37488820584514</t>
+          <t>-42.77747760689003,173.3748967320536</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -23543,7 +23537,7 @@
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>-42.78246592458716,173.37217808143367</t>
+          <t>-42.78246727000335,173.37218656719128</t>
         </is>
       </c>
       <c r="M151" t="inlineStr">
@@ -23565,7 +23559,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>-42.77629344302122,173.37570430551517</t>
+          <t>-42.77629273269454,173.375702745867</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -23575,7 +23569,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>-42.77744346351512,173.3748217638424</t>
+          <t>-42.77743943828734,173.3748129257092</t>
         </is>
       </c>
       <c r="E152" t="inlineStr"/>
@@ -23611,7 +23605,7 @@
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>-42.78248197479276,173.37227931296042</t>
+          <t>-42.78248061043403,173.37227070768105</t>
         </is>
       </c>
       <c r="M152" t="inlineStr">
@@ -23633,7 +23627,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>-42.77627104404335,173.37565512462672</t>
+          <t>-42.77627184908098,173.37565689222677</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -23675,7 +23669,7 @@
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>-42.78250172002295,173.3724038505176</t>
+          <t>-42.78250329281376,173.37241377049915</t>
         </is>
       </c>
       <c r="M153" t="inlineStr">
@@ -23697,7 +23691,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>-42.776239647554306,173.37558618826122</t>
+          <t>-42.776239079291685,173.37558494054485</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -23731,7 +23725,7 @@
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>-42.782456013966765,173.37211557368084</t>
+          <t>-42.78245493383972,173.37210876117362</t>
         </is>
       </c>
       <c r="M154" t="inlineStr">
@@ -23753,7 +23747,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>-42.77622458858993,173.3755531237848</t>
+          <t>-42.77622520420817,173.37555447547692</t>
         </is>
       </c>
       <c r="C155" t="inlineStr"/>
@@ -23783,7 +23777,7 @@
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>-42.78249796806067,173.37238018598535</t>
+          <t>-42.78249906712084,173.3723871180198</t>
         </is>
       </c>
       <c r="M155" t="inlineStr">
@@ -23805,7 +23799,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>-42.776258494923795,173.3756275708675</t>
+          <t>-42.77625816343752,173.37562684303248</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -23815,7 +23809,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>-42.77744014862171,173.37481448537966</t>
+          <t>-42.777438254396685,173.37481032625846</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -23851,7 +23845,7 @@
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>-42.78249071046318,173.3723344106608</t>
+          <t>-42.7824900661847,173.37233034705548</t>
         </is>
       </c>
       <c r="M156" t="inlineStr">
@@ -23873,7 +23867,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>-42.77626540877917,173.37564275142782</t>
+          <t>-42.77626517200333,173.37564223154556</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -23919,7 +23913,7 @@
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>-42.78248049673744,173.37226999057444</t>
+          <t>-42.7824799661533,173.372266644077</t>
         </is>
       </c>
       <c r="M157" t="inlineStr">
@@ -23941,7 +23935,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>-42.77630210900479,173.37572333322566</t>
+          <t>-42.77630154074368,173.37572208550677</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -23951,7 +23945,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>-42.77744587865145,173.37482706672287</t>
+          <t>-42.77744280053647,173.3748203081498</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -23991,7 +23985,7 @@
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>-42.78247276535873,173.3722212273319</t>
+          <t>-42.78247170418747,173.37221453433875</t>
         </is>
       </c>
       <c r="M158" t="inlineStr">
@@ -24013,7 +24007,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>-42.77626521935851,173.375642335522</t>
+          <t>-42.77626574026533,173.37564347926298</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -24023,7 +24017,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>-42.77740756793017,173.37474294853004</t>
+          <t>-42.77741040927134,173.37474918720582</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -24063,7 +24057,7 @@
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>-42.78249127894406,173.37233799619497</t>
+          <t>-42.782492264310655,173.37234421112106</t>
         </is>
       </c>
       <c r="M159" t="inlineStr">
@@ -24085,7 +24079,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>-42.77625072867288,173.37561051873524</t>
+          <t>-42.776251012804046,173.37561114259367</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -24123,7 +24117,7 @@
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr">
         <is>
-          <t>-42.7824419343841,173.37202677206974</t>
+          <t>-42.78244240812625,173.37202976001024</t>
         </is>
       </c>
       <c r="M160" t="inlineStr">
@@ -24175,7 +24169,7 @@
       <c r="C162" t="inlineStr"/>
       <c r="D162" t="inlineStr">
         <is>
-          <t>-42.777382611468745,173.37468815218566</t>
+          <t>-42.77737977012421,173.37468191351545</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -24233,7 +24227,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>-42.776170224701154,173.37543375907828</t>
+          <t>-42.77617027205651,173.37543386305444</t>
         </is>
       </c>
       <c r="C163" t="inlineStr"/>
@@ -24295,7 +24289,7 @@
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>-42.78249459508031,173.3723589118123</t>
+          <t>-42.78249423504284,173.37235664097375</t>
         </is>
       </c>
       <c r="M164" t="inlineStr">
@@ -24319,7 +24313,7 @@
       <c r="C165" t="inlineStr"/>
       <c r="D165" t="inlineStr">
         <is>
-          <t>-42.77733587130748,173.37458552613313</t>
+          <t>-42.777332319619696,173.37457772780718</t>
         </is>
       </c>
       <c r="E165" t="inlineStr"/>
@@ -24351,7 +24345,7 @@
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>-42.782457738379264,173.37212644978936</t>
+          <t>-42.78245654455534,173.37211892017572</t>
         </is>
       </c>
       <c r="M165" t="inlineStr">
@@ -24401,7 +24395,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>-42.7762211316565,173.37554553351416</t>
+          <t>-42.77622193669585,173.37554730111137</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -24411,7 +24405,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>-42.77742338472502,173.37477767716572</t>
+          <t>-42.777427694089425,173.37478713916232</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -24465,7 +24459,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>-42.77621985306456,173.375542726154</t>
+          <t>-42.776219805709296,173.3755426221777</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -24475,7 +24469,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>-42.777411024895216,173.37475053891896</t>
+          <t>-42.7774107881168,173.37475001902928</t>
         </is>
       </c>
       <c r="E168" t="inlineStr"/>
@@ -24507,7 +24501,7 @@
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>-42.78250774589148,173.37244185719652</t>
+          <t>-42.782507651145224,173.37244125960717</t>
         </is>
       </c>
       <c r="M168" t="inlineStr">
@@ -24529,7 +24523,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>-42.77621606464356,173.3755344080505</t>
+          <t>-42.7762160172883,173.37553430407422</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -24539,7 +24533,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>-42.77744109573415,173.37481656494037</t>
+          <t>-42.77744081160042,173.37481594107214</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -24575,7 +24569,7 @@
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>-42.78249764592227,173.37237815418223</t>
+          <t>-42.782497532226365,173.37237743707524</t>
         </is>
       </c>
       <c r="M169" t="inlineStr">
@@ -24663,7 +24657,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>-42.77738658935053,173.3746968863249</t>
+          <t>-42.7773884835797,173.3747010454392</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -24691,7 +24685,7 @@
       </c>
       <c r="L172" t="inlineStr">
         <is>
-          <t>-42.782505983610505,173.37243074203496</t>
+          <t>-42.7825066278854,173.37243480564234</t>
         </is>
       </c>
       <c r="M172" t="inlineStr">
@@ -24719,7 +24713,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>-42.777307078943025,173.3745223077296</t>
+          <t>-42.77730551619856,173.37451887646924</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -24747,7 +24741,7 @@
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>-42.78248239168002,173.3722819423514</t>
+          <t>-42.7824818421468,173.372278476336</t>
         </is>
       </c>
       <c r="M173" t="inlineStr">
@@ -24769,7 +24763,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>-42.77618419452779,173.37546443204485</t>
+          <t>-42.7761839103958,173.37546380818776</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -24779,7 +24773,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>-42.77742466332773,173.37478048457118</t>
+          <t>-42.77742300587975,173.3747768453419</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -24811,7 +24805,7 @@
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>-42.78251536348078,173.37248990338594</t>
+          <t>-42.782514813953874,173.37248643736692</t>
         </is>
       </c>
       <c r="M174" t="inlineStr">
@@ -24867,7 +24861,7 @@
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>-42.78251492764911,173.37248715447433</t>
+          <t>-42.78251634883911,173.37249611831677</t>
         </is>
       </c>
       <c r="M175" t="inlineStr"/>
@@ -24923,7 +24917,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>-42.77733426120908,173.37458199089193</t>
+          <t>-42.77733729198244,173.37458864546375</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -24967,7 +24961,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>-42.777419217426804,173.37476852710432</t>
+          <t>-42.77741746526711,173.37476467991976</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -24999,7 +24993,7 @@
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>-42.78250632469721,173.3724328933565</t>
+          <t>-42.78250571832079,173.37242906878487</t>
         </is>
       </c>
       <c r="M178" t="inlineStr">
@@ -25027,7 +25021,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>-42.777425847219064,173.37478308402078</t>
+          <t>-42.77742518423993,173.37478162832898</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -25063,7 +25057,7 @@
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>-42.78250280013239,173.372410663035</t>
+          <t>-42.78250257274096,173.3724092288208</t>
         </is>
       </c>
       <c r="M179" t="inlineStr">
@@ -25151,7 +25145,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>-42.77742120636468,173.37477289417893</t>
+          <t>-42.77741713377743,173.37476395207406</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -25265,7 +25259,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>-42.77618130585245,173.3754580894981</t>
+          <t>-42.7761809743651,173.3754573616649</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -25275,7 +25269,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>-42.7774107881168,173.37475001902928</t>
+          <t>-42.7774089886008,173.37474606786787</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -25307,7 +25301,7 @@
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>-42.78249965454938,173.37239082307272</t>
+          <t>-42.782499029222215,173.3723868789841</t>
         </is>
       </c>
       <c r="M185" t="inlineStr">
@@ -25355,7 +25349,7 @@
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>-42.78251451076657,173.3724845250806</t>
+          <t>-42.782515477176,173.37249062049335</t>
         </is>
       </c>
       <c r="M186" t="inlineStr">
@@ -25383,7 +25377,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>-42.77740804148706,173.37474398830932</t>
+          <t>-42.77740420567599,173.3747355660978</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -25415,7 +25409,7 @@
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>-42.78248381288615,173.37229090618462</t>
+          <t>-42.78248250537654,173.37228265945802</t>
         </is>
       </c>
       <c r="M187" t="inlineStr">
@@ -25437,7 +25431,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>-42.77617680709508,173.37544821176252</t>
+          <t>-42.77617585998816,173.3754461322394</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -25479,7 +25473,7 @@
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>-42.78248697743591,173.37231086565464</t>
+          <t>-42.782485139344544,173.37229927242927</t>
         </is>
       </c>
       <c r="M188" t="inlineStr">
@@ -25507,7 +25501,7 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>-42.77747358166812,173.37488789391068</t>
+          <t>-42.77747879077871,173.3748993315076</t>
         </is>
       </c>
       <c r="E189" t="inlineStr"/>
@@ -25579,7 +25573,7 @@
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>-42.78248498774934,173.37229831628702</t>
+          <t>-42.78248652265052,173.3723079972277</t>
         </is>
       </c>
       <c r="M190" t="inlineStr">
@@ -25603,7 +25597,7 @@
       <c r="C191" t="inlineStr"/>
       <c r="D191" t="inlineStr">
         <is>
-          <t>-42.77746008533074,173.37485826014577</t>
+          <t>-42.77745653366171,173.3748504617887</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -25653,7 +25647,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>-42.776151140483904,173.37539185670894</t>
+          <t>-42.776151187839304,173.37539196068502</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -25663,7 +25657,7 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>-42.777437401995385,173.374808454654</t>
+          <t>-42.77743782819604,173.37480939045622</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -25695,7 +25689,7 @@
       </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t>-42.7825158182616,173.37249277181556</t>
+          <t>-42.78251596985518,173.37249372795876</t>
         </is>
       </c>
       <c r="M192" t="inlineStr">
@@ -25717,7 +25711,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>-42.77607068352665,173.3752152015928</t>
+          <t>-42.77607020997108,173.3752141618348</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -25727,7 +25721,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>-42.77742944624837,173.37479098634813</t>
+          <t>-42.7774267943321,173.37478516358053</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -25759,7 +25753,7 @@
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>-42.78255079826977,173.37271340198242</t>
+          <t>-42.78254988871915,173.3727076651169</t>
         </is>
       </c>
       <c r="M193" t="inlineStr">
@@ -25781,7 +25775,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>-42.77617443932769,173.3754430129549</t>
+          <t>-42.7761746287491,173.37544342885948</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -25791,7 +25785,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>-42.77747031413451,173.37488071941905</t>
+          <t>-42.777471498023544,173.37488331887246</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -25831,7 +25825,7 @@
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>-42.78254937709681,173.3727044381301</t>
+          <t>-42.78254977502531,173.37270694800873</t>
         </is>
       </c>
       <c r="M194" t="inlineStr">
@@ -25919,7 +25913,7 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>-42.77744947767768,173.3748349690553</t>
+          <t>-42.777451940168994,173.3748403759149</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -25959,7 +25953,7 @@
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>-42.78250312227022,173.3724126948385</t>
+          <t>-42.78250397498782,173.3724180731419</t>
         </is>
       </c>
       <c r="M197" t="inlineStr">
@@ -26023,7 +26017,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>-42.77748811981934,173.37491981520867</t>
+          <t>-42.77749148206151,173.3749271976608</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -26063,7 +26057,7 @@
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>-42.78252339793116,173.37254057898144</t>
+          <t>-42.78252457277816,173.37254798909322</t>
         </is>
       </c>
       <c r="M199" t="inlineStr">
@@ -26091,7 +26085,7 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>-42.777455160349554,173.3748474464242</t>
+          <t>-42.77745771755146,173.37485306124097</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -26131,7 +26125,7 @@
       </c>
       <c r="L200" t="inlineStr">
         <is>
-          <t>-42.78234585786532,173.37142081866563</t>
+          <t>-42.78234672957995,173.37142631645938</t>
         </is>
       </c>
       <c r="M200" t="inlineStr">
@@ -26175,7 +26169,7 @@
       </c>
       <c r="L201" t="inlineStr">
         <is>
-          <t>-42.782319535749124,173.37125480926932</t>
+          <t>-42.782318607174744,173.37124895292888</t>
         </is>
       </c>
       <c r="M201" t="inlineStr">
@@ -26197,7 +26191,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>-42.77624021581692,173.37558743597765</t>
+          <t>-42.77623931606777,173.3755854604267</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -26207,7 +26201,7 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>-42.7774069523062,173.37474159681705</t>
+          <t>-42.777402027313876,173.37473078311393</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -26239,7 +26233,7 @@
       </c>
       <c r="L202" t="inlineStr">
         <is>
-          <t>-42.78231347158447,173.37121656378375</t>
+          <t>-42.78231178498641,173.3712059267594</t>
         </is>
       </c>
       <c r="M202" t="inlineStr">
@@ -26283,7 +26277,7 @@
       </c>
       <c r="L203" t="inlineStr">
         <is>
-          <t>-42.78231919464019,173.37125265796058</t>
+          <t>-42.782318000758664,173.3712451283801</t>
         </is>
       </c>
       <c r="M203" t="inlineStr">
@@ -26327,7 +26321,7 @@
       </c>
       <c r="L204" t="inlineStr">
         <is>
-          <t>-42.782314703368954,173.37122433239742</t>
+          <t>-42.78231371794141,173.37121811750646</t>
         </is>
       </c>
       <c r="M204" t="inlineStr">
@@ -26383,7 +26377,7 @@
       <c r="C206" t="inlineStr"/>
       <c r="D206" t="inlineStr">
         <is>
-          <t>-42.777411782586114,173.374752202566</t>
+          <t>-42.777408751822364,173.37474554797822</t>
         </is>
       </c>
       <c r="E206" t="inlineStr"/>
@@ -26413,7 +26407,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>-42.77620711449653,173.37551475653498</t>
+          <t>-42.77620673565426,173.37551392472494</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -26423,7 +26417,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>-42.77742357414763,173.37477809307762</t>
+          <t>-42.77742158520997,173.3747737260027</t>
         </is>
       </c>
       <c r="E207" t="inlineStr"/>
@@ -26449,7 +26443,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>-42.7762899860979,173.37569671522775</t>
+          <t>-42.776289181060896,173.37569494762667</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -26459,7 +26453,7 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>-42.77756194696975,173.37508191740454</t>
+          <t>-42.77755763762994,173.37507245536716</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -26631,7 +26625,7 @@
       <c r="K212" t="inlineStr"/>
       <c r="L212" t="inlineStr">
         <is>
-          <t>-42.78230187383392,173.37114341931317</t>
+          <t>-42.782301210562466,173.37113923621519</t>
         </is>
       </c>
       <c r="M212" t="inlineStr"/>
@@ -26703,7 +26697,7 @@
       <c r="K214" t="inlineStr"/>
       <c r="L214" t="inlineStr">
         <is>
-          <t>-42.78254816436199,173.37269678897647</t>
+          <t>-42.782548069617064,173.37269619138635</t>
         </is>
       </c>
       <c r="M214" t="inlineStr">
@@ -26725,7 +26719,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>-42.77643460818119,173.37601426030002</t>
+          <t>-42.77643498701979,173.37601509211618</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -26735,7 +26729,7 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>-42.777310914769934,173.37453072991485</t>
+          <t>-42.7773130931405,173.3745355128847</t>
         </is>
       </c>
       <c r="E215" t="inlineStr"/>
@@ -26759,7 +26753,7 @@
       <c r="K215" t="inlineStr"/>
       <c r="L215" t="inlineStr">
         <is>
-          <t>-42.782525880268615,173.3725562358308</t>
+          <t>-42.78252663823382,173.37256101654842</t>
         </is>
       </c>
       <c r="M215" t="inlineStr">
@@ -26781,7 +26775,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>-42.77649673763068,173.37615067828207</t>
+          <t>-42.77649612201955,173.37614932657817</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -26791,7 +26785,7 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>-42.77715615523205,173.37419093195496</t>
+          <t>-42.7771526982295,173.37418334162814</t>
         </is>
       </c>
       <c r="E216" t="inlineStr"/>
@@ -26815,7 +26809,7 @@
       <c r="K216" t="inlineStr"/>
       <c r="L216" t="inlineStr">
         <is>
-          <t>-42.782510247191695,173.37245763355597</t>
+          <t>-42.782509053389596,173.3724501039297</t>
         </is>
       </c>
       <c r="M216" t="inlineStr">
@@ -26837,7 +26831,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>-42.776517952527044,173.37619726009436</t>
+          <t>-42.77651875755621,173.3761990277084</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -26847,7 +26841,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>-42.777325595089344,173.37456296297913</t>
+          <t>-42.77732990447169,173.37457242494602</t>
         </is>
       </c>
       <c r="E217" t="inlineStr"/>
@@ -26871,7 +26865,7 @@
       <c r="K217" t="inlineStr"/>
       <c r="L217" t="inlineStr">
         <is>
-          <t>-42.78253598013849,173.37261993890235</t>
+          <t>-42.78253745816526,173.37262926130478</t>
         </is>
       </c>
       <c r="M217" t="inlineStr">
@@ -26941,7 +26935,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>-42.776441190501075,173.3760287131069</t>
+          <t>-42.77644123785588,173.37602881708395</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -26983,7 +26977,7 @@
       </c>
       <c r="L219" t="inlineStr">
         <is>
-          <t>-42.78250352020512,173.37241520471338</t>
+          <t>-42.78250361495152,173.37241580230264</t>
         </is>
       </c>
       <c r="M219" t="inlineStr">
@@ -27005,7 +26999,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>-42.776535757871706,173.37623635556844</t>
+          <t>-42.77653571051709,173.37623625159108</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -27047,7 +27041,7 @@
       </c>
       <c r="L220" t="inlineStr">
         <is>
-          <t>-42.78251149784097,173.37246552173613</t>
+          <t>-42.78251145994252,173.37246528270035</t>
         </is>
       </c>
       <c r="M220" t="inlineStr">
@@ -27069,7 +27063,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>-42.77636480706414,173.37586099834897</t>
+          <t>-42.77636542267869,173.37586235004716</t>
         </is>
       </c>
       <c r="C221" t="inlineStr"/>
@@ -27111,7 +27105,7 @@
       </c>
       <c r="L221" t="inlineStr">
         <is>
-          <t>-42.782505661472975,173.3724287102313</t>
+          <t>-42.78250685527649,173.3724362398567</t>
         </is>
       </c>
       <c r="M221" t="inlineStr">
@@ -27133,13 +27127,13 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>-42.77648087380058,173.37611584592088</t>
+          <t>-42.776480163479576,173.37611428626332</t>
         </is>
       </c>
       <c r="C222" t="inlineStr"/>
       <c r="D222" t="inlineStr">
         <is>
-          <t>-42.77716079613876,173.37420112171014</t>
+          <t>-42.77715672350638,173.37419217968</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
@@ -27189,7 +27183,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>-42.77657084762051,173.3763134028314</t>
+          <t>-42.77657013730224,173.37631184316933</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -27223,7 +27217,7 @@
       <c r="K223" t="inlineStr"/>
       <c r="L223" t="inlineStr">
         <is>
-          <t>-42.78247610046583,173.37224226245465</t>
+          <t>-42.78247481190217,173.37223413524785</t>
         </is>
       </c>
       <c r="M223" t="inlineStr">
@@ -27255,7 +27249,7 @@
       <c r="K224" t="inlineStr"/>
       <c r="L224" t="inlineStr">
         <is>
-          <t>-42.78252216623622,173.37253281031622</t>
+          <t>-42.78252070715076,173.37252360743622</t>
         </is>
       </c>
       <c r="M224" t="inlineStr">
@@ -27345,7 +27339,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>-42.77641154636966,173.37596362351158</t>
+          <t>-42.77641126224041,173.37596299964994</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -27355,7 +27349,7 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>-42.77711613921266,173.37410307137404</t>
+          <t>-42.77711467116805,173.3740998480886</t>
         </is>
       </c>
       <c r="E226" t="inlineStr"/>
@@ -27391,7 +27385,7 @@
       </c>
       <c r="L226" t="inlineStr">
         <is>
-          <t>-42.78253539271739,173.3726162338451</t>
+          <t>-42.78253490004153,173.37261312637776</t>
         </is>
       </c>
       <c r="M226" t="inlineStr">
@@ -27413,7 +27407,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>-42.776246371994404,173.37560095290684</t>
+          <t>-42.776246892901646,173.3756020966471</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -27473,7 +27467,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>-42.77622851907527,173.37556175381957</t>
+          <t>-42.77622823494384,173.3755611299616</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -27483,7 +27477,7 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>-42.77710283209527,173.37407385385674</t>
+          <t>-42.77710117462461,173.37407021466507</t>
         </is>
       </c>
       <c r="E229" t="inlineStr"/>
@@ -27507,7 +27501,7 @@
       </c>
       <c r="L229" t="inlineStr">
         <is>
-          <t>-42.78256887552838,173.37282742221907</t>
+          <t>-42.78256832601172,173.37282395619414</t>
         </is>
       </c>
       <c r="M229" t="inlineStr">
@@ -27529,7 +27523,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>-42.77621582786723,173.37553388816906</t>
+          <t>-42.77621521224876,173.37553253647735</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -27575,7 +27569,7 @@
       </c>
       <c r="L230" t="inlineStr">
         <is>
-          <t>-42.782554398571435,173.37273611041007</t>
+          <t>-42.7825532047877,173.37272858077324</t>
         </is>
       </c>
       <c r="M230" t="inlineStr">
@@ -27627,7 +27621,7 @@
       </c>
       <c r="L231" t="inlineStr">
         <is>
-          <t>-42.78258340925858,173.3729190926246</t>
+          <t>-42.78258422405483,173.37292423190544</t>
         </is>
       </c>
       <c r="M231" t="inlineStr">
@@ -27649,7 +27643,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>-42.776240831434734,173.37558878767044</t>
+          <t>-42.77624144705255,173.37559013936328</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -27659,7 +27653,7 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>-42.77710302152048,173.37407426976438</t>
+          <t>-42.77710638381774,173.37408165212526</t>
         </is>
       </c>
       <c r="E232" t="inlineStr"/>
@@ -27695,7 +27689,7 @@
       </c>
       <c r="L232" t="inlineStr">
         <is>
-          <t>-42.782584110362336,173.3729235147965</t>
+          <t>-42.7825852851845,173.37293092492257</t>
         </is>
       </c>
       <c r="M232" t="inlineStr">
@@ -27719,7 +27713,7 @@
       <c r="C233" t="inlineStr"/>
       <c r="D233" t="inlineStr">
         <is>
-          <t>-42.777500811097106,173.37494768137023</t>
+          <t>-42.77749588612447,173.37493686763457</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
@@ -27773,13 +27767,13 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>-42.7761321036066,173.37535005834127</t>
+          <t>-42.77613153534135,173.3753488106292</t>
         </is>
       </c>
       <c r="C234" t="inlineStr"/>
       <c r="D234" t="inlineStr">
         <is>
-          <t>-42.77750848268706,173.37496452584654</t>
+          <t>-42.7775053098693,173.37495755930334</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -27819,7 +27813,7 @@
       </c>
       <c r="L234" t="inlineStr">
         <is>
-          <t>-42.78256914081226,173.37282909547253</t>
+          <t>-42.782568060727776,173.37282228294075</t>
         </is>
       </c>
       <c r="M234" t="inlineStr">
@@ -27847,7 +27841,7 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>-42.77745681779526,173.37485108565724</t>
+          <t>-42.777457291351155,173.37485212543817</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
@@ -27887,7 +27881,7 @@
       </c>
       <c r="L235" t="inlineStr">
         <is>
-          <t>-42.78254427981735,173.3726722877832</t>
+          <t>-42.78254445035844,173.37267336344527</t>
         </is>
       </c>
       <c r="M235" t="inlineStr">
@@ -27915,7 +27909,7 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>-42.77750190027362,173.3749500728697</t>
+          <t>-42.77750014812009,173.37494622567496</t>
         </is>
       </c>
       <c r="E236" t="inlineStr"/>
@@ -27947,7 +27941,7 @@
       </c>
       <c r="L236" t="inlineStr">
         <is>
-          <t>-42.782553394277215,173.37272977595367</t>
+          <t>-42.78255278791072,173.3727259513763</t>
         </is>
       </c>
       <c r="M236" t="inlineStr">
@@ -27975,7 +27969,7 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>-42.77763084894387,173.375233206202</t>
+          <t>-42.777630233325766,173.37523185447932</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
@@ -28015,7 +28009,7 @@
       </c>
       <c r="L237" t="inlineStr">
         <is>
-          <t>-42.78255104460634,173.37271495571687</t>
+          <t>-42.78255083616771,173.37271364101846</t>
         </is>
       </c>
       <c r="M237" t="inlineStr">
@@ -28043,7 +28037,7 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>-42.77759159141774,173.37514700793895</t>
+          <t>-42.777593059432576,173.37515023127372</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
@@ -28083,7 +28077,7 @@
       </c>
       <c r="L238" t="inlineStr">
         <is>
-          <t>-42.78254539780878,173.37267933934584</t>
+          <t>-42.782545890482844,173.3726824468142</t>
         </is>
       </c>
       <c r="M238" t="inlineStr">
@@ -28111,7 +28105,7 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>-42.77758751886,173.3751380657852</t>
+          <t>-42.77758538787021,173.3751333867517</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
@@ -28151,7 +28145,7 @@
       </c>
       <c r="L239" t="inlineStr">
         <is>
-          <t>-42.78255136673876,173.37271698752346</t>
+          <t>-42.78255064667802,173.37271244583818</t>
         </is>
       </c>
       <c r="M239" t="inlineStr">
@@ -28179,7 +28173,7 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>-42.77768630186367,173.37535496533292</t>
+          <t>-42.7776862071534,173.3753547573752</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
@@ -28219,7 +28213,7 @@
       </c>
       <c r="L240" t="inlineStr">
         <is>
-          <t>-42.78256698064287,173.37281547040922</t>
+          <t>-42.78256696169403,173.37281535089113</t>
         </is>
       </c>
       <c r="M240" t="inlineStr">
@@ -28247,7 +28241,7 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>-42.77764538699785,173.37526512766115</t>
+          <t>-42.777648323020685,173.375271574342</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
@@ -28287,7 +28281,7 @@
       </c>
       <c r="L241" t="inlineStr">
         <is>
-          <t>-42.78257258950033,173.3728508477685</t>
+          <t>-42.78257357483904,173.3728570627106</t>
         </is>
       </c>
       <c r="M241" t="inlineStr">
@@ -28315,7 +28309,7 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>-42.77766361874663,173.37530515947947</t>
+          <t>-42.77766058801534,173.3752985048379</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
@@ -28355,7 +28349,7 @@
       </c>
       <c r="L242" t="inlineStr">
         <is>
-          <t>-42.78255985586221,173.37277053161063</t>
+          <t>-42.782558813672075,173.372763958117</t>
         </is>
       </c>
       <c r="M242" t="inlineStr">
@@ -28379,7 +28373,7 @@
       <c r="C243" t="inlineStr"/>
       <c r="D243" t="inlineStr">
         <is>
-          <t>-42.777652490278264,173.3752807244707</t>
+          <t>-42.777654858037934,173.375285923408</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
@@ -28419,7 +28413,7 @@
       </c>
       <c r="L243" t="inlineStr">
         <is>
-          <t>-42.7825710167475,173.37284092776505</t>
+          <t>-42.78257183154727,173.3728460670439</t>
         </is>
       </c>
       <c r="M243" t="inlineStr">
@@ -28447,7 +28441,7 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>-42.77764884392792,173.37527271810802</t>
+          <t>-42.77764401369672,173.3752621122784</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
@@ -28487,7 +28481,7 @@
       </c>
       <c r="L244" t="inlineStr">
         <is>
-          <t>-42.78254098268752,173.37265149165077</t>
+          <t>-42.78253935307024,173.37264121310338</t>
         </is>
       </c>
       <c r="M244" t="inlineStr">
@@ -28511,7 +28505,7 @@
       <c r="C245" t="inlineStr"/>
       <c r="D245" t="inlineStr">
         <is>
-          <t>-42.777590028692174,173.37514357664725</t>
+          <t>-42.777588655387824,173.37514056126983</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
@@ -28543,7 +28537,7 @@
       </c>
       <c r="L245" t="inlineStr">
         <is>
-          <t>-42.78253886039506,173.37263810563567</t>
+          <t>-42.782538386668854,173.372635117686</t>
         </is>
       </c>
       <c r="M245" t="inlineStr">
@@ -28571,7 +28565,7 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>-42.77766825955314,173.3753153494006</t>
+          <t>-42.77766963285284,173.37531836478573</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
@@ -28611,7 +28605,7 @@
       </c>
       <c r="L246" t="inlineStr">
         <is>
-          <t>-42.78256326666368,173.37279204486398</t>
+          <t>-42.782563721436894,173.37279491329795</t>
         </is>
       </c>
       <c r="M246" t="inlineStr">
@@ -28687,7 +28681,7 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>-42.77761403782794,173.37519629378414</t>
+          <t>-42.777609681142394,173.37518672775235</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
@@ -28727,7 +28721,7 @@
       </c>
       <c r="L248" t="inlineStr">
         <is>
-          <t>-42.78255070352492,173.37271280439225</t>
+          <t>-42.782549206556006,173.3727033624679</t>
         </is>
       </c>
       <c r="M248" t="inlineStr">
@@ -28751,7 +28745,7 @@
       <c r="C249" t="inlineStr"/>
       <c r="D249" t="inlineStr">
         <is>
-          <t>-42.77756071572988,173.37507921396517</t>
+          <t>-42.77756000539917,173.37507765428865</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
@@ -28791,7 +28785,7 @@
       </c>
       <c r="L249" t="inlineStr">
         <is>
-          <t>-42.782545890482844,173.3726824468142</t>
+          <t>-42.78254562519682,173.372680773562</t>
         </is>
       </c>
       <c r="M249" t="inlineStr">
@@ -28819,7 +28813,7 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>-42.777605892719535,173.37517840946492</t>
+          <t>-42.77760314611259,173.37517237870713</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
@@ -28851,7 +28845,7 @@
       </c>
       <c r="L250" t="inlineStr">
         <is>
-          <t>-42.7825657110689,173.37280746269704</t>
+          <t>-42.782564782574134,173.3728016063107</t>
         </is>
       </c>
       <c r="M250" t="inlineStr">
@@ -28875,7 +28869,7 @@
       <c r="C251" t="inlineStr"/>
       <c r="D251" t="inlineStr">
         <is>
-          <t>-42.777457291351155,173.37485212543817</t>
+          <t>-42.77745885408554,173.37485555671523</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
@@ -28911,7 +28905,7 @@
       </c>
       <c r="L251" t="inlineStr">
         <is>
-          <t>-42.782543749244994,173.37266894127896</t>
+          <t>-42.78254429876636,173.3726724073012</t>
         </is>
       </c>
       <c r="M251" t="inlineStr"/>
@@ -28929,7 +28923,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>-42.77638256516987,173.37589998965402</t>
+          <t>-42.77638194955578,173.37589863795506</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -28939,7 +28933,7 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>-42.77758046291528,173.37512257298664</t>
+          <t>-42.77757700597515,173.37511498255643</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
@@ -28979,7 +28973,7 @@
       </c>
       <c r="L252" t="inlineStr">
         <is>
-          <t>-42.78257503389762,173.37286626560606</t>
+          <t>-42.78257384012245,173.37285873596431</t>
         </is>
       </c>
       <c r="M252" t="inlineStr">
@@ -29001,13 +28995,13 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>-42.77637858735536,173.37589125559975</t>
+          <t>-42.77637863471031,173.37589135957657</t>
         </is>
       </c>
       <c r="C253" t="inlineStr"/>
       <c r="D253" t="inlineStr">
         <is>
-          <t>-42.777588702743145,173.37514066524835</t>
+          <t>-42.77758879745379,173.3751408732054</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
@@ -29047,7 +29041,7 @@
       </c>
       <c r="L253" t="inlineStr">
         <is>
-          <t>-42.782564555187626,173.37280017209366</t>
+          <t>-42.782564593085375,173.37280041112982</t>
         </is>
       </c>
       <c r="M253" t="inlineStr">
@@ -29069,7 +29063,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>-42.776415618888315,173.375972565529</t>
+          <t>-42.776415334759136,173.37597194166727</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -29079,7 +29073,7 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>-42.77761550584135,173.37519951712125</t>
+          <t>-42.77761413253847,173.37519650174139</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
@@ -29119,7 +29113,7 @@
       </c>
       <c r="L254" t="inlineStr">
         <is>
-          <t>-42.782564176210045,173.37279778173198</t>
+          <t>-42.78256370248803,173.37279479377986</t>
         </is>
       </c>
       <c r="M254" t="inlineStr">
@@ -29143,7 +29137,7 @@
       <c r="C255" t="inlineStr"/>
       <c r="D255" t="inlineStr">
         <is>
-          <t>-42.77754191563626,173.37503793453857</t>
+          <t>-42.777541820925435,173.3750377265818</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
@@ -29183,7 +29177,7 @@
       </c>
       <c r="L255" t="inlineStr">
         <is>
-          <t>-42.782555478661074,173.37274292293887</t>
+          <t>-42.7825554407632,173.37274268390277</t>
         </is>
       </c>
       <c r="M255" t="inlineStr">
@@ -29207,7 +29201,7 @@
       <c r="C256" t="inlineStr"/>
       <c r="D256" t="inlineStr">
         <is>
-          <t>-42.777586382332146,173.3751355703006</t>
+          <t>-42.777588039768595,173.37513920954896</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
@@ -29247,7 +29241,7 @@
       </c>
       <c r="L256" t="inlineStr">
         <is>
-          <t>-42.782557127218126,173.37275332100958</t>
+          <t>-42.78255767673693,173.37275678703327</t>
         </is>
       </c>
       <c r="M256" t="inlineStr">
@@ -29297,7 +29291,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>-42.77635718291327,173.37584425808882</t>
+          <t>-42.77635651994351,173.3758428024142</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -29307,7 +29301,7 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>-42.7776029093361,173.37517185881427</t>
+          <t>-42.77759916826746,173.3751636445072</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
@@ -29347,7 +29341,7 @@
       </c>
       <c r="L258" t="inlineStr">
         <is>
-          <t>-42.78250619205238,173.37243205673144</t>
+          <t>-42.78250492245152,173.37242404903475</t>
         </is>
       </c>
       <c r="M258" t="inlineStr">
@@ -29369,13 +29363,13 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>-42.77635178444473,173.37583240473936</t>
+          <t>-42.776352494769604,173.3758339643905</t>
         </is>
       </c>
       <c r="C259" t="inlineStr"/>
       <c r="D259" t="inlineStr">
         <is>
-          <t>-42.777632885219084,173.37523767728499</t>
+          <t>-42.77763695776896,173.37524661945176</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
@@ -29417,13 +29411,13 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>-42.77632029335342,173.37576326024197</t>
+          <t>-42.77631967773768,173.3757619085457</t>
         </is>
       </c>
       <c r="C260" t="inlineStr"/>
       <c r="D260" t="inlineStr">
         <is>
-          <t>-42.77755692729913,173.37507089569078</t>
+          <t>-42.77755356506633,173.37506351322313</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
@@ -29463,7 +29457,7 @@
       </c>
       <c r="L260" t="inlineStr">
         <is>
-          <t>-42.7825050550964,173.37242488565974</t>
+          <t>-42.78250388024142,173.37241747555262</t>
         </is>
       </c>
       <c r="M260" t="inlineStr">
@@ -29515,7 +29509,7 @@
       <c r="C262" t="inlineStr"/>
       <c r="D262" t="inlineStr">
         <is>
-          <t>-42.77762156731516,173.37521282638573</t>
+          <t>-42.77762436127521,173.3752189611257</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
@@ -29555,7 +29549,7 @@
       </c>
       <c r="L262" t="inlineStr">
         <is>
-          <t>-42.782516329889916,173.37249599879888</t>
+          <t>-42.78251729629874,173.372502094212</t>
         </is>
       </c>
       <c r="M262" t="inlineStr">
@@ -29577,13 +29571,13 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>-42.77642201179412,173.37598660241915</t>
+          <t>-42.77642286418143,173.3759884740047</t>
         </is>
       </c>
       <c r="C263" t="inlineStr"/>
       <c r="D263" t="inlineStr">
         <is>
-          <t>-42.777653058540615,173.37528197221562</t>
+          <t>-42.77765788876996,173.37529257804832</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
@@ -29625,7 +29619,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>-42.77641434030695,173.3759697581513</t>
+          <t>-42.776415050629936,173.37597131780558</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -29635,7 +29629,7 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>-42.77765689431105,173.3752903944944</t>
+          <t>-42.77766082479123,173.37529902473176</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
@@ -29667,7 +29661,7 @@
       </c>
       <c r="L264" t="inlineStr">
         <is>
-          <t>-42.78256347510142,173.37279335956288</t>
+          <t>-42.78256482047189,173.37280184534686</t>
         </is>
       </c>
       <c r="M264" t="inlineStr">
@@ -29689,7 +29683,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>-42.77641116753067,173.37596279169608</t>
+          <t>-42.77641074133681,173.37596185590363</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -29699,7 +29693,7 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>-42.777607218667605,173.37518132086538</t>
+          <t>-42.77760475619257,173.37517591397886</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
@@ -29739,7 +29733,7 @@
       </c>
       <c r="L265" t="inlineStr">
         <is>
-          <t>-42.782580339559,173.37289973068405</t>
+          <t>-42.78257950581284,173.37289447188573</t>
         </is>
       </c>
       <c r="M265" t="inlineStr">
@@ -29761,7 +29755,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>-42.77643768624468,173.37602101880645</t>
+          <t>-42.776437070632,173.3760196671051</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -29771,7 +29765,7 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>-42.777620951696804,173.37521147466347</t>
+          <t>-42.77761749476262,173.37520388422337</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
@@ -29811,7 +29805,7 @@
       </c>
       <c r="L266" t="inlineStr">
         <is>
-          <t>-42.782540035235726,173.37264551575106</t>
+          <t>-42.78253884144601,173.3726379861177</t>
         </is>
       </c>
       <c r="M266" t="inlineStr">
@@ -29923,7 +29917,7 @@
       </c>
       <c r="L268" t="inlineStr">
         <is>
-          <t>-42.782533175675376,173.37260225024252</t>
+          <t>-42.78253381994417,173.37260631385342</t>
         </is>
       </c>
       <c r="M268" t="inlineStr">
@@ -29945,7 +29939,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>-42.77635112147481,173.37583094906503</t>
+          <t>-42.7763512635398,173.37583126099523</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -29955,7 +29949,7 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>-42.777597794963626,173.3751606291289</t>
+          <t>-42.77759860000381,173.37516239676444</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
@@ -30001,7 +29995,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>-42.77635505193901,173.37583957913483</t>
+          <t>-42.776354388969175,173.37583812346034</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -30011,7 +30005,7 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>-42.777501805562615,173.37494986491322</t>
+          <t>-42.77749825389991,173.37494206654574</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
@@ -30043,7 +30037,7 @@
       </c>
       <c r="L270" t="inlineStr">
         <is>
-          <t>-42.78265520518513,173.37337194744032</t>
+          <t>-42.78265397354673,173.37336417874252</t>
         </is>
       </c>
       <c r="M270" t="inlineStr">
@@ -30065,7 +30059,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>-42.776342834349386,173.37581275313826</t>
+          <t>-42.776342171379234,173.37581129746434</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -30075,7 +30069,7 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>-42.777552665313806,173.37506153763334</t>
+          <t>-42.77754901894798,173.37505353129632</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
@@ -30107,7 +30101,7 @@
       </c>
       <c r="L271" t="inlineStr">
         <is>
-          <t>-42.78260889521798,173.37307984461154</t>
+          <t>-42.782607644611126,173.3730719564069</t>
         </is>
       </c>
       <c r="M271" t="inlineStr"/>
